--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_15_35.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_15_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2058617.186702524</v>
+        <v>2057939.366022252</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>313298.451505232</v>
+        <v>313298.4515052326</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058543</v>
+        <v>632041.4518058548</v>
       </c>
     </row>
     <row r="9">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>122.0492982736043</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>94.67950460670747</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>46.21360886079819</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,22 +1421,22 @@
         <v>32.88999934163198</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>28.03643329293221</v>
       </c>
       <c r="U11" t="n">
-        <v>55.76720738385725</v>
+        <v>46.57458928482607</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>122.0492982736041</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>122.0492982736041</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>122.0492982736043</v>
+        <v>122.0492982736041</v>
       </c>
     </row>
     <row r="12">
@@ -1455,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>111.5317073420749</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1491,22 +1491,22 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.136586121265616</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>122.0492982736043</v>
+        <v>122.0492982736041</v>
       </c>
       <c r="T12" t="n">
         <v>20.56530653072794</v>
       </c>
       <c r="U12" t="n">
-        <v>42.84521610603974</v>
+        <v>122.0492982736041</v>
       </c>
       <c r="V12" t="n">
-        <v>46.26644524054751</v>
+        <v>84.73065653632301</v>
       </c>
       <c r="W12" t="n">
         <v>72.32210790215686</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>8.831062059420482</v>
+        <v>8.83106205942048</v>
       </c>
       <c r="S13" t="n">
         <v>40.9716860187126</v>
@@ -1619,13 +1619,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>122.0492982736043</v>
+        <v>122.0492982736041</v>
       </c>
       <c r="H14" t="n">
-        <v>33.2509797656602</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>46.21360886079819</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,19 +1658,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>28.0364332929322</v>
+        <v>28.03643329293212</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>55.76720738385717</v>
       </c>
       <c r="V14" t="n">
-        <v>122.0492982736043</v>
+        <v>122.0492982736041</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>122.0492982736041</v>
       </c>
       <c r="X14" t="n">
-        <v>122.0492982736043</v>
+        <v>23.69738124260114</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1707,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>51.93274503525222</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1728,31 +1728,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.136586121265616</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>122.0492982736043</v>
+        <v>122.0492982736041</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>38.46421129577589</v>
       </c>
       <c r="T15" t="n">
-        <v>80.16426883755065</v>
+        <v>20.56530653072786</v>
       </c>
       <c r="U15" t="n">
-        <v>42.84521610603974</v>
+        <v>122.0492982736041</v>
       </c>
       <c r="V15" t="n">
-        <v>46.26644524054751</v>
+        <v>46.26644524054743</v>
       </c>
       <c r="W15" t="n">
-        <v>72.32210790215686</v>
+        <v>72.32210790215677</v>
       </c>
       <c r="X15" t="n">
-        <v>22.93043876461587</v>
+        <v>22.93043876461579</v>
       </c>
       <c r="Y15" t="n">
-        <v>29.00181045917088</v>
+        <v>29.0018104591708</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>8.831062059420482</v>
+        <v>8.831062059420395</v>
       </c>
       <c r="S16" t="n">
-        <v>40.9716860187126</v>
+        <v>40.97168601871252</v>
       </c>
       <c r="T16" t="n">
-        <v>29.35851686199503</v>
+        <v>29.35851686199494</v>
       </c>
       <c r="U16" t="n">
-        <v>94.27381875013462</v>
+        <v>94.27381875013454</v>
       </c>
       <c r="V16" t="n">
-        <v>50.72653950959517</v>
+        <v>50.72653950959509</v>
       </c>
       <c r="W16" t="n">
-        <v>95.92823141448059</v>
+        <v>95.92823141448051</v>
       </c>
       <c r="X16" t="n">
-        <v>27.5369797333878</v>
+        <v>27.53697973338771</v>
       </c>
       <c r="Y16" t="n">
-        <v>22.75879713931369</v>
+        <v>22.7587971393136</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>82.31946603086146</v>
       </c>
       <c r="G17" t="n">
-        <v>97.94765892927444</v>
+        <v>97.94765892927315</v>
       </c>
       <c r="H17" t="n">
         <v>26.0317220423338</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>101.3644357981249</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1965,13 +1965,13 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>6.136586121265609</v>
       </c>
       <c r="R18" t="n">
-        <v>122.0492982736043</v>
+        <v>122.0492982736041</v>
       </c>
       <c r="S18" t="n">
-        <v>122.0492982736043</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -1983,13 +1983,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>122.0492982736043</v>
+        <v>122.0492982736041</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>122.0492982736041</v>
       </c>
       <c r="Y18" t="n">
-        <v>107.5010219193907</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2093,7 +2093,7 @@
         <v>82.31946603086141</v>
       </c>
       <c r="G20" t="n">
-        <v>97.94765892927438</v>
+        <v>97.94765892927433</v>
       </c>
       <c r="H20" t="n">
         <v>26.03172204233374</v>
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>122.0492982736043</v>
+        <v>122.0492982736041</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>101.3644357981251</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2202,13 +2202,13 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.136586121265616</v>
+        <v>6.136586121265609</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>122.0492982736041</v>
       </c>
       <c r="S21" t="n">
-        <v>122.0492982736043</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2217,13 +2217,13 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>122.0492982736043</v>
+        <v>101.3644357981248</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>122.0492982736041</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2330,7 +2330,7 @@
         <v>82.31946603086141</v>
       </c>
       <c r="G23" t="n">
-        <v>97.94765892927438</v>
+        <v>97.94765892927433</v>
       </c>
       <c r="H23" t="n">
         <v>26.03172204233374</v>
@@ -2397,16 +2397,16 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>101.364435798125</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>122.0492982736043</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>122.0492982736043</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>122.0492982736043</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2439,19 +2439,19 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.136586121265616</v>
+        <v>6.136586121265609</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>122.0492982736042</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>122.0492982736042</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>122.0492982736042</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2460,7 +2460,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>101.3644357981249</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>161.170083129693</v>
+        <v>161.1700831296929</v>
       </c>
       <c r="C26" t="n">
-        <v>137.2883401330385</v>
+        <v>137.2883401330384</v>
       </c>
       <c r="D26" t="n">
-        <v>124.855002394087</v>
+        <v>124.8550023940869</v>
       </c>
       <c r="E26" t="n">
-        <v>158.5617548134959</v>
+        <v>158.5617548134958</v>
       </c>
       <c r="F26" t="n">
-        <v>190.2820923918732</v>
+        <v>190.2820923918731</v>
       </c>
       <c r="G26" t="n">
-        <v>205.9102852902861</v>
+        <v>205.910285290286</v>
       </c>
       <c r="H26" t="n">
-        <v>133.9943484033456</v>
+        <v>133.9943484033454</v>
       </c>
       <c r="I26" t="n">
-        <v>27.67892728751264</v>
+        <v>27.67892728751252</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.35531776834643</v>
+        <v>14.35531776834631</v>
       </c>
       <c r="T26" t="n">
-        <v>9.501751719646656</v>
+        <v>9.501751719646542</v>
       </c>
       <c r="U26" t="n">
-        <v>37.2325258105717</v>
+        <v>37.23252581057159</v>
       </c>
       <c r="V26" t="n">
-        <v>107.9626263610117</v>
+        <v>107.9626263610116</v>
       </c>
       <c r="W26" t="n">
-        <v>124.9793065776266</v>
+        <v>124.9793065776265</v>
       </c>
       <c r="X26" t="n">
-        <v>146.8655570465658</v>
+        <v>146.8655570465657</v>
       </c>
       <c r="Y26" t="n">
-        <v>169.3684101703096</v>
+        <v>169.3684101703095</v>
       </c>
     </row>
     <row r="27">
@@ -2631,13 +2631,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2679,28 +2679,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>17.02319481531503</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>191.4841495043256</v>
       </c>
       <c r="T27" t="n">
-        <v>112.9313227747529</v>
+        <v>2.030624957442275</v>
       </c>
       <c r="U27" t="n">
-        <v>24.31053453275419</v>
+        <v>24.31053453275407</v>
       </c>
       <c r="V27" t="n">
-        <v>27.73176366726196</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W27" t="n">
-        <v>53.78742632887131</v>
+        <v>53.78742632887119</v>
       </c>
       <c r="X27" t="n">
-        <v>4.395757191330318</v>
+        <v>4.395757191330205</v>
       </c>
       <c r="Y27" t="n">
-        <v>10.46712888588533</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>22.43700444542705</v>
+        <v>22.43700444542694</v>
       </c>
       <c r="T28" t="n">
-        <v>10.82383528870947</v>
+        <v>10.82383528870936</v>
       </c>
       <c r="U28" t="n">
-        <v>75.73913717684907</v>
+        <v>75.73913717684896</v>
       </c>
       <c r="V28" t="n">
-        <v>32.19185793630962</v>
+        <v>32.1918579363095</v>
       </c>
       <c r="W28" t="n">
-        <v>77.39354984119504</v>
+        <v>77.39354984119493</v>
       </c>
       <c r="X28" t="n">
-        <v>9.002298160102242</v>
+        <v>9.002298160102129</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.224115566028132</v>
+        <v>4.224115566028019</v>
       </c>
     </row>
     <row r="29">
@@ -2798,7 +2798,7 @@
         <v>124.855002394087</v>
       </c>
       <c r="E29" t="n">
-        <v>158.5617548134959</v>
+        <v>158.5617548134958</v>
       </c>
       <c r="F29" t="n">
         <v>190.2820923918732</v>
@@ -2807,10 +2807,10 @@
         <v>205.9102852902861</v>
       </c>
       <c r="H29" t="n">
-        <v>133.9943484033456</v>
+        <v>133.9943484033455</v>
       </c>
       <c r="I29" t="n">
-        <v>27.67892728751264</v>
+        <v>27.67892728751261</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.35531776834643</v>
+        <v>14.3553177683464</v>
       </c>
       <c r="T29" t="n">
-        <v>9.501751719646656</v>
+        <v>9.50175171964662</v>
       </c>
       <c r="U29" t="n">
-        <v>37.2325258105717</v>
+        <v>37.23252581057167</v>
       </c>
       <c r="V29" t="n">
         <v>107.9626263610117</v>
@@ -2868,7 +2868,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>74.14400670476512</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2916,28 +2916,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>134.3633376148752</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>214.9477822055827</v>
+        <v>2.03062495744236</v>
       </c>
       <c r="U30" t="n">
-        <v>232.8178788523944</v>
+        <v>24.31053453275416</v>
       </c>
       <c r="V30" t="n">
-        <v>27.73176366726196</v>
+        <v>27.73176366726193</v>
       </c>
       <c r="W30" t="n">
-        <v>53.78742632887131</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X30" t="n">
-        <v>217.3129144394706</v>
+        <v>4.39575719133029</v>
       </c>
       <c r="Y30" t="n">
-        <v>10.46712888588533</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>22.43700444542705</v>
+        <v>22.43700444542702</v>
       </c>
       <c r="T31" t="n">
-        <v>10.82383528870947</v>
+        <v>10.82383528870945</v>
       </c>
       <c r="U31" t="n">
-        <v>75.73913717684907</v>
+        <v>75.73913717684904</v>
       </c>
       <c r="V31" t="n">
-        <v>32.19185793630962</v>
+        <v>32.19185793630959</v>
       </c>
       <c r="W31" t="n">
-        <v>77.39354984119504</v>
+        <v>77.39354984119501</v>
       </c>
       <c r="X31" t="n">
-        <v>9.002298160102242</v>
+        <v>9.002298160102214</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.224115566028132</v>
+        <v>4.224115566028104</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3041,7 @@
         <v>190.2820923918732</v>
       </c>
       <c r="G32" t="n">
-        <v>205.9102852902862</v>
+        <v>205.9102852902861</v>
       </c>
       <c r="H32" t="n">
         <v>133.9943484033456</v>
@@ -3080,7 +3080,7 @@
         <v>14.35531776834645</v>
       </c>
       <c r="T32" t="n">
-        <v>9.501751719646677</v>
+        <v>9.501751719646684</v>
       </c>
       <c r="U32" t="n">
         <v>37.23252581057173</v>
@@ -3114,7 +3114,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>68.00742058349931</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3150,28 +3150,28 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>6.136586121265609</v>
       </c>
       <c r="R33" t="n">
-        <v>17.02319481531458</v>
+        <v>134.3633376148752</v>
       </c>
       <c r="S33" t="n">
-        <v>191.4841495043256</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>2.030624957442418</v>
+        <v>214.9477822055827</v>
       </c>
       <c r="U33" t="n">
-        <v>24.31053453275421</v>
+        <v>237.2276917808945</v>
       </c>
       <c r="V33" t="n">
         <v>27.73176366726199</v>
       </c>
       <c r="W33" t="n">
-        <v>266.7045835770116</v>
+        <v>53.78742632887133</v>
       </c>
       <c r="X33" t="n">
-        <v>217.3129144394706</v>
+        <v>4.395757191330347</v>
       </c>
       <c r="Y33" t="n">
         <v>10.46712888588536</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>125.9940064659682</v>
+        <v>125.9940064659683</v>
       </c>
       <c r="C35" t="n">
-        <v>102.1122634693137</v>
+        <v>102.1122634693138</v>
       </c>
       <c r="D35" t="n">
-        <v>89.67892573036215</v>
+        <v>89.67892573036227</v>
       </c>
       <c r="E35" t="n">
-        <v>123.385678149771</v>
+        <v>123.3856781497711</v>
       </c>
       <c r="F35" t="n">
-        <v>155.1060157281483</v>
+        <v>155.1060157281485</v>
       </c>
       <c r="G35" t="n">
-        <v>170.7342086265613</v>
+        <v>170.7342086265614</v>
       </c>
       <c r="H35" t="n">
-        <v>98.81827173962068</v>
+        <v>98.8182717396208</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>2.056449146846851</v>
+        <v>2.056449146846973</v>
       </c>
       <c r="V35" t="n">
-        <v>72.78654969728689</v>
+        <v>72.786549697287</v>
       </c>
       <c r="W35" t="n">
-        <v>89.80322991390176</v>
+        <v>89.80322991390187</v>
       </c>
       <c r="X35" t="n">
-        <v>111.689480382841</v>
+        <v>111.6894803828411</v>
       </c>
       <c r="Y35" t="n">
-        <v>134.1923335065848</v>
+        <v>134.1923335065849</v>
       </c>
     </row>
     <row r="36">
@@ -3342,16 +3342,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>161.8818143246729</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3390,22 +3390,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>69.09278251369741</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>191.4841495043256</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>237.2276917808945</v>
       </c>
       <c r="V36" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>18.61134966514646</v>
+        <v>18.61134966514658</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>40.56306051312422</v>
+        <v>40.56306051312433</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>42.2174731774702</v>
+        <v>42.21747317747031</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>125.9940064659682</v>
+        <v>125.9940064659683</v>
       </c>
       <c r="C38" t="n">
-        <v>102.1122634693137</v>
+        <v>102.1122634693138</v>
       </c>
       <c r="D38" t="n">
-        <v>89.67892573036215</v>
+        <v>89.67892573036227</v>
       </c>
       <c r="E38" t="n">
-        <v>123.385678149771</v>
+        <v>123.3856781497711</v>
       </c>
       <c r="F38" t="n">
-        <v>155.1060157281483</v>
+        <v>155.1060157281485</v>
       </c>
       <c r="G38" t="n">
-        <v>170.7342086265613</v>
+        <v>170.7342086265614</v>
       </c>
       <c r="H38" t="n">
-        <v>98.81827173962068</v>
+        <v>98.8182717396208</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.056449146846851</v>
+        <v>2.056449146846973</v>
       </c>
       <c r="V38" t="n">
-        <v>72.78654969728689</v>
+        <v>72.786549697287</v>
       </c>
       <c r="W38" t="n">
-        <v>89.80322991390176</v>
+        <v>89.80322991390187</v>
       </c>
       <c r="X38" t="n">
-        <v>111.689480382841</v>
+        <v>111.6894803828411</v>
       </c>
       <c r="Y38" t="n">
-        <v>134.1923335065848</v>
+        <v>134.1923335065849</v>
       </c>
     </row>
     <row r="39">
@@ -3588,22 +3588,22 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>146.1126825160673</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>148.7388631915159</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>125.6800758778345</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>107.1657389737211</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>51.93274503525224</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3633,16 +3633,16 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>12.48369810615796</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>237.2276917808945</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>18.61134966514646</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>40.56306051312422</v>
+        <v>40.56306051312433</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>42.2174731774702</v>
+        <v>42.21747317747031</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3794,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>9.553598523059058</v>
+        <v>9.553598523059065</v>
       </c>
       <c r="V41" t="n">
         <v>80.28369907349909</v>
@@ -3828,13 +3828,13 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>148.7388631915159</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>125.6800758778345</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3867,25 +3867,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>191.4841495043256</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>214.9477822055827</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>83.87554271279718</v>
       </c>
       <c r="V42" t="n">
-        <v>0.05283637974932276</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>100.3853936764124</v>
+        <v>26.10849904135867</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -4059,13 +4059,13 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>134.3633376148752</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>63.59668494139329</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>214.9477822055827</v>
@@ -4113,16 +4113,16 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0.05283637974932276</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
-        <v>26.10849904135867</v>
+        <v>78.08390512445587</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="46">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>152.0802200916922</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="C11" t="n">
-        <v>152.0802200916922</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="D11" t="n">
-        <v>152.0802200916922</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="E11" t="n">
-        <v>152.0802200916922</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="F11" t="n">
-        <v>152.0802200916922</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="G11" t="n">
-        <v>152.0802200916922</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="H11" t="n">
-        <v>56.44435685259373</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="I11" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="J11" t="n">
-        <v>18.23878872397223</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="K11" t="n">
-        <v>139.0675940148405</v>
+        <v>79.40459512339569</v>
       </c>
       <c r="L11" t="n">
-        <v>187.4648445018279</v>
+        <v>127.8018456103831</v>
       </c>
       <c r="M11" t="n">
-        <v>270.1920705049449</v>
+        <v>210.5290716135</v>
       </c>
       <c r="N11" t="n">
-        <v>347.4154734964498</v>
+        <v>331.3578769043681</v>
       </c>
       <c r="O11" t="n">
-        <v>383.4259843956301</v>
+        <v>367.3683878035483</v>
       </c>
       <c r="P11" t="n">
-        <v>383.4259843956301</v>
+        <v>488.1971930944164</v>
       </c>
       <c r="Q11" t="n">
-        <v>488.1971930944173</v>
+        <v>488.1971930944164</v>
       </c>
       <c r="R11" t="n">
-        <v>488.1971930944173</v>
+        <v>488.1971930944164</v>
       </c>
       <c r="S11" t="n">
-        <v>454.9749715372133</v>
+        <v>454.9749715372123</v>
       </c>
       <c r="T11" t="n">
-        <v>454.9749715372133</v>
+        <v>426.6553419483919</v>
       </c>
       <c r="U11" t="n">
-        <v>398.6444590282666</v>
+        <v>379.6103022667494</v>
       </c>
       <c r="V11" t="n">
-        <v>398.6444590282666</v>
+        <v>256.3281827984624</v>
       </c>
       <c r="W11" t="n">
-        <v>398.6444590282666</v>
+        <v>133.0460633301753</v>
       </c>
       <c r="X11" t="n">
-        <v>398.6444590282666</v>
+        <v>133.0460633301753</v>
       </c>
       <c r="Y11" t="n">
-        <v>275.3623395599794</v>
+        <v>9.763943861888327</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>122.4222341064085</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="C12" t="n">
-        <v>122.4222341064085</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="D12" t="n">
-        <v>122.4222341064085</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="E12" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="F12" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="G12" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="H12" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="I12" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="J12" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="K12" t="n">
-        <v>9.763943861888347</v>
+        <v>48.64509028167976</v>
       </c>
       <c r="L12" t="n">
-        <v>41.00029403282524</v>
+        <v>167.2121322091852</v>
       </c>
       <c r="M12" t="n">
-        <v>161.8290993236935</v>
+        <v>288.0409375000532</v>
       </c>
       <c r="N12" t="n">
-        <v>282.6579046145618</v>
+        <v>403.4867099054291</v>
       </c>
       <c r="O12" t="n">
-        <v>403.4867099054301</v>
+        <v>403.4867099054291</v>
       </c>
       <c r="P12" t="n">
-        <v>488.1971930944173</v>
+        <v>488.1971930944164</v>
       </c>
       <c r="Q12" t="n">
-        <v>481.9986212547551</v>
+        <v>488.1971930944164</v>
       </c>
       <c r="R12" t="n">
-        <v>481.9986212547551</v>
+        <v>488.1971930944164</v>
       </c>
       <c r="S12" t="n">
-        <v>358.7165017864679</v>
+        <v>364.9150736261294</v>
       </c>
       <c r="T12" t="n">
-        <v>337.9434648867427</v>
+        <v>344.1420367264042</v>
       </c>
       <c r="U12" t="n">
-        <v>294.6654688200359</v>
+        <v>220.8599172581173</v>
       </c>
       <c r="V12" t="n">
-        <v>247.9316857487758</v>
+        <v>135.2733955042556</v>
       </c>
       <c r="W12" t="n">
-        <v>174.8790515041729</v>
+        <v>62.22076125965273</v>
       </c>
       <c r="X12" t="n">
-        <v>151.716992145975</v>
+        <v>39.05870190145488</v>
       </c>
       <c r="Y12" t="n">
-        <v>122.4222341064085</v>
+        <v>9.763943861888327</v>
       </c>
     </row>
     <row r="13">
@@ -5173,49 +5173,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="C13" t="n">
-        <v>9.763943861888347</v>
+        <v>32.52503327852175</v>
       </c>
       <c r="D13" t="n">
-        <v>9.763943861888347</v>
+        <v>32.52503327852175</v>
       </c>
       <c r="E13" t="n">
-        <v>61.94321497989179</v>
+        <v>32.52503327852175</v>
       </c>
       <c r="F13" t="n">
-        <v>116.8442525017358</v>
+        <v>87.42607080036575</v>
       </c>
       <c r="G13" t="n">
-        <v>116.8442525017358</v>
+        <v>112.8557197065</v>
       </c>
       <c r="H13" t="n">
-        <v>116.8442525017358</v>
+        <v>112.8557197065</v>
       </c>
       <c r="I13" t="n">
-        <v>122.4308499427874</v>
+        <v>142.2332337721119</v>
       </c>
       <c r="J13" t="n">
-        <v>196.169186583581</v>
+        <v>142.2332337721119</v>
       </c>
       <c r="K13" t="n">
-        <v>196.169186583581</v>
+        <v>142.2332337721119</v>
       </c>
       <c r="L13" t="n">
-        <v>196.169186583581</v>
+        <v>263.0620390629799</v>
       </c>
       <c r="M13" t="n">
-        <v>196.169186583581</v>
+        <v>383.890844353848</v>
       </c>
       <c r="N13" t="n">
-        <v>196.169186583581</v>
+        <v>383.890844353848</v>
       </c>
       <c r="O13" t="n">
-        <v>196.169186583581</v>
+        <v>383.890844353848</v>
       </c>
       <c r="P13" t="n">
-        <v>316.9979918744493</v>
+        <v>383.890844353848</v>
       </c>
       <c r="Q13" t="n">
         <v>383.890844353848</v>
@@ -5233,16 +5233,16 @@
         <v>208.7038911313603</v>
       </c>
       <c r="V13" t="n">
-        <v>157.4649623337895</v>
+        <v>157.4649623337894</v>
       </c>
       <c r="W13" t="n">
-        <v>60.56775888481914</v>
+        <v>60.56775888481912</v>
       </c>
       <c r="X13" t="n">
-        <v>32.75262784099309</v>
+        <v>32.75262784099306</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888327</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>213.3133245690225</v>
+        <v>133.0460633301754</v>
       </c>
       <c r="C14" t="n">
-        <v>213.3133245690225</v>
+        <v>133.0460633301754</v>
       </c>
       <c r="D14" t="n">
-        <v>213.3133245690225</v>
+        <v>133.0460633301754</v>
       </c>
       <c r="E14" t="n">
-        <v>213.3133245690225</v>
+        <v>133.0460633301754</v>
       </c>
       <c r="F14" t="n">
-        <v>213.3133245690225</v>
+        <v>133.0460633301754</v>
       </c>
       <c r="G14" t="n">
-        <v>90.03120510073526</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="H14" t="n">
-        <v>56.44435685259359</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="I14" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="J14" t="n">
-        <v>38.0184774810714</v>
+        <v>127.0904160344401</v>
       </c>
       <c r="K14" t="n">
-        <v>158.8472827719397</v>
+        <v>243.8388027136268</v>
       </c>
       <c r="L14" t="n">
-        <v>207.244533258927</v>
+        <v>292.2360532006142</v>
       </c>
       <c r="M14" t="n">
-        <v>289.971759262044</v>
+        <v>374.9632792037312</v>
       </c>
       <c r="N14" t="n">
-        <v>367.195162253549</v>
+        <v>452.1866821952361</v>
       </c>
       <c r="O14" t="n">
-        <v>488.0239675444172</v>
+        <v>488.1971930944164</v>
       </c>
       <c r="P14" t="n">
-        <v>488.0239675444172</v>
+        <v>488.1971930944164</v>
       </c>
       <c r="Q14" t="n">
-        <v>488.0239675444172</v>
+        <v>488.1971930944164</v>
       </c>
       <c r="R14" t="n">
-        <v>488.1971930944173</v>
+        <v>488.1971930944164</v>
       </c>
       <c r="S14" t="n">
-        <v>488.1971930944173</v>
+        <v>488.1971930944164</v>
       </c>
       <c r="T14" t="n">
-        <v>459.8775635055969</v>
+        <v>459.8775635055961</v>
       </c>
       <c r="U14" t="n">
-        <v>459.8775635055969</v>
+        <v>403.5470509966494</v>
       </c>
       <c r="V14" t="n">
-        <v>336.5954440373097</v>
+        <v>280.2649315283625</v>
       </c>
       <c r="W14" t="n">
-        <v>336.5954440373097</v>
+        <v>156.9828120600755</v>
       </c>
       <c r="X14" t="n">
-        <v>213.3133245690225</v>
+        <v>133.0460633301754</v>
       </c>
       <c r="Y14" t="n">
-        <v>213.3133245690225</v>
+        <v>133.0460633301754</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>62.22126207931484</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="C15" t="n">
-        <v>62.22126207931484</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="D15" t="n">
-        <v>62.22126207931484</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="E15" t="n">
-        <v>62.22126207931484</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="F15" t="n">
-        <v>62.22126207931484</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="G15" t="n">
-        <v>62.22126207931484</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="H15" t="n">
-        <v>62.22126207931484</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="I15" t="n">
-        <v>62.22126207931484</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="J15" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="K15" t="n">
-        <v>48.64509028167977</v>
+        <v>48.64509028167976</v>
       </c>
       <c r="L15" t="n">
         <v>167.2121322091852</v>
       </c>
       <c r="M15" t="n">
-        <v>288.0409375000535</v>
+        <v>288.0409375000532</v>
       </c>
       <c r="N15" t="n">
-        <v>367.3683878035491</v>
+        <v>408.8697427909213</v>
       </c>
       <c r="O15" t="n">
-        <v>488.1971930944173</v>
+        <v>488.1971930944164</v>
       </c>
       <c r="P15" t="n">
-        <v>488.1971930944173</v>
+        <v>488.1971930944164</v>
       </c>
       <c r="Q15" t="n">
-        <v>481.9986212547551</v>
+        <v>488.1971930944164</v>
       </c>
       <c r="R15" t="n">
-        <v>358.7165017864679</v>
+        <v>364.9150736261294</v>
       </c>
       <c r="S15" t="n">
-        <v>358.7165017864679</v>
+        <v>326.0623349435275</v>
       </c>
       <c r="T15" t="n">
-        <v>277.7424928596491</v>
+        <v>305.2892980438024</v>
       </c>
       <c r="U15" t="n">
-        <v>234.4644967929423</v>
+        <v>182.0071785755154</v>
       </c>
       <c r="V15" t="n">
-        <v>187.7307137216822</v>
+        <v>135.2733955042553</v>
       </c>
       <c r="W15" t="n">
-        <v>114.6780794770792</v>
+        <v>62.22076125965255</v>
       </c>
       <c r="X15" t="n">
-        <v>91.51602011888139</v>
+        <v>39.05870190145479</v>
       </c>
       <c r="Y15" t="n">
-        <v>62.22126207931484</v>
+        <v>9.763943861888327</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>9.763943861888347</v>
+        <v>26.36184332167618</v>
       </c>
       <c r="C16" t="n">
-        <v>9.763943861888347</v>
+        <v>26.36184332167618</v>
       </c>
       <c r="D16" t="n">
-        <v>9.763943861888347</v>
+        <v>75.06967049157885</v>
       </c>
       <c r="E16" t="n">
-        <v>9.763943861888347</v>
+        <v>75.06967049157885</v>
       </c>
       <c r="F16" t="n">
-        <v>9.763943861888347</v>
+        <v>75.06967049157885</v>
       </c>
       <c r="G16" t="n">
-        <v>9.763943861888347</v>
+        <v>75.06967049157885</v>
       </c>
       <c r="H16" t="n">
-        <v>9.763943861888347</v>
+        <v>75.06967049157885</v>
       </c>
       <c r="I16" t="n">
-        <v>9.763943861888347</v>
+        <v>75.06967049157885</v>
       </c>
       <c r="J16" t="n">
-        <v>75.34038129271271</v>
+        <v>75.06967049157885</v>
       </c>
       <c r="K16" t="n">
-        <v>75.34038129271271</v>
+        <v>75.06967049157885</v>
       </c>
       <c r="L16" t="n">
-        <v>75.34038129271271</v>
+        <v>195.8984757824469</v>
       </c>
       <c r="M16" t="n">
-        <v>196.169186583581</v>
+        <v>316.7272810733149</v>
       </c>
       <c r="N16" t="n">
-        <v>196.169186583581</v>
+        <v>316.7272810733149</v>
       </c>
       <c r="O16" t="n">
-        <v>196.169186583581</v>
+        <v>383.8908443538472</v>
       </c>
       <c r="P16" t="n">
-        <v>316.9979918744493</v>
+        <v>383.8908443538472</v>
       </c>
       <c r="Q16" t="n">
-        <v>383.890844353848</v>
+        <v>383.8908443538472</v>
       </c>
       <c r="R16" t="n">
-        <v>374.9705796473626</v>
+        <v>374.9705796473619</v>
       </c>
       <c r="S16" t="n">
-        <v>333.5850382143196</v>
+        <v>333.585038214319</v>
       </c>
       <c r="T16" t="n">
-        <v>303.9299706769509</v>
+        <v>303.9299706769504</v>
       </c>
       <c r="U16" t="n">
-        <v>208.7038911313603</v>
+        <v>208.70389113136</v>
       </c>
       <c r="V16" t="n">
-        <v>157.4649623337895</v>
+        <v>157.4649623337892</v>
       </c>
       <c r="W16" t="n">
-        <v>60.56775888481914</v>
+        <v>60.56775888481895</v>
       </c>
       <c r="X16" t="n">
-        <v>32.75262784099309</v>
+        <v>32.75262784099298</v>
       </c>
       <c r="Y16" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888327</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>315.941787558914</v>
+        <v>315.9417875589133</v>
       </c>
       <c r="C17" t="n">
-        <v>286.3198544558566</v>
+        <v>286.3198544558559</v>
       </c>
       <c r="D17" t="n">
-        <v>269.2568483618412</v>
+        <v>269.2568483618405</v>
       </c>
       <c r="E17" t="n">
-        <v>218.1466176017562</v>
+        <v>218.1466176017556</v>
       </c>
       <c r="F17" t="n">
-        <v>134.9956418130073</v>
+        <v>134.9956418130066</v>
       </c>
       <c r="G17" t="n">
-        <v>36.05861259151845</v>
+        <v>36.05861259151843</v>
       </c>
       <c r="H17" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="I17" t="n">
-        <v>30.33876191602091</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="J17" t="n">
-        <v>30.33876191602091</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="K17" t="n">
-        <v>30.33876191602091</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="L17" t="n">
-        <v>78.73601240300827</v>
+        <v>130.5927491527564</v>
       </c>
       <c r="M17" t="n">
-        <v>161.4632384061252</v>
+        <v>213.3199751558734</v>
       </c>
       <c r="N17" t="n">
-        <v>238.6866413976302</v>
+        <v>290.5433781473783</v>
       </c>
       <c r="O17" t="n">
-        <v>274.6971522968104</v>
+        <v>326.5538890465585</v>
       </c>
       <c r="P17" t="n">
-        <v>274.6971522968104</v>
+        <v>367.3683878035483</v>
       </c>
       <c r="Q17" t="n">
-        <v>274.6971522968104</v>
+        <v>367.3683878035483</v>
       </c>
       <c r="R17" t="n">
-        <v>395.5259575876787</v>
+        <v>488.1971930944164</v>
       </c>
       <c r="S17" t="n">
-        <v>488.1971930944173</v>
+        <v>488.1971930944164</v>
       </c>
       <c r="T17" t="n">
-        <v>488.1971930944173</v>
+        <v>488.1971930944164</v>
       </c>
       <c r="U17" t="n">
-        <v>488.1971930944173</v>
+        <v>488.1971930944164</v>
       </c>
       <c r="V17" t="n">
-        <v>488.1971930944173</v>
+        <v>488.1971930944164</v>
       </c>
       <c r="W17" t="n">
-        <v>471.0086272190485</v>
+        <v>471.0086272190479</v>
       </c>
       <c r="X17" t="n">
-        <v>431.7127376376808</v>
+        <v>431.7127376376801</v>
       </c>
       <c r="Y17" t="n">
-        <v>369.6866933858648</v>
+        <v>369.6866933858641</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>9.763943861888347</v>
+        <v>112.1522628498932</v>
       </c>
       <c r="C18" t="n">
-        <v>9.763943861888347</v>
+        <v>112.1522628498932</v>
       </c>
       <c r="D18" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="E18" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="F18" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="G18" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="H18" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="I18" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="J18" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="K18" t="n">
-        <v>48.64509028167977</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="L18" t="n">
-        <v>167.2121322091852</v>
+        <v>128.3309857893937</v>
       </c>
       <c r="M18" t="n">
-        <v>288.0409375000535</v>
+        <v>246.5395825126803</v>
       </c>
       <c r="N18" t="n">
-        <v>288.0409375000535</v>
+        <v>367.3683878035483</v>
       </c>
       <c r="O18" t="n">
-        <v>403.4867099054301</v>
+        <v>488.1971930944164</v>
       </c>
       <c r="P18" t="n">
-        <v>488.1971930944173</v>
+        <v>488.1971930944164</v>
       </c>
       <c r="Q18" t="n">
-        <v>488.1971930944173</v>
+        <v>481.9986212547541</v>
       </c>
       <c r="R18" t="n">
-        <v>364.9150736261302</v>
+        <v>358.7165017864672</v>
       </c>
       <c r="S18" t="n">
-        <v>241.6329541578429</v>
+        <v>358.7165017864672</v>
       </c>
       <c r="T18" t="n">
-        <v>241.6329541578429</v>
+        <v>358.7165017864672</v>
       </c>
       <c r="U18" t="n">
-        <v>241.6329541578429</v>
+        <v>358.7165017864672</v>
       </c>
       <c r="V18" t="n">
-        <v>241.6329541578429</v>
+        <v>358.7165017864672</v>
       </c>
       <c r="W18" t="n">
-        <v>118.3508346895557</v>
+        <v>235.4343823181802</v>
       </c>
       <c r="X18" t="n">
-        <v>118.3508346895557</v>
+        <v>112.1522628498932</v>
       </c>
       <c r="Y18" t="n">
-        <v>9.763943861888347</v>
+        <v>112.1522628498932</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="C19" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="D19" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="E19" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="F19" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="G19" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="H19" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="I19" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="J19" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="K19" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="L19" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="M19" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="N19" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="O19" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="P19" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="Q19" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="R19" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="S19" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="T19" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="U19" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="V19" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="W19" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="X19" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="Y19" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888327</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>315.9417875589145</v>
+        <v>315.9417875589138</v>
       </c>
       <c r="C20" t="n">
-        <v>286.319854455857</v>
+        <v>286.3198544558567</v>
       </c>
       <c r="D20" t="n">
-        <v>269.2568483618418</v>
+        <v>269.2568483618413</v>
       </c>
       <c r="E20" t="n">
-        <v>218.1466176017566</v>
+        <v>218.1466176017564</v>
       </c>
       <c r="F20" t="n">
-        <v>134.9956418130078</v>
+        <v>134.9956418130073</v>
       </c>
       <c r="G20" t="n">
-        <v>36.05861259151839</v>
+        <v>36.05861259151837</v>
       </c>
       <c r="H20" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="I20" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="J20" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="K20" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="L20" t="n">
-        <v>58.16119434887571</v>
+        <v>130.5927491527564</v>
       </c>
       <c r="M20" t="n">
-        <v>140.8884203519927</v>
+        <v>213.3199751558734</v>
       </c>
       <c r="N20" t="n">
-        <v>218.1118233434976</v>
+        <v>334.1487804467414</v>
       </c>
       <c r="O20" t="n">
-        <v>254.1223342426779</v>
+        <v>370.1592913459216</v>
       </c>
       <c r="P20" t="n">
-        <v>254.1223342426779</v>
+        <v>370.1592913459216</v>
       </c>
       <c r="Q20" t="n">
-        <v>269.8921219085976</v>
+        <v>370.1592913459216</v>
       </c>
       <c r="R20" t="n">
-        <v>390.7209271994658</v>
+        <v>395.5259575876777</v>
       </c>
       <c r="S20" t="n">
-        <v>390.7209271994658</v>
+        <v>488.1971930944164</v>
       </c>
       <c r="T20" t="n">
-        <v>488.1971930944173</v>
+        <v>488.1971930944164</v>
       </c>
       <c r="U20" t="n">
-        <v>488.1971930944173</v>
+        <v>488.1971930944164</v>
       </c>
       <c r="V20" t="n">
-        <v>488.1971930944173</v>
+        <v>488.1971930944164</v>
       </c>
       <c r="W20" t="n">
-        <v>471.0086272190488</v>
+        <v>471.0086272190482</v>
       </c>
       <c r="X20" t="n">
-        <v>431.7127376376812</v>
+        <v>431.7127376376806</v>
       </c>
       <c r="Y20" t="n">
-        <v>369.6866933858652</v>
+        <v>369.6866933858646</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>112.1522628498935</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="C21" t="n">
-        <v>112.1522628498935</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="D21" t="n">
-        <v>112.1522628498935</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="E21" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="F21" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="G21" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="H21" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="I21" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="J21" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="K21" t="n">
-        <v>43.26205739618813</v>
+        <v>48.64509028167976</v>
       </c>
       <c r="L21" t="n">
-        <v>161.8290993236935</v>
+        <v>161.829099323693</v>
       </c>
       <c r="M21" t="n">
-        <v>161.8290993236935</v>
+        <v>282.6579046145611</v>
       </c>
       <c r="N21" t="n">
-        <v>282.6579046145618</v>
+        <v>282.6579046145611</v>
       </c>
       <c r="O21" t="n">
-        <v>403.4867099054301</v>
+        <v>403.4867099054291</v>
       </c>
       <c r="P21" t="n">
-        <v>488.1971930944173</v>
+        <v>488.1971930944164</v>
       </c>
       <c r="Q21" t="n">
-        <v>481.9986212547551</v>
+        <v>481.9986212547541</v>
       </c>
       <c r="R21" t="n">
-        <v>481.9986212547551</v>
+        <v>358.7165017864672</v>
       </c>
       <c r="S21" t="n">
-        <v>358.7165017864679</v>
+        <v>358.7165017864672</v>
       </c>
       <c r="T21" t="n">
-        <v>358.7165017864679</v>
+        <v>358.7165017864672</v>
       </c>
       <c r="U21" t="n">
-        <v>358.7165017864679</v>
+        <v>358.7165017864672</v>
       </c>
       <c r="V21" t="n">
-        <v>235.4343823181807</v>
+        <v>256.3281827984623</v>
       </c>
       <c r="W21" t="n">
-        <v>235.4343823181807</v>
+        <v>256.3281827984623</v>
       </c>
       <c r="X21" t="n">
-        <v>235.4343823181807</v>
+        <v>133.0460633301753</v>
       </c>
       <c r="Y21" t="n">
-        <v>235.4343823181807</v>
+        <v>133.0460633301753</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="C22" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="D22" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="E22" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="F22" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="G22" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="H22" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="I22" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="J22" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="K22" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="L22" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="M22" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="N22" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="O22" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="P22" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="Q22" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="R22" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="S22" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="T22" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="U22" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="V22" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="W22" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="X22" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888327</v>
       </c>
       <c r="Y22" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888327</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>315.9417875589144</v>
+        <v>315.9417875589139</v>
       </c>
       <c r="C23" t="n">
-        <v>286.3198544558572</v>
+        <v>286.3198544558564</v>
       </c>
       <c r="D23" t="n">
-        <v>269.2568483618418</v>
+        <v>269.2568483618412</v>
       </c>
       <c r="E23" t="n">
-        <v>218.1466176017569</v>
+        <v>218.146617601756</v>
       </c>
       <c r="F23" t="n">
-        <v>134.9956418130079</v>
+        <v>134.9956418130071</v>
       </c>
       <c r="G23" t="n">
-        <v>36.05861259151839</v>
+        <v>36.05861259151838</v>
       </c>
       <c r="H23" t="n">
-        <v>9.763943861888345</v>
+        <v>9.763943861888334</v>
       </c>
       <c r="I23" t="n">
-        <v>9.763943861888345</v>
+        <v>57.77904606544749</v>
       </c>
       <c r="J23" t="n">
-        <v>9.763943861888345</v>
+        <v>57.77904606544749</v>
       </c>
       <c r="K23" t="n">
-        <v>9.763943861888345</v>
+        <v>57.77904606544749</v>
       </c>
       <c r="L23" t="n">
-        <v>58.1611943488757</v>
+        <v>178.6078513563156</v>
       </c>
       <c r="M23" t="n">
-        <v>140.8884203519927</v>
+        <v>261.3350773594326</v>
       </c>
       <c r="N23" t="n">
-        <v>218.1118233434976</v>
+        <v>382.1638826503008</v>
       </c>
       <c r="O23" t="n">
-        <v>254.1223342426779</v>
+        <v>418.174393549481</v>
       </c>
       <c r="P23" t="n">
-        <v>254.1223342426779</v>
+        <v>418.174393549481</v>
       </c>
       <c r="Q23" t="n">
-        <v>254.1223342426779</v>
+        <v>418.174393549481</v>
       </c>
       <c r="R23" t="n">
-        <v>254.1223342426779</v>
+        <v>418.174393549481</v>
       </c>
       <c r="S23" t="n">
-        <v>346.7935697494166</v>
+        <v>418.174393549481</v>
       </c>
       <c r="T23" t="n">
-        <v>444.2698356443681</v>
+        <v>418.174393549481</v>
       </c>
       <c r="U23" t="n">
-        <v>488.1971930944172</v>
+        <v>488.1971930944167</v>
       </c>
       <c r="V23" t="n">
-        <v>488.1971930944172</v>
+        <v>488.1971930944167</v>
       </c>
       <c r="W23" t="n">
-        <v>471.0086272190488</v>
+        <v>471.0086272190482</v>
       </c>
       <c r="X23" t="n">
-        <v>431.7127376376811</v>
+        <v>431.7127376376806</v>
       </c>
       <c r="Y23" t="n">
-        <v>369.6866933858651</v>
+        <v>369.6866933858646</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>481.998621254755</v>
+        <v>9.763943861888334</v>
       </c>
       <c r="C24" t="n">
-        <v>379.61030226675</v>
+        <v>9.763943861888334</v>
       </c>
       <c r="D24" t="n">
-        <v>256.3281827984628</v>
+        <v>9.763943861888334</v>
       </c>
       <c r="E24" t="n">
-        <v>133.0460633301755</v>
+        <v>9.763943861888334</v>
       </c>
       <c r="F24" t="n">
-        <v>9.763943861888345</v>
+        <v>9.763943861888334</v>
       </c>
       <c r="G24" t="n">
-        <v>9.763943861888345</v>
+        <v>9.763943861888334</v>
       </c>
       <c r="H24" t="n">
-        <v>9.763943861888345</v>
+        <v>9.763943861888334</v>
       </c>
       <c r="I24" t="n">
-        <v>9.763943861888345</v>
+        <v>9.763943861888334</v>
       </c>
       <c r="J24" t="n">
-        <v>9.763943861888345</v>
+        <v>9.763943861888334</v>
       </c>
       <c r="K24" t="n">
-        <v>9.763943861888345</v>
+        <v>48.64509028167977</v>
       </c>
       <c r="L24" t="n">
-        <v>41.00029403282515</v>
+        <v>167.2121322091852</v>
       </c>
       <c r="M24" t="n">
-        <v>161.8290993236934</v>
+        <v>167.2121322091852</v>
       </c>
       <c r="N24" t="n">
-        <v>282.6579046145617</v>
+        <v>288.0409375000533</v>
       </c>
       <c r="O24" t="n">
-        <v>403.48670990543</v>
+        <v>408.8697427909215</v>
       </c>
       <c r="P24" t="n">
-        <v>488.1971930944172</v>
+        <v>488.1971930944167</v>
       </c>
       <c r="Q24" t="n">
-        <v>481.998621254755</v>
+        <v>481.9986212547545</v>
       </c>
       <c r="R24" t="n">
-        <v>481.998621254755</v>
+        <v>358.7165017864674</v>
       </c>
       <c r="S24" t="n">
-        <v>481.998621254755</v>
+        <v>235.4343823181803</v>
       </c>
       <c r="T24" t="n">
-        <v>481.998621254755</v>
+        <v>235.4343823181803</v>
       </c>
       <c r="U24" t="n">
-        <v>481.998621254755</v>
+        <v>112.1522628498933</v>
       </c>
       <c r="V24" t="n">
-        <v>481.998621254755</v>
+        <v>112.1522628498933</v>
       </c>
       <c r="W24" t="n">
-        <v>481.998621254755</v>
+        <v>112.1522628498933</v>
       </c>
       <c r="X24" t="n">
-        <v>481.998621254755</v>
+        <v>9.763943861888334</v>
       </c>
       <c r="Y24" t="n">
-        <v>481.998621254755</v>
+        <v>9.763943861888334</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>9.763943861888345</v>
+        <v>9.763943861888334</v>
       </c>
       <c r="C25" t="n">
-        <v>9.763943861888345</v>
+        <v>9.763943861888334</v>
       </c>
       <c r="D25" t="n">
-        <v>9.763943861888345</v>
+        <v>9.763943861888334</v>
       </c>
       <c r="E25" t="n">
-        <v>9.763943861888345</v>
+        <v>9.763943861888334</v>
       </c>
       <c r="F25" t="n">
-        <v>9.763943861888345</v>
+        <v>9.763943861888334</v>
       </c>
       <c r="G25" t="n">
-        <v>9.763943861888345</v>
+        <v>9.763943861888334</v>
       </c>
       <c r="H25" t="n">
-        <v>9.763943861888345</v>
+        <v>9.763943861888334</v>
       </c>
       <c r="I25" t="n">
-        <v>9.763943861888345</v>
+        <v>9.763943861888334</v>
       </c>
       <c r="J25" t="n">
-        <v>9.763943861888345</v>
+        <v>9.763943861888334</v>
       </c>
       <c r="K25" t="n">
-        <v>9.763943861888345</v>
+        <v>9.763943861888334</v>
       </c>
       <c r="L25" t="n">
-        <v>9.763943861888345</v>
+        <v>9.763943861888334</v>
       </c>
       <c r="M25" t="n">
-        <v>9.763943861888345</v>
+        <v>9.763943861888334</v>
       </c>
       <c r="N25" t="n">
-        <v>9.763943861888345</v>
+        <v>9.763943861888334</v>
       </c>
       <c r="O25" t="n">
-        <v>9.763943861888345</v>
+        <v>9.763943861888334</v>
       </c>
       <c r="P25" t="n">
-        <v>9.763943861888345</v>
+        <v>9.763943861888334</v>
       </c>
       <c r="Q25" t="n">
-        <v>9.763943861888345</v>
+        <v>9.763943861888334</v>
       </c>
       <c r="R25" t="n">
-        <v>9.763943861888345</v>
+        <v>9.763943861888334</v>
       </c>
       <c r="S25" t="n">
-        <v>9.763943861888345</v>
+        <v>9.763943861888334</v>
       </c>
       <c r="T25" t="n">
-        <v>9.763943861888345</v>
+        <v>9.763943861888334</v>
       </c>
       <c r="U25" t="n">
-        <v>9.763943861888345</v>
+        <v>9.763943861888334</v>
       </c>
       <c r="V25" t="n">
-        <v>9.763943861888345</v>
+        <v>9.763943861888334</v>
       </c>
       <c r="W25" t="n">
-        <v>9.763943861888345</v>
+        <v>9.763943861888334</v>
       </c>
       <c r="X25" t="n">
-        <v>9.763943861888345</v>
+        <v>9.763943861888334</v>
       </c>
       <c r="Y25" t="n">
-        <v>9.763943861888345</v>
+        <v>9.763943861888334</v>
       </c>
     </row>
     <row r="26">
@@ -6206,10 +6206,10 @@
         <v>885.8553792567888</v>
       </c>
       <c r="D26" t="n">
-        <v>759.7392152223574</v>
+        <v>759.7392152223576</v>
       </c>
       <c r="E26" t="n">
-        <v>599.5758265218565</v>
+        <v>599.5758265218567</v>
       </c>
       <c r="F26" t="n">
         <v>407.3716927926916</v>
@@ -6218,22 +6218,22 @@
         <v>199.3815056307864</v>
       </c>
       <c r="H26" t="n">
-        <v>64.03367896074042</v>
+        <v>64.03367896074056</v>
       </c>
       <c r="I26" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="J26" t="n">
-        <v>171.7509734792165</v>
+        <v>171.7509734792162</v>
       </c>
       <c r="K26" t="n">
-        <v>377.23033962818</v>
+        <v>377.2303396281798</v>
       </c>
       <c r="L26" t="n">
-        <v>636.4155757908263</v>
+        <v>636.4155757908262</v>
       </c>
       <c r="M26" t="n">
-        <v>929.9307874696019</v>
+        <v>929.9307874696021</v>
       </c>
       <c r="N26" t="n">
         <v>1217.942176136766</v>
@@ -6242,34 +6242,34 @@
         <v>1464.740672711605</v>
       </c>
       <c r="P26" t="n">
-        <v>1662.115223691695</v>
+        <v>1662.115223691694</v>
       </c>
       <c r="Q26" t="n">
-        <v>1785.235767148035</v>
+        <v>1785.235767148034</v>
       </c>
       <c r="R26" t="n">
-        <v>1803.758327455588</v>
+        <v>1803.758327455587</v>
       </c>
       <c r="S26" t="n">
-        <v>1789.25800647746</v>
+        <v>1789.258006477459</v>
       </c>
       <c r="T26" t="n">
-        <v>1779.660277467716</v>
+        <v>1779.660277467715</v>
       </c>
       <c r="U26" t="n">
-        <v>1742.051665537845</v>
+        <v>1742.051665537844</v>
       </c>
       <c r="V26" t="n">
-        <v>1632.998507597429</v>
+        <v>1632.998507597428</v>
       </c>
       <c r="W26" t="n">
-        <v>1506.756783781645</v>
+        <v>1506.756783781644</v>
       </c>
       <c r="X26" t="n">
-        <v>1358.407736259861</v>
+        <v>1358.40773625986</v>
       </c>
       <c r="Y26" t="n">
-        <v>1187.328534067629</v>
+        <v>1187.328534067628</v>
       </c>
     </row>
     <row r="27">
@@ -6279,31 +6279,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>386.2675570551163</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="C27" t="n">
-        <v>196.85528278808</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="D27" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="E27" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="F27" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="G27" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="H27" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="I27" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="J27" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="K27" t="n">
         <v>74.95631296890318</v>
@@ -6327,28 +6327,28 @@
         <v>800.7871810738252</v>
       </c>
       <c r="R27" t="n">
-        <v>800.7871810738252</v>
+        <v>783.5920347957292</v>
       </c>
       <c r="S27" t="n">
-        <v>800.7871810738252</v>
+        <v>590.1737019630771</v>
       </c>
       <c r="T27" t="n">
-        <v>686.715137867004</v>
+        <v>588.1225656424283</v>
       </c>
       <c r="U27" t="n">
-        <v>662.1590423793735</v>
+        <v>563.5664701547979</v>
       </c>
       <c r="V27" t="n">
-        <v>634.1471598871898</v>
+        <v>320.486752058432</v>
       </c>
       <c r="W27" t="n">
-        <v>579.8164262216632</v>
+        <v>266.1560183929055</v>
       </c>
       <c r="X27" t="n">
-        <v>575.3762674425416</v>
+        <v>261.7158596137841</v>
       </c>
       <c r="Y27" t="n">
-        <v>564.8034099820513</v>
+        <v>36.07516654911174</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="C28" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="D28" t="n">
-        <v>103.132328476567</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="E28" t="n">
-        <v>173.6609343521232</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="F28" t="n">
-        <v>246.9113066315199</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="G28" t="n">
-        <v>246.9113066315199</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="H28" t="n">
-        <v>246.9113066315199</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="I28" t="n">
-        <v>270.2284982810518</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="J28" t="n">
-        <v>270.2284982810518</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="K28" t="n">
-        <v>270.2284982810518</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="L28" t="n">
-        <v>270.2284982810518</v>
+        <v>215.7413043506738</v>
       </c>
       <c r="M28" t="n">
-        <v>270.2284982810518</v>
+        <v>215.7413043506738</v>
       </c>
       <c r="N28" t="n">
-        <v>270.2284982810518</v>
+        <v>215.7413043506738</v>
       </c>
       <c r="O28" t="n">
-        <v>270.2284982810518</v>
+        <v>215.7413043506738</v>
       </c>
       <c r="P28" t="n">
-        <v>270.2284982810518</v>
+        <v>215.7413043506738</v>
       </c>
       <c r="Q28" t="n">
-        <v>270.2284982810518</v>
+        <v>270.228498281051</v>
       </c>
       <c r="R28" t="n">
-        <v>270.2284982810518</v>
+        <v>270.228498281051</v>
       </c>
       <c r="S28" t="n">
-        <v>247.5648574270851</v>
+        <v>247.5648574270844</v>
       </c>
       <c r="T28" t="n">
-        <v>236.6316904687927</v>
+        <v>236.6316904687921</v>
       </c>
       <c r="U28" t="n">
-        <v>160.1275115022785</v>
+        <v>160.127511502278</v>
       </c>
       <c r="V28" t="n">
-        <v>127.6104832837839</v>
+        <v>127.6104832837835</v>
       </c>
       <c r="W28" t="n">
-        <v>49.43518041388991</v>
+        <v>49.43518041388967</v>
       </c>
       <c r="X28" t="n">
-        <v>40.34194994914017</v>
+        <v>40.34194994914004</v>
       </c>
       <c r="Y28" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911174</v>
       </c>
     </row>
     <row r="29">
@@ -6440,58 +6440,58 @@
         <v>1024.530470300262</v>
       </c>
       <c r="C29" t="n">
-        <v>885.8553792567885</v>
+        <v>885.8553792567888</v>
       </c>
       <c r="D29" t="n">
-        <v>759.7392152223572</v>
+        <v>759.7392152223574</v>
       </c>
       <c r="E29" t="n">
-        <v>599.5758265218562</v>
+        <v>599.5758265218566</v>
       </c>
       <c r="F29" t="n">
-        <v>407.3716927926914</v>
+        <v>407.3716927926918</v>
       </c>
       <c r="G29" t="n">
-        <v>199.3815056307863</v>
+        <v>199.3815056307866</v>
       </c>
       <c r="H29" t="n">
-        <v>64.03367896074067</v>
+        <v>64.03367896074064</v>
       </c>
       <c r="I29" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="J29" t="n">
-        <v>171.7509734792161</v>
+        <v>171.7509734792162</v>
       </c>
       <c r="K29" t="n">
-        <v>377.2303396281795</v>
+        <v>377.2303396281796</v>
       </c>
       <c r="L29" t="n">
-        <v>636.4155757908259</v>
+        <v>636.4155757908256</v>
       </c>
       <c r="M29" t="n">
-        <v>929.9307874696017</v>
+        <v>929.9307874696015</v>
       </c>
       <c r="N29" t="n">
-        <v>1217.942176136766</v>
+        <v>1217.942176136765</v>
       </c>
       <c r="O29" t="n">
-        <v>1464.740672711605</v>
+        <v>1464.740672711604</v>
       </c>
       <c r="P29" t="n">
-        <v>1662.115223691695</v>
+        <v>1662.115223691694</v>
       </c>
       <c r="Q29" t="n">
-        <v>1785.235767148035</v>
+        <v>1785.235767148034</v>
       </c>
       <c r="R29" t="n">
-        <v>1803.758327455588</v>
+        <v>1803.758327455587</v>
       </c>
       <c r="S29" t="n">
         <v>1789.25800647746</v>
       </c>
       <c r="T29" t="n">
-        <v>1779.660277467716</v>
+        <v>1779.660277467715</v>
       </c>
       <c r="U29" t="n">
         <v>1742.051665537845</v>
@@ -6503,7 +6503,7 @@
         <v>1506.756783781644</v>
       </c>
       <c r="X29" t="n">
-        <v>1358.40773625986</v>
+        <v>1358.407736259861</v>
       </c>
       <c r="Y29" t="n">
         <v>1187.328534067629</v>
@@ -6516,31 +6516,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="C30" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="D30" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="E30" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="F30" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="G30" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="H30" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="I30" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="J30" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="K30" t="n">
         <v>74.95631296890318</v>
@@ -6564,28 +6564,28 @@
         <v>800.7871810738252</v>
       </c>
       <c r="R30" t="n">
-        <v>800.7871810738252</v>
+        <v>665.0666380284968</v>
       </c>
       <c r="S30" t="n">
-        <v>800.7871810738252</v>
+        <v>665.0666380284968</v>
       </c>
       <c r="T30" t="n">
-        <v>583.6682091489942</v>
+        <v>663.0155017078479</v>
       </c>
       <c r="U30" t="n">
-        <v>348.498634550616</v>
+        <v>638.4594062202174</v>
       </c>
       <c r="V30" t="n">
-        <v>320.4867520584322</v>
+        <v>610.4475237280336</v>
       </c>
       <c r="W30" t="n">
-        <v>266.1560183929056</v>
+        <v>341.0489544583249</v>
       </c>
       <c r="X30" t="n">
-        <v>46.64802400960198</v>
+        <v>336.6087956792034</v>
       </c>
       <c r="Y30" t="n">
-        <v>36.07516654911175</v>
+        <v>110.9681026145311</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="C31" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="D31" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="E31" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="F31" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="G31" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="H31" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="I31" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="J31" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="K31" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="L31" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="M31" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="N31" t="n">
-        <v>231.2373967723315</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="O31" t="n">
-        <v>231.2373967723315</v>
+        <v>116.7580003597888</v>
       </c>
       <c r="P31" t="n">
-        <v>270.2284982810518</v>
+        <v>270.2284982810516</v>
       </c>
       <c r="Q31" t="n">
-        <v>270.2284982810518</v>
+        <v>270.2284982810516</v>
       </c>
       <c r="R31" t="n">
-        <v>270.2284982810518</v>
+        <v>270.2284982810516</v>
       </c>
       <c r="S31" t="n">
-        <v>247.5648574270851</v>
+        <v>247.5648574270849</v>
       </c>
       <c r="T31" t="n">
-        <v>236.6316904687927</v>
+        <v>236.6316904687925</v>
       </c>
       <c r="U31" t="n">
-        <v>160.1275115022785</v>
+        <v>160.1275115022783</v>
       </c>
       <c r="V31" t="n">
-        <v>127.6104832837839</v>
+        <v>127.6104832837838</v>
       </c>
       <c r="W31" t="n">
-        <v>49.43518041388991</v>
+        <v>49.43518041388984</v>
       </c>
       <c r="X31" t="n">
-        <v>40.34194994914017</v>
+        <v>40.34194994914013</v>
       </c>
       <c r="Y31" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911174</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1024.530470300263</v>
+        <v>1024.530470300262</v>
       </c>
       <c r="C32" t="n">
-        <v>885.8553792567892</v>
+        <v>885.8553792567885</v>
       </c>
       <c r="D32" t="n">
-        <v>759.7392152223579</v>
+        <v>759.7392152223572</v>
       </c>
       <c r="E32" t="n">
-        <v>599.5758265218569</v>
+        <v>599.5758265218562</v>
       </c>
       <c r="F32" t="n">
-        <v>407.371692792692</v>
+        <v>407.3716927926914</v>
       </c>
       <c r="G32" t="n">
-        <v>199.3815056307867</v>
+        <v>199.3815056307863</v>
       </c>
       <c r="H32" t="n">
         <v>64.0336789607407</v>
@@ -6701,13 +6701,13 @@
         <v>171.7509734792161</v>
       </c>
       <c r="K32" t="n">
-        <v>377.2303396281795</v>
+        <v>377.2303396281793</v>
       </c>
       <c r="L32" t="n">
-        <v>636.4155757908258</v>
+        <v>636.4155757908259</v>
       </c>
       <c r="M32" t="n">
-        <v>929.9307874696016</v>
+        <v>929.9307874696015</v>
       </c>
       <c r="N32" t="n">
         <v>1217.942176136765</v>
@@ -6737,7 +6737,7 @@
         <v>1632.998507597429</v>
       </c>
       <c r="W32" t="n">
-        <v>1506.756783781645</v>
+        <v>1506.756783781644</v>
       </c>
       <c r="X32" t="n">
         <v>1358.407736259861</v>
@@ -6753,13 +6753,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>36.07516654911174</v>
+        <v>104.7695307748686</v>
       </c>
       <c r="C33" t="n">
-        <v>36.07516654911174</v>
+        <v>104.7695307748686</v>
       </c>
       <c r="D33" t="n">
-        <v>36.07516654911174</v>
+        <v>104.7695307748686</v>
       </c>
       <c r="E33" t="n">
         <v>36.07516654911174</v>
@@ -6798,31 +6798,31 @@
         <v>800.7871810738252</v>
       </c>
       <c r="Q33" t="n">
-        <v>800.7871810738252</v>
+        <v>794.588609234163</v>
       </c>
       <c r="R33" t="n">
-        <v>783.5920347957297</v>
+        <v>658.8680661888345</v>
       </c>
       <c r="S33" t="n">
-        <v>590.1737019630775</v>
+        <v>658.8680661888345</v>
       </c>
       <c r="T33" t="n">
-        <v>588.1225656424286</v>
+        <v>441.7490942640035</v>
       </c>
       <c r="U33" t="n">
-        <v>563.5664701547981</v>
+        <v>202.1251631721909</v>
       </c>
       <c r="V33" t="n">
-        <v>535.5545876626143</v>
+        <v>174.1132806800071</v>
       </c>
       <c r="W33" t="n">
-        <v>266.1560183929057</v>
+        <v>119.7825470144805</v>
       </c>
       <c r="X33" t="n">
-        <v>46.648024009602</v>
+        <v>115.3423882353589</v>
       </c>
       <c r="Y33" t="n">
-        <v>36.07516654911174</v>
+        <v>104.7695307748686</v>
       </c>
     </row>
     <row r="34">
@@ -6835,40 +6835,40 @@
         <v>36.07516654911174</v>
       </c>
       <c r="C34" t="n">
-        <v>36.07516654911174</v>
+        <v>82.07054306251797</v>
       </c>
       <c r="D34" t="n">
-        <v>36.07516654911174</v>
+        <v>82.07054306251797</v>
       </c>
       <c r="E34" t="n">
-        <v>36.07516654911174</v>
+        <v>82.07054306251797</v>
       </c>
       <c r="F34" t="n">
-        <v>36.07516654911174</v>
+        <v>82.07054306251797</v>
       </c>
       <c r="G34" t="n">
-        <v>36.07516654911174</v>
+        <v>82.07054306251797</v>
       </c>
       <c r="H34" t="n">
-        <v>36.07516654911174</v>
+        <v>82.07054306251797</v>
       </c>
       <c r="I34" t="n">
-        <v>36.07516654911174</v>
+        <v>82.07054306251797</v>
       </c>
       <c r="J34" t="n">
-        <v>36.07516654911174</v>
+        <v>82.07054306251797</v>
       </c>
       <c r="K34" t="n">
-        <v>181.0570975262198</v>
+        <v>82.07054306251797</v>
       </c>
       <c r="L34" t="n">
-        <v>270.228498281052</v>
+        <v>261.7366808640799</v>
       </c>
       <c r="M34" t="n">
-        <v>270.228498281052</v>
+        <v>261.7366808640799</v>
       </c>
       <c r="N34" t="n">
-        <v>270.228498281052</v>
+        <v>261.7366808640799</v>
       </c>
       <c r="O34" t="n">
         <v>270.228498281052</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>773.6196706102305</v>
+        <v>773.6196706102317</v>
       </c>
       <c r="C35" t="n">
-        <v>670.475970136176</v>
+        <v>670.475970136177</v>
       </c>
       <c r="D35" t="n">
-        <v>579.8911966711637</v>
+        <v>579.8911966711646</v>
       </c>
       <c r="E35" t="n">
-        <v>455.2591985400818</v>
+        <v>455.2591985400827</v>
       </c>
       <c r="F35" t="n">
-        <v>298.586455380336</v>
+        <v>298.5864553803367</v>
       </c>
       <c r="G35" t="n">
-        <v>126.1276587878504</v>
+        <v>126.1276587878505</v>
       </c>
       <c r="H35" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722341</v>
       </c>
       <c r="I35" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722341</v>
       </c>
       <c r="J35" t="n">
-        <v>196.8113455144153</v>
+        <v>26.31122268722341</v>
       </c>
       <c r="K35" t="n">
-        <v>437.1150275604664</v>
+        <v>93.19555222005499</v>
       </c>
       <c r="L35" t="n">
-        <v>485.5122780474537</v>
+        <v>387.2051042797887</v>
       </c>
       <c r="M35" t="n">
-        <v>712.8064850341769</v>
+        <v>712.8064850341784</v>
       </c>
       <c r="N35" t="n">
-        <v>790.0298880256819</v>
+        <v>790.0298880256834</v>
       </c>
       <c r="O35" t="n">
-        <v>826.0403989248621</v>
+        <v>826.0403989248637</v>
       </c>
       <c r="P35" t="n">
-        <v>1058.239265802039</v>
+        <v>1058.239265802041</v>
       </c>
       <c r="Q35" t="n">
-        <v>1216.184125155467</v>
+        <v>1216.184125155469</v>
       </c>
       <c r="R35" t="n">
-        <v>1269.531001360107</v>
+        <v>1269.531001360109</v>
       </c>
       <c r="S35" t="n">
-        <v>1290.143552666532</v>
+        <v>1290.143552666533</v>
       </c>
       <c r="T35" t="n">
-        <v>1315.561134361169</v>
+        <v>1315.561134361171</v>
       </c>
       <c r="U35" t="n">
-        <v>1313.483913000718</v>
+        <v>1313.48391300072</v>
       </c>
       <c r="V35" t="n">
-        <v>1239.962145629721</v>
+        <v>1239.962145629723</v>
       </c>
       <c r="W35" t="n">
-        <v>1149.251812383356</v>
+        <v>1149.251812383357</v>
       </c>
       <c r="X35" t="n">
-        <v>1036.434155430991</v>
+        <v>1036.434155430993</v>
       </c>
       <c r="Y35" t="n">
-        <v>900.8863438081783</v>
+        <v>900.8863438081795</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>350.6083230925279</v>
+        <v>26.31122268722341</v>
       </c>
       <c r="C36" t="n">
-        <v>350.6083230925279</v>
+        <v>26.31122268722341</v>
       </c>
       <c r="D36" t="n">
-        <v>189.8282068535596</v>
+        <v>26.31122268722341</v>
       </c>
       <c r="E36" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722341</v>
       </c>
       <c r="F36" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722341</v>
       </c>
       <c r="G36" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722341</v>
       </c>
       <c r="H36" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722341</v>
       </c>
       <c r="I36" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722341</v>
       </c>
       <c r="J36" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722341</v>
       </c>
       <c r="K36" t="n">
-        <v>65.19236910701478</v>
+        <v>65.19236910701485</v>
       </c>
       <c r="L36" t="n">
-        <v>183.7594110345202</v>
+        <v>183.7594110345203</v>
       </c>
       <c r="M36" t="n">
-        <v>366.8762207352999</v>
+        <v>366.8762207353001</v>
       </c>
       <c r="N36" t="n">
-        <v>573.2594770746659</v>
+        <v>573.2594770746662</v>
       </c>
       <c r="O36" t="n">
-        <v>706.3127540229493</v>
+        <v>706.3127540229497</v>
       </c>
       <c r="P36" t="n">
-        <v>791.0232372119365</v>
+        <v>791.0232372119369</v>
       </c>
       <c r="Q36" t="n">
-        <v>791.0232372119365</v>
+        <v>791.0232372119369</v>
       </c>
       <c r="R36" t="n">
-        <v>791.0232372119365</v>
+        <v>721.2325478041618</v>
       </c>
       <c r="S36" t="n">
-        <v>791.0232372119365</v>
+        <v>527.8142149715096</v>
       </c>
       <c r="T36" t="n">
-        <v>791.0232372119365</v>
+        <v>527.8142149715096</v>
       </c>
       <c r="U36" t="n">
-        <v>791.0232372119365</v>
+        <v>288.190283879697</v>
       </c>
       <c r="V36" t="n">
-        <v>547.9435191155706</v>
+        <v>45.11056578333107</v>
       </c>
       <c r="W36" t="n">
-        <v>529.144176019463</v>
+        <v>26.31122268722341</v>
       </c>
       <c r="X36" t="n">
-        <v>529.144176019463</v>
+        <v>26.31122268722341</v>
       </c>
       <c r="Y36" t="n">
-        <v>529.144176019463</v>
+        <v>26.31122268722341</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722341</v>
       </c>
       <c r="C37" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722341</v>
       </c>
       <c r="D37" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722341</v>
       </c>
       <c r="E37" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722341</v>
       </c>
       <c r="F37" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722341</v>
       </c>
       <c r="G37" t="n">
-        <v>28.4394088332668</v>
+        <v>26.31122268722341</v>
       </c>
       <c r="H37" t="n">
-        <v>109.9279233847935</v>
+        <v>26.31122268722341</v>
       </c>
       <c r="I37" t="n">
-        <v>109.9279233847935</v>
+        <v>26.31122268722341</v>
       </c>
       <c r="J37" t="n">
-        <v>109.9279233847935</v>
+        <v>109.9279233847938</v>
       </c>
       <c r="K37" t="n">
-        <v>109.9279233847935</v>
+        <v>109.9279233847938</v>
       </c>
       <c r="L37" t="n">
-        <v>109.9279233847935</v>
+        <v>109.9279233847938</v>
       </c>
       <c r="M37" t="n">
-        <v>109.9279233847935</v>
+        <v>109.9279233847938</v>
       </c>
       <c r="N37" t="n">
-        <v>109.9279233847935</v>
+        <v>109.9279233847938</v>
       </c>
       <c r="O37" t="n">
-        <v>109.9279233847935</v>
+        <v>109.9279233847938</v>
       </c>
       <c r="P37" t="n">
-        <v>109.9279233847935</v>
+        <v>109.9279233847938</v>
       </c>
       <c r="Q37" t="n">
-        <v>109.9279233847935</v>
+        <v>109.9279233847938</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9279233847935</v>
+        <v>109.9279233847938</v>
       </c>
       <c r="S37" t="n">
-        <v>109.9279233847935</v>
+        <v>109.9279233847938</v>
       </c>
       <c r="T37" t="n">
-        <v>109.9279233847935</v>
+        <v>109.9279233847938</v>
       </c>
       <c r="U37" t="n">
-        <v>68.95513498769833</v>
+        <v>68.95513498769847</v>
       </c>
       <c r="V37" t="n">
-        <v>68.95513498769833</v>
+        <v>68.95513498769847</v>
       </c>
       <c r="W37" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722341</v>
       </c>
       <c r="X37" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722341</v>
       </c>
       <c r="Y37" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722341</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>773.6196706102305</v>
+        <v>773.6196706102312</v>
       </c>
       <c r="C38" t="n">
-        <v>670.4759701361763</v>
+        <v>670.4759701361768</v>
       </c>
       <c r="D38" t="n">
-        <v>579.891196671164</v>
+        <v>579.8911966711644</v>
       </c>
       <c r="E38" t="n">
-        <v>455.2591985400822</v>
+        <v>455.2591985400824</v>
       </c>
       <c r="F38" t="n">
-        <v>298.5864553803364</v>
+        <v>298.5864553803365</v>
       </c>
       <c r="G38" t="n">
-        <v>126.1276587878504</v>
+        <v>126.1276587878505</v>
       </c>
       <c r="H38" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722341</v>
       </c>
       <c r="I38" t="n">
-        <v>26.31122268722338</v>
+        <v>33.73340056967339</v>
       </c>
       <c r="J38" t="n">
-        <v>26.31122268722338</v>
+        <v>204.2335233968653</v>
       </c>
       <c r="K38" t="n">
-        <v>26.31122268722338</v>
+        <v>204.2335233968653</v>
       </c>
       <c r="L38" t="n">
-        <v>320.3207747469572</v>
+        <v>252.6307738838526</v>
       </c>
       <c r="M38" t="n">
-        <v>403.0480007500741</v>
+        <v>492.6117651560692</v>
       </c>
       <c r="N38" t="n">
-        <v>544.4175864529354</v>
+        <v>815.4474697203206</v>
       </c>
       <c r="O38" t="n">
-        <v>826.0403989248621</v>
+        <v>851.4579806195009</v>
       </c>
       <c r="P38" t="n">
-        <v>1058.239265802039</v>
+        <v>1083.656847496678</v>
       </c>
       <c r="Q38" t="n">
-        <v>1216.184125155467</v>
+        <v>1241.601706850106</v>
       </c>
       <c r="R38" t="n">
-        <v>1269.531001360107</v>
+        <v>1294.948583054746</v>
       </c>
       <c r="S38" t="n">
-        <v>1290.143552666532</v>
+        <v>1315.561134361171</v>
       </c>
       <c r="T38" t="n">
-        <v>1315.561134361169</v>
+        <v>1315.561134361171</v>
       </c>
       <c r="U38" t="n">
-        <v>1313.483913000718</v>
+        <v>1313.483913000719</v>
       </c>
       <c r="V38" t="n">
-        <v>1239.962145629721</v>
+        <v>1239.962145629722</v>
       </c>
       <c r="W38" t="n">
-        <v>1149.251812383356</v>
+        <v>1149.251812383357</v>
       </c>
       <c r="X38" t="n">
-        <v>1036.434155430991</v>
+        <v>1036.434155430992</v>
       </c>
       <c r="Y38" t="n">
-        <v>900.8863438081781</v>
+        <v>900.886343808179</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>772.2238941158289</v>
+        <v>26.31122268722341</v>
       </c>
       <c r="C39" t="n">
-        <v>772.2238941158289</v>
+        <v>26.31122268722341</v>
       </c>
       <c r="D39" t="n">
-        <v>772.2238941158289</v>
+        <v>26.31122268722341</v>
       </c>
       <c r="E39" t="n">
-        <v>624.6353259177811</v>
+        <v>26.31122268722341</v>
       </c>
       <c r="F39" t="n">
-        <v>464.2076096350252</v>
+        <v>26.31122268722341</v>
       </c>
       <c r="G39" t="n">
-        <v>313.966333683999</v>
+        <v>26.31122268722341</v>
       </c>
       <c r="H39" t="n">
-        <v>187.0167620902267</v>
+        <v>26.31122268722341</v>
       </c>
       <c r="I39" t="n">
-        <v>78.76854090464988</v>
+        <v>26.31122268722341</v>
       </c>
       <c r="J39" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722341</v>
       </c>
       <c r="K39" t="n">
-        <v>65.19236910701478</v>
+        <v>65.19236910701485</v>
       </c>
       <c r="L39" t="n">
-        <v>183.7594110345202</v>
+        <v>183.7594110345203</v>
       </c>
       <c r="M39" t="n">
-        <v>366.8762207352999</v>
+        <v>366.8762207353001</v>
       </c>
       <c r="N39" t="n">
-        <v>573.2594770746659</v>
+        <v>573.2594770746662</v>
       </c>
       <c r="O39" t="n">
-        <v>706.3127540229493</v>
+        <v>706.3127540229497</v>
       </c>
       <c r="P39" t="n">
-        <v>791.0232372119365</v>
+        <v>791.0232372119369</v>
       </c>
       <c r="Q39" t="n">
-        <v>791.0232372119365</v>
+        <v>791.0232372119369</v>
       </c>
       <c r="R39" t="n">
-        <v>791.0232372119365</v>
+        <v>791.0232372119369</v>
       </c>
       <c r="S39" t="n">
-        <v>791.0232372119365</v>
+        <v>791.0232372119369</v>
       </c>
       <c r="T39" t="n">
-        <v>791.0232372119365</v>
+        <v>778.4134411451107</v>
       </c>
       <c r="U39" t="n">
-        <v>791.0232372119365</v>
+        <v>538.789510053298</v>
       </c>
       <c r="V39" t="n">
-        <v>791.0232372119365</v>
+        <v>295.7097919569321</v>
       </c>
       <c r="W39" t="n">
-        <v>772.2238941158289</v>
+        <v>26.31122268722341</v>
       </c>
       <c r="X39" t="n">
-        <v>772.2238941158289</v>
+        <v>26.31122268722341</v>
       </c>
       <c r="Y39" t="n">
-        <v>772.2238941158289</v>
+        <v>26.31122268722341</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722341</v>
       </c>
       <c r="C40" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722341</v>
       </c>
       <c r="D40" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722341</v>
       </c>
       <c r="E40" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722341</v>
       </c>
       <c r="F40" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722341</v>
       </c>
       <c r="G40" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722341</v>
       </c>
       <c r="H40" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722341</v>
       </c>
       <c r="I40" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722341</v>
       </c>
       <c r="J40" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722341</v>
       </c>
       <c r="K40" t="n">
-        <v>26.31122268722338</v>
+        <v>109.9279233847938</v>
       </c>
       <c r="L40" t="n">
-        <v>26.31122268722338</v>
+        <v>109.9279233847938</v>
       </c>
       <c r="M40" t="n">
-        <v>109.9279233847935</v>
+        <v>109.9279233847938</v>
       </c>
       <c r="N40" t="n">
-        <v>109.9279233847935</v>
+        <v>109.9279233847938</v>
       </c>
       <c r="O40" t="n">
-        <v>109.9279233847935</v>
+        <v>109.9279233847938</v>
       </c>
       <c r="P40" t="n">
-        <v>109.9279233847935</v>
+        <v>109.9279233847938</v>
       </c>
       <c r="Q40" t="n">
-        <v>109.9279233847935</v>
+        <v>109.9279233847938</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9279233847935</v>
+        <v>109.9279233847938</v>
       </c>
       <c r="S40" t="n">
-        <v>109.9279233847935</v>
+        <v>109.9279233847938</v>
       </c>
       <c r="T40" t="n">
-        <v>109.9279233847935</v>
+        <v>109.9279233847938</v>
       </c>
       <c r="U40" t="n">
-        <v>68.95513498769833</v>
+        <v>68.95513498769847</v>
       </c>
       <c r="V40" t="n">
-        <v>68.95513498769833</v>
+        <v>68.95513498769847</v>
       </c>
       <c r="W40" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722341</v>
       </c>
       <c r="X40" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722341</v>
       </c>
       <c r="Y40" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722341</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>820.9115219629606</v>
+        <v>820.9115219629601</v>
       </c>
       <c r="C41" t="n">
-        <v>710.1949433311161</v>
+        <v>710.1949433311156</v>
       </c>
       <c r="D41" t="n">
-        <v>612.0372917083139</v>
+        <v>612.0372917083134</v>
       </c>
       <c r="E41" t="n">
-        <v>479.832415419442</v>
+        <v>479.8324154194415</v>
       </c>
       <c r="F41" t="n">
-        <v>315.5867941019059</v>
+        <v>315.5867941019055</v>
       </c>
       <c r="G41" t="n">
         <v>135.5551193516299</v>
@@ -7409,19 +7409,19 @@
         <v>28.1658050932128</v>
       </c>
       <c r="J41" t="n">
-        <v>191.2437500379546</v>
+        <v>191.2437500379547</v>
       </c>
       <c r="K41" t="n">
-        <v>235.1417708752011</v>
+        <v>191.2437500379547</v>
       </c>
       <c r="L41" t="n">
-        <v>521.7291450524848</v>
+        <v>239.641000524942</v>
       </c>
       <c r="M41" t="n">
-        <v>604.4563710556017</v>
+        <v>366.2662473653052</v>
       </c>
       <c r="N41" t="n">
-        <v>919.869897737403</v>
+        <v>681.6797740471065</v>
       </c>
       <c r="O41" t="n">
         <v>955.8804086365832</v>
@@ -7445,7 +7445,7 @@
         <v>1398.640155142399</v>
       </c>
       <c r="V41" t="n">
-        <v>1317.545509613612</v>
+        <v>1317.545509613611</v>
       </c>
       <c r="W41" t="n">
         <v>1219.262298209456</v>
@@ -7454,7 +7454,7 @@
         <v>1098.871763099301</v>
       </c>
       <c r="Y41" t="n">
-        <v>955.7510733186984</v>
+        <v>955.751073318698</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>465.7843689207671</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="C42" t="n">
-        <v>465.7843689207671</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="D42" t="n">
-        <v>465.7843689207671</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="E42" t="n">
-        <v>465.7843689207671</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="F42" t="n">
-        <v>305.3566526380112</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="G42" t="n">
-        <v>155.115376686985</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="H42" t="n">
         <v>28.1658050932128</v>
@@ -7491,49 +7491,49 @@
         <v>28.1658050932128</v>
       </c>
       <c r="K42" t="n">
-        <v>67.0469515130042</v>
+        <v>67.04695151300425</v>
       </c>
       <c r="L42" t="n">
-        <v>185.6139934405096</v>
+        <v>185.6139934405097</v>
       </c>
       <c r="M42" t="n">
-        <v>368.7308031412893</v>
+        <v>368.7308031412895</v>
       </c>
       <c r="N42" t="n">
-        <v>575.1140594806554</v>
+        <v>575.1140594806557</v>
       </c>
       <c r="O42" t="n">
-        <v>708.1673364289388</v>
+        <v>708.1673364289392</v>
       </c>
       <c r="P42" t="n">
-        <v>792.877819617926</v>
+        <v>792.8778196179264</v>
       </c>
       <c r="Q42" t="n">
-        <v>792.877819617926</v>
+        <v>792.8778196179264</v>
       </c>
       <c r="R42" t="n">
-        <v>792.877819617926</v>
+        <v>792.8778196179264</v>
       </c>
       <c r="S42" t="n">
-        <v>792.877819617926</v>
+        <v>599.4594867852743</v>
       </c>
       <c r="T42" t="n">
-        <v>792.877819617926</v>
+        <v>382.3405148604432</v>
       </c>
       <c r="U42" t="n">
-        <v>792.877819617926</v>
+        <v>297.6177444434764</v>
       </c>
       <c r="V42" t="n">
-        <v>792.8244495373712</v>
+        <v>54.53802634711045</v>
       </c>
       <c r="W42" t="n">
-        <v>691.4250619854395</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="X42" t="n">
-        <v>691.4250619854395</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="Y42" t="n">
-        <v>465.7843689207671</v>
+        <v>28.1658050932128</v>
       </c>
     </row>
     <row r="43">
@@ -7555,40 +7555,40 @@
         <v>28.1658050932128</v>
       </c>
       <c r="F43" t="n">
-        <v>28.1658050932128</v>
+        <v>94.47805657986487</v>
       </c>
       <c r="G43" t="n">
-        <v>28.1658050932128</v>
+        <v>94.47805657986487</v>
       </c>
       <c r="H43" t="n">
-        <v>102.2321417622894</v>
+        <v>94.47805657986487</v>
       </c>
       <c r="I43" t="n">
-        <v>131.4867779132288</v>
+        <v>94.47805657986487</v>
       </c>
       <c r="J43" t="n">
-        <v>131.4867779132288</v>
+        <v>94.47805657986487</v>
       </c>
       <c r="K43" t="n">
-        <v>131.4867779132288</v>
+        <v>94.47805657986487</v>
       </c>
       <c r="L43" t="n">
-        <v>131.4867779132288</v>
+        <v>94.47805657986487</v>
       </c>
       <c r="M43" t="n">
-        <v>131.4867779132288</v>
+        <v>94.47805657986487</v>
       </c>
       <c r="N43" t="n">
-        <v>131.4867779132288</v>
+        <v>94.47805657986487</v>
       </c>
       <c r="O43" t="n">
-        <v>131.4867779132288</v>
+        <v>94.47805657986487</v>
       </c>
       <c r="P43" t="n">
-        <v>131.4867779132288</v>
+        <v>94.47805657986487</v>
       </c>
       <c r="Q43" t="n">
-        <v>131.4867779132288</v>
+        <v>94.47805657986487</v>
       </c>
       <c r="R43" t="n">
         <v>131.4867779132288</v>
@@ -7646,34 +7646,34 @@
         <v>28.1658050932128</v>
       </c>
       <c r="J44" t="n">
-        <v>191.2437500379547</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="K44" t="n">
-        <v>424.1252542015556</v>
+        <v>261.0473092568138</v>
       </c>
       <c r="L44" t="n">
-        <v>521.7291450524848</v>
+        <v>309.4445597438012</v>
       </c>
       <c r="M44" t="n">
-        <v>604.4563710556017</v>
+        <v>630.3619094372145</v>
       </c>
       <c r="N44" t="n">
-        <v>919.869897737403</v>
+        <v>850.1978593302714</v>
       </c>
       <c r="O44" t="n">
-        <v>955.8804086365832</v>
+        <v>1124.398493919748</v>
       </c>
       <c r="P44" t="n">
-        <v>1180.657097631311</v>
+        <v>1349.175182914475</v>
       </c>
       <c r="Q44" t="n">
-        <v>1331.179779102288</v>
+        <v>1349.175182914475</v>
       </c>
       <c r="R44" t="n">
-        <v>1377.104477424478</v>
+        <v>1395.099881236666</v>
       </c>
       <c r="S44" t="n">
-        <v>1390.294850848453</v>
+        <v>1408.29025466064</v>
       </c>
       <c r="T44" t="n">
         <v>1408.29025466064</v>
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>349.373637614937</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="C45" t="n">
-        <v>349.373637614937</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="D45" t="n">
-        <v>188.5935213759687</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="E45" t="n">
-        <v>188.5935213759687</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="F45" t="n">
         <v>28.1658050932128</v>
@@ -7728,49 +7728,49 @@
         <v>28.1658050932128</v>
       </c>
       <c r="K45" t="n">
-        <v>67.04695151300422</v>
+        <v>67.04695151300425</v>
       </c>
       <c r="L45" t="n">
-        <v>185.6139934405096</v>
+        <v>185.6139934405097</v>
       </c>
       <c r="M45" t="n">
-        <v>368.7308031412894</v>
+        <v>368.7308031412895</v>
       </c>
       <c r="N45" t="n">
-        <v>575.1140594806554</v>
+        <v>575.1140594806557</v>
       </c>
       <c r="O45" t="n">
-        <v>708.1673364289388</v>
+        <v>708.1673364289392</v>
       </c>
       <c r="P45" t="n">
-        <v>792.8778196179261</v>
+        <v>792.8778196179264</v>
       </c>
       <c r="Q45" t="n">
-        <v>792.8778196179261</v>
+        <v>792.8778196179264</v>
       </c>
       <c r="R45" t="n">
-        <v>657.1572765725975</v>
+        <v>792.8778196179264</v>
       </c>
       <c r="S45" t="n">
-        <v>592.9182008742205</v>
+        <v>792.8778196179264</v>
       </c>
       <c r="T45" t="n">
-        <v>375.7992289493895</v>
+        <v>575.7588476930954</v>
       </c>
       <c r="U45" t="n">
-        <v>375.7992289493895</v>
+        <v>575.7588476930954</v>
       </c>
       <c r="V45" t="n">
-        <v>375.7458588688346</v>
+        <v>332.6791295967295</v>
       </c>
       <c r="W45" t="n">
-        <v>349.373637614937</v>
+        <v>253.8064981578852</v>
       </c>
       <c r="X45" t="n">
-        <v>349.373637614937</v>
+        <v>253.8064981578852</v>
       </c>
       <c r="Y45" t="n">
-        <v>349.373637614937</v>
+        <v>28.1658050932128</v>
       </c>
     </row>
     <row r="46">
@@ -7780,58 +7780,58 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.65566792934909</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="C46" t="n">
-        <v>46.65566792934909</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="D46" t="n">
-        <v>46.65566792934909</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="E46" t="n">
-        <v>46.65566792934909</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="F46" t="n">
-        <v>46.65566792934909</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="G46" t="n">
-        <v>46.65566792934909</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="H46" t="n">
-        <v>46.65566792934909</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="I46" t="n">
-        <v>46.65566792934909</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="J46" t="n">
-        <v>46.65566792934909</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="K46" t="n">
-        <v>46.65566792934909</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="L46" t="n">
-        <v>46.65566792934909</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="M46" t="n">
-        <v>46.65566792934909</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="N46" t="n">
-        <v>46.65566792934909</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="O46" t="n">
-        <v>46.65566792934909</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="P46" t="n">
-        <v>131.4867779132288</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="Q46" t="n">
-        <v>131.4867779132288</v>
+        <v>77.79151550104973</v>
       </c>
       <c r="R46" t="n">
-        <v>131.4867779132288</v>
+        <v>114.8002368344137</v>
       </c>
       <c r="S46" t="n">
-        <v>131.4867779132288</v>
+        <v>114.8002368344137</v>
       </c>
       <c r="T46" t="n">
         <v>131.4867779132288</v>
@@ -7846,10 +7846,10 @@
         <v>28.1658050932128</v>
       </c>
       <c r="X46" t="n">
-        <v>46.65566792934909</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.65566792934909</v>
+        <v>28.1658050932128</v>
       </c>
     </row>
   </sheetData>
@@ -8769,19 +8769,19 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>132.0995883116344</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L12" t="n">
-        <v>152.0917238005117</v>
+        <v>240.3045437566416</v>
       </c>
       <c r="M12" t="n">
-        <v>238.8597051383722</v>
+        <v>238.859705138372</v>
       </c>
       <c r="N12" t="n">
-        <v>224.1952211518976</v>
+        <v>218.7578141968547</v>
       </c>
       <c r="O12" t="n">
-        <v>242.8748317222145</v>
+        <v>120.8255334486102</v>
       </c>
       <c r="P12" t="n">
         <v>206.3638740786793</v>
@@ -9012,13 +9012,13 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M15" t="n">
-        <v>238.8597051383722</v>
+        <v>238.859705138372</v>
       </c>
       <c r="N15" t="n">
-        <v>182.2746605585918</v>
+        <v>224.1952211518973</v>
       </c>
       <c r="O15" t="n">
-        <v>242.8748317222145</v>
+        <v>200.9542711289082</v>
       </c>
       <c r="P15" t="n">
         <v>120.7977294433386</v>
@@ -9243,22 +9243,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>171.373473584151</v>
+        <v>132.0995883116344</v>
       </c>
       <c r="L18" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M18" t="n">
-        <v>238.8597051383722</v>
+        <v>236.2130298175826</v>
       </c>
       <c r="N18" t="n">
-        <v>102.1459228782932</v>
+        <v>224.1952211518973</v>
       </c>
       <c r="O18" t="n">
-        <v>237.4374247671724</v>
+        <v>242.8748317222143</v>
       </c>
       <c r="P18" t="n">
-        <v>206.3638740786793</v>
+        <v>120.7977294433386</v>
       </c>
       <c r="Q18" t="n">
         <v>136.1300824528302</v>
@@ -9480,19 +9480,19 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K21" t="n">
-        <v>165.9360666291089</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L21" t="n">
-        <v>240.3045437566416</v>
+        <v>234.867136801599</v>
       </c>
       <c r="M21" t="n">
-        <v>116.8104068647679</v>
+        <v>238.859705138372</v>
       </c>
       <c r="N21" t="n">
-        <v>224.1952211518976</v>
+        <v>102.1459228782932</v>
       </c>
       <c r="O21" t="n">
-        <v>242.8748317222145</v>
+        <v>242.8748317222143</v>
       </c>
       <c r="P21" t="n">
         <v>206.3638740786793</v>
@@ -9717,22 +9717,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K24" t="n">
-        <v>132.0995883116344</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L24" t="n">
-        <v>152.0917238005117</v>
+        <v>240.3045437566416</v>
       </c>
       <c r="M24" t="n">
-        <v>238.8597051383722</v>
+        <v>116.8104068647679</v>
       </c>
       <c r="N24" t="n">
-        <v>224.1952211518975</v>
+        <v>224.1952211518974</v>
       </c>
       <c r="O24" t="n">
-        <v>242.8748317222145</v>
+        <v>242.8748317222144</v>
       </c>
       <c r="P24" t="n">
-        <v>206.3638740786793</v>
+        <v>200.9264671236369</v>
       </c>
       <c r="Q24" t="n">
         <v>136.1300824528302</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>57.65546642937426</v>
+        <v>179.7047647029786</v>
       </c>
       <c r="C11" t="n">
         <v>155.8230217063241</v>
@@ -23273,10 +23273,10 @@
         <v>224.4449668635717</v>
       </c>
       <c r="H11" t="n">
-        <v>57.84952536992364</v>
+        <v>152.5290299766311</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>46.2136088607982</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>28.03643329293221</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>9.192618099031177</v>
       </c>
       <c r="V11" t="n">
-        <v>126.4973079342973</v>
+        <v>4.448009660693188</v>
       </c>
       <c r="W11" t="n">
-        <v>143.5139881509122</v>
+        <v>21.46468987730805</v>
       </c>
       <c r="X11" t="n">
         <v>165.4002386198514</v>
       </c>
       <c r="Y11" t="n">
-        <v>65.85379346999082</v>
+        <v>65.85379346999106</v>
       </c>
     </row>
     <row r="12">
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>179.7047647029786</v>
+        <v>179.7047647029785</v>
       </c>
       <c r="C14" t="n">
-        <v>155.8230217063241</v>
+        <v>155.823021706324</v>
       </c>
       <c r="D14" t="n">
         <v>143.3896839673725</v>
       </c>
       <c r="E14" t="n">
-        <v>177.0964363867814</v>
+        <v>177.0964363867813</v>
       </c>
       <c r="F14" t="n">
         <v>208.8167739651587</v>
       </c>
       <c r="G14" t="n">
-        <v>102.3956685899674</v>
+        <v>102.3956685899675</v>
       </c>
       <c r="H14" t="n">
-        <v>119.2780502109709</v>
+        <v>152.529029976631</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>46.2136088607981</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>32.88999934163198</v>
+        <v>32.88999934163189</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>55.76720738385725</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>4.448009660692946</v>
+        <v>4.448009660693103</v>
       </c>
       <c r="W14" t="n">
-        <v>143.5139881509122</v>
+        <v>21.46468987730798</v>
       </c>
       <c r="X14" t="n">
-        <v>43.35094034624706</v>
+        <v>141.7028573772502</v>
       </c>
       <c r="Y14" t="n">
-        <v>187.9030917435952</v>
+        <v>187.9030917435951</v>
       </c>
     </row>
     <row r="15">
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.250555214937776e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>747722.969244816</v>
+        <v>747722.9692448159</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>855985.3716031156</v>
+        <v>855985.3716031155</v>
       </c>
     </row>
     <row r="8">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>771690.4957794019</v>
+        <v>771690.495779402</v>
       </c>
       <c r="C2" t="n">
-        <v>771690.4957794022</v>
+        <v>771690.495779402</v>
       </c>
       <c r="D2" t="n">
         <v>771690.4957794021</v>
       </c>
       <c r="E2" t="n">
-        <v>664991.3278929193</v>
+        <v>664991.3278929195</v>
       </c>
       <c r="F2" t="n">
         <v>664991.3278929193</v>
       </c>
       <c r="G2" t="n">
-        <v>773253.730251219</v>
+        <v>773253.7302512187</v>
       </c>
       <c r="H2" t="n">
-        <v>773253.7302512188</v>
+        <v>773253.7302512187</v>
       </c>
       <c r="I2" t="n">
-        <v>773253.7302512188</v>
+        <v>773253.7302512187</v>
       </c>
       <c r="J2" t="n">
-        <v>773253.7302512183</v>
+        <v>773253.7302512184</v>
       </c>
       <c r="K2" t="n">
-        <v>773253.7302512188</v>
+        <v>773253.7302512182</v>
       </c>
       <c r="L2" t="n">
-        <v>773253.7302512183</v>
+        <v>773253.7302512181</v>
       </c>
       <c r="M2" t="n">
+        <v>773253.7302512184</v>
+      </c>
+      <c r="N2" t="n">
         <v>773253.7302512181</v>
       </c>
-      <c r="N2" t="n">
-        <v>773253.7302512182</v>
-      </c>
       <c r="O2" t="n">
-        <v>773253.730251219</v>
+        <v>773253.7302512191</v>
       </c>
       <c r="P2" t="n">
-        <v>773253.7302512192</v>
+        <v>773253.7302512191</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>275373.0470845677</v>
+        <v>275373.0470845676</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-11</v>
       </c>
       <c r="G3" t="n">
         <v>101197.8463474378</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>101197.8463474378</v>
+        <v>101197.8463474377</v>
       </c>
       <c r="M3" t="n">
-        <v>28140.8613309799</v>
+        <v>28140.86133097981</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>68716.99883240159</v>
+        <v>68716.99883240169</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,13 +26424,13 @@
         <v>461965.1541894153</v>
       </c>
       <c r="E4" t="n">
-        <v>355249.9666028519</v>
+        <v>355249.966602852</v>
       </c>
       <c r="F4" t="n">
-        <v>355249.9666028519</v>
+        <v>355249.966602852</v>
       </c>
       <c r="G4" t="n">
-        <v>425753.4766314353</v>
+        <v>425753.4766314352</v>
       </c>
       <c r="H4" t="n">
         <v>425753.4766314353</v>
@@ -26439,16 +26439,16 @@
         <v>425753.4766314353</v>
       </c>
       <c r="J4" t="n">
-        <v>424916.7517290888</v>
+        <v>424916.751729089</v>
       </c>
       <c r="K4" t="n">
         <v>424916.7517290888</v>
       </c>
       <c r="L4" t="n">
-        <v>424916.7517290887</v>
+        <v>424916.7517290888</v>
       </c>
       <c r="M4" t="n">
-        <v>424375.1958291387</v>
+        <v>424375.1958291386</v>
       </c>
       <c r="N4" t="n">
         <v>424375.1958291386</v>
@@ -26457,7 +26457,7 @@
         <v>424475.2891828689</v>
       </c>
       <c r="P4" t="n">
-        <v>424475.289182869</v>
+        <v>424475.2891828689</v>
       </c>
     </row>
     <row r="5">
@@ -26476,16 +26476,16 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>26025.86226334829</v>
+        <v>26025.86226334827</v>
       </c>
       <c r="F5" t="n">
-        <v>26025.86226334829</v>
+        <v>26025.86226334828</v>
       </c>
       <c r="G5" t="n">
+        <v>36660.36444407671</v>
+      </c>
+      <c r="H5" t="n">
         <v>36660.36444407672</v>
-      </c>
-      <c r="H5" t="n">
-        <v>36660.36444407673</v>
       </c>
       <c r="I5" t="n">
         <v>36660.36444407672</v>
@@ -26494,19 +26494,19 @@
         <v>47580.58365082262</v>
       </c>
       <c r="K5" t="n">
-        <v>47580.58365082262</v>
+        <v>47580.58365082261</v>
       </c>
       <c r="L5" t="n">
         <v>47580.58365082261</v>
       </c>
       <c r="M5" t="n">
-        <v>43117.20390483014</v>
+        <v>43117.20390483015</v>
       </c>
       <c r="N5" t="n">
-        <v>43117.20390483014</v>
+        <v>43117.20390483015</v>
       </c>
       <c r="O5" t="n">
-        <v>43896.40868247331</v>
+        <v>43896.40868247332</v>
       </c>
       <c r="P5" t="n">
         <v>43896.40868247332</v>
@@ -26519,22 +26519,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>276097.7415899866</v>
+        <v>276093.2752057815</v>
       </c>
       <c r="C6" t="n">
-        <v>276097.741589987</v>
+        <v>276093.2752057815</v>
       </c>
       <c r="D6" t="n">
-        <v>276097.7415899868</v>
+        <v>276093.2752057816</v>
       </c>
       <c r="E6" t="n">
-        <v>8342.451942151427</v>
+        <v>8033.130792556532</v>
       </c>
       <c r="F6" t="n">
-        <v>283715.4990267191</v>
+        <v>283406.1778771238</v>
       </c>
       <c r="G6" t="n">
-        <v>209642.0428282691</v>
+        <v>209642.042828269</v>
       </c>
       <c r="H6" t="n">
         <v>310839.8891757067</v>
@@ -26546,22 +26546,22 @@
         <v>145568.3460605339</v>
       </c>
       <c r="K6" t="n">
-        <v>300756.3948713073</v>
+        <v>300756.3948713067</v>
       </c>
       <c r="L6" t="n">
-        <v>199558.5485238692</v>
+        <v>199558.548523869</v>
       </c>
       <c r="M6" t="n">
-        <v>277620.4691862693</v>
+        <v>277620.4691862699</v>
       </c>
       <c r="N6" t="n">
-        <v>305761.3305172494</v>
+        <v>305761.3305172493</v>
       </c>
       <c r="O6" t="n">
         <v>236165.0335534752</v>
       </c>
       <c r="P6" t="n">
-        <v>304882.032385877</v>
+        <v>304882.0323858769</v>
       </c>
     </row>
   </sheetData>
@@ -26695,7 +26695,7 @@
         <v>194.3824756748547</v>
       </c>
       <c r="F2" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="G2" t="n">
         <v>320.879783609152</v>
@@ -26707,7 +26707,7 @@
         <v>320.8797836091521</v>
       </c>
       <c r="J2" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481404</v>
       </c>
       <c r="K2" t="n">
         <v>212.9171572481403</v>
@@ -26716,10 +26716,10 @@
         <v>212.9171572481403</v>
       </c>
       <c r="M2" t="n">
-        <v>248.0932339118651</v>
+        <v>248.093233911865</v>
       </c>
       <c r="N2" t="n">
-        <v>248.0932339118651</v>
+        <v>248.093233911865</v>
       </c>
       <c r="O2" t="n">
         <v>240.5960845356529</v>
@@ -26768,13 +26768,13 @@
         <v>103.8405771010908</v>
       </c>
       <c r="M3" t="n">
-        <v>103.8405771010907</v>
+        <v>103.8405771010908</v>
       </c>
       <c r="N3" t="n">
-        <v>103.8405771010907</v>
+        <v>103.8405771010908</v>
       </c>
       <c r="O3" t="n">
-        <v>103.8405771010907</v>
+        <v>103.8405771010908</v>
       </c>
       <c r="P3" t="n">
         <v>103.8405771010908</v>
@@ -26796,34 +26796,34 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>122.0492982736043</v>
+        <v>122.0492982736041</v>
       </c>
       <c r="F4" t="n">
-        <v>122.0492982736043</v>
+        <v>122.0492982736041</v>
       </c>
       <c r="G4" t="n">
-        <v>122.0492982736043</v>
+        <v>122.0492982736041</v>
       </c>
       <c r="H4" t="n">
-        <v>122.0492982736043</v>
+        <v>122.0492982736041</v>
       </c>
       <c r="I4" t="n">
-        <v>122.0492982736043</v>
+        <v>122.0492982736042</v>
       </c>
       <c r="J4" t="n">
-        <v>450.9395818638969</v>
+        <v>450.9395818638968</v>
       </c>
       <c r="K4" t="n">
-        <v>450.9395818638969</v>
+        <v>450.9395818638968</v>
       </c>
       <c r="L4" t="n">
         <v>450.9395818638968</v>
       </c>
       <c r="M4" t="n">
-        <v>328.8902835902923</v>
+        <v>328.8902835902927</v>
       </c>
       <c r="N4" t="n">
-        <v>328.8902835902923</v>
+        <v>328.8902835902927</v>
       </c>
       <c r="O4" t="n">
         <v>352.07256366516</v>
@@ -26917,10 +26917,10 @@
         <v>194.3824756748547</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>126.4973079342973</v>
+        <v>126.4973079342972</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>86.41984931384295</v>
+        <v>86.41984931384306</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>126.4973079342973</v>
+        <v>126.4973079342971</v>
       </c>
       <c r="M2" t="n">
-        <v>35.17607666372487</v>
+        <v>35.17607666372476</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>78.92269993763074</v>
+        <v>78.92269993763097</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>122.0492982736043</v>
+        <v>122.0492982736041</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>23.18228007486772</v>
+        <v>23.18228007486738</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27154,10 +27154,10 @@
         <v>194.3824756748547</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>126.4973079342973</v>
+        <v>126.4973079342972</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>86.41984931384295</v>
+        <v>86.41984931384306</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>122.0492982736043</v>
+        <v>122.0492982736041</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28111,10 +28111,10 @@
         <v>194.3824756748547</v>
       </c>
       <c r="J11" t="n">
-        <v>84.43133697741253</v>
+        <v>75.87088762177223</v>
       </c>
       <c r="K11" t="n">
-        <v>127.4115402197613</v>
+        <v>75.70633412949775</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -28123,16 +28123,16 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>44.04586090844758</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>13.54892393491821</v>
+        <v>135.5982222085223</v>
       </c>
       <c r="Q11" t="n">
-        <v>194.3824756748547</v>
+        <v>88.55297193870594</v>
       </c>
       <c r="R11" t="n">
         <v>194.2075003718244</v>
@@ -28175,7 +28175,7 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E12" t="n">
-        <v>60.29586449772474</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F12" t="n">
         <v>158.8234391199283</v>
@@ -28211,22 +28211,22 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>6.136586121265609</v>
       </c>
       <c r="R12" t="n">
         <v>134.3633376148752</v>
       </c>
       <c r="S12" t="n">
-        <v>69.43485123072131</v>
+        <v>69.43485123072155</v>
       </c>
       <c r="T12" t="n">
         <v>194.3824756748547</v>
       </c>
       <c r="U12" t="n">
-        <v>194.3824756748547</v>
+        <v>115.1783935072904</v>
       </c>
       <c r="V12" t="n">
-        <v>194.3824756748547</v>
+        <v>155.9182643790792</v>
       </c>
       <c r="W12" t="n">
         <v>194.3824756748547</v>
@@ -28248,37 +28248,37 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C13" t="n">
-        <v>166.4571809719723</v>
+        <v>189.4481803827132</v>
       </c>
       <c r="D13" t="n">
         <v>145.1826502507107</v>
       </c>
       <c r="E13" t="n">
-        <v>194.3824756748547</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F13" t="n">
         <v>194.3824756748547</v>
       </c>
       <c r="G13" t="n">
-        <v>168.6959616282545</v>
+        <v>194.3824756748547</v>
       </c>
       <c r="H13" t="n">
         <v>165.7816030517371</v>
       </c>
       <c r="I13" t="n">
-        <v>170.3512467611574</v>
+        <v>194.3824756748547</v>
       </c>
       <c r="J13" t="n">
-        <v>194.3824756748547</v>
+        <v>119.8993073508208</v>
       </c>
       <c r="K13" t="n">
         <v>66.47076232176846</v>
       </c>
       <c r="L13" t="n">
-        <v>31.43620997383527</v>
+        <v>153.4855082474394</v>
       </c>
       <c r="M13" t="n">
-        <v>24.4623589180015</v>
+        <v>146.5116571916056</v>
       </c>
       <c r="N13" t="n">
         <v>15.7835913661001</v>
@@ -28287,10 +28287,10 @@
         <v>36.79854607717667</v>
       </c>
       <c r="P13" t="n">
-        <v>179.9457505507722</v>
+        <v>57.89645227716782</v>
       </c>
       <c r="Q13" t="n">
-        <v>194.3824756748547</v>
+        <v>126.8139378168763</v>
       </c>
       <c r="R13" t="n">
         <v>194.3824756748547</v>
@@ -28324,34 +28324,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="C14" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="D14" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="E14" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="F14" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="G14" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="H14" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="I14" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="J14" t="n">
-        <v>104.410820570442</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="K14" t="n">
-        <v>127.4115402197613</v>
+        <v>123.2899052584668</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -28363,37 +28363,37 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>85.67504484008894</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>13.54892393491821</v>
       </c>
       <c r="Q14" t="n">
-        <v>88.55297193870595</v>
+        <v>88.55297193870594</v>
       </c>
       <c r="R14" t="n">
-        <v>194.3824756748547</v>
+        <v>194.2075003718244</v>
       </c>
       <c r="S14" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="T14" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="U14" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="V14" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="W14" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="X14" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="Y14" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748548</v>
       </c>
     </row>
     <row r="15">
@@ -28427,7 +28427,7 @@
         <v>107.1657389737211</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>51.93274503525222</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28448,31 +28448,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>6.136586121265609</v>
       </c>
       <c r="R15" t="n">
-        <v>12.31403934127087</v>
+        <v>12.31403934127111</v>
       </c>
       <c r="S15" t="n">
-        <v>191.4841495043256</v>
+        <v>153.0199382085497</v>
       </c>
       <c r="T15" t="n">
-        <v>134.783513368032</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="U15" t="n">
-        <v>194.3824756748547</v>
+        <v>115.1783935072904</v>
       </c>
       <c r="V15" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="W15" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="X15" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="Y15" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748548</v>
       </c>
     </row>
     <row r="16">
@@ -28482,13 +28482,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>177.6169206649681</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="C16" t="n">
         <v>166.4571809719723</v>
       </c>
       <c r="D16" t="n">
-        <v>145.1826502507107</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="E16" t="n">
         <v>141.676141212225</v>
@@ -28506,52 +28506,52 @@
         <v>164.7082190429235</v>
       </c>
       <c r="J16" t="n">
-        <v>186.1381330385221</v>
+        <v>119.8993073508208</v>
       </c>
       <c r="K16" t="n">
         <v>66.47076232176846</v>
       </c>
       <c r="L16" t="n">
-        <v>31.43620997383527</v>
+        <v>153.4855082474394</v>
       </c>
       <c r="M16" t="n">
-        <v>146.5116571916058</v>
+        <v>146.5116571916056</v>
       </c>
       <c r="N16" t="n">
         <v>15.7835913661001</v>
       </c>
       <c r="O16" t="n">
-        <v>36.79854607717667</v>
+        <v>104.6405291888254</v>
       </c>
       <c r="P16" t="n">
-        <v>179.9457505507722</v>
+        <v>57.89645227716782</v>
       </c>
       <c r="Q16" t="n">
-        <v>194.3824756748547</v>
+        <v>126.8139378168763</v>
       </c>
       <c r="R16" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="S16" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="T16" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="U16" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="V16" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="W16" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="X16" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748548</v>
       </c>
       <c r="Y16" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748548</v>
       </c>
     </row>
     <row r="17">
@@ -28582,16 +28582,16 @@
         <v>320.879783609152</v>
       </c>
       <c r="I17" t="n">
-        <v>261.3787290347767</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="J17" t="n">
-        <v>75.87088762177224</v>
+        <v>75.87088762177223</v>
       </c>
       <c r="K17" t="n">
-        <v>5.362241946156985</v>
+        <v>5.362241946156978</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>73.16318667058655</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -28603,16 +28603,16 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>13.54892393491821</v>
+        <v>54.77569035612002</v>
       </c>
       <c r="Q17" t="n">
-        <v>88.55297193870595</v>
+        <v>88.55297193870594</v>
       </c>
       <c r="R17" t="n">
-        <v>316.2567986454287</v>
+        <v>316.2567986454284</v>
       </c>
       <c r="S17" t="n">
-        <v>320.879783609152</v>
+        <v>227.2724750164867</v>
       </c>
       <c r="T17" t="n">
         <v>222.4189089677869</v>
@@ -28646,7 +28646,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
-        <v>159.1723150765785</v>
+        <v>57.80787927845368</v>
       </c>
       <c r="E18" t="n">
         <v>171.8275718397997</v>
@@ -28685,13 +28685,13 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.136586121265616</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>12.31403934127087</v>
+        <v>12.31403934127112</v>
       </c>
       <c r="S18" t="n">
-        <v>69.43485123072131</v>
+        <v>191.4841495043256</v>
       </c>
       <c r="T18" t="n">
         <v>214.9477822055827</v>
@@ -28703,13 +28703,13 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
-        <v>144.6552853034073</v>
+        <v>144.6552853034075</v>
       </c>
       <c r="X18" t="n">
-        <v>217.3129144394706</v>
+        <v>95.26361616586651</v>
       </c>
       <c r="Y18" t="n">
-        <v>115.8832642146349</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="19">
@@ -28749,7 +28749,7 @@
         <v>66.47076232176846</v>
       </c>
       <c r="L19" t="n">
-        <v>31.43620997383527</v>
+        <v>31.43620997383526</v>
       </c>
       <c r="M19" t="n">
         <v>24.4623589180015</v>
@@ -28822,19 +28822,19 @@
         <v>240.5960845356529</v>
       </c>
       <c r="J20" t="n">
-        <v>75.87088762177224</v>
+        <v>75.87088762177223</v>
       </c>
       <c r="K20" t="n">
-        <v>5.362241946156985</v>
+        <v>5.362241946156978</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>73.16318667058655</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>44.04586090844758</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -28843,16 +28843,16 @@
         <v>13.54892393491821</v>
       </c>
       <c r="Q20" t="n">
-        <v>104.4820503891299</v>
+        <v>88.55297193870594</v>
       </c>
       <c r="R20" t="n">
-        <v>316.2567986454287</v>
+        <v>219.8303955655173</v>
       </c>
       <c r="S20" t="n">
-        <v>227.2724750164867</v>
+        <v>320.8797836091521</v>
       </c>
       <c r="T20" t="n">
-        <v>320.8797836091521</v>
+        <v>222.4189089677869</v>
       </c>
       <c r="U20" t="n">
         <v>250.149683058712</v>
@@ -28877,7 +28877,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>54.7011961240614</v>
+        <v>54.70119612406164</v>
       </c>
       <c r="C21" t="n">
         <v>187.5181515243659</v>
@@ -28886,7 +28886,7 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
-        <v>70.4631360416746</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
         <v>158.8234391199283</v>
@@ -28925,10 +28925,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>134.3633376148752</v>
+        <v>12.31403934127111</v>
       </c>
       <c r="S21" t="n">
-        <v>69.43485123072131</v>
+        <v>191.4841495043256</v>
       </c>
       <c r="T21" t="n">
         <v>214.9477822055827</v>
@@ -28937,13 +28937,13 @@
         <v>237.2276917808945</v>
       </c>
       <c r="V21" t="n">
-        <v>118.5996226417979</v>
+        <v>139.2844851172774</v>
       </c>
       <c r="W21" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
-        <v>217.3129144394706</v>
+        <v>95.26361616586651</v>
       </c>
       <c r="Y21" t="n">
         <v>223.3842861340256</v>
@@ -28986,7 +28986,7 @@
         <v>66.47076232176846</v>
       </c>
       <c r="L22" t="n">
-        <v>31.43620997383527</v>
+        <v>31.43620997383526</v>
       </c>
       <c r="M22" t="n">
         <v>24.4623589180015</v>
@@ -29056,22 +29056,22 @@
         <v>320.8797836091521</v>
       </c>
       <c r="I23" t="n">
-        <v>240.5960845356529</v>
+        <v>289.0961877715712</v>
       </c>
       <c r="J23" t="n">
-        <v>75.87088762177224</v>
+        <v>75.87088762177223</v>
       </c>
       <c r="K23" t="n">
-        <v>5.362241946156985</v>
+        <v>5.362241946156978</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>73.16318667058663</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>44.04586090844766</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -29080,19 +29080,19 @@
         <v>13.54892393491821</v>
       </c>
       <c r="Q23" t="n">
-        <v>88.55297193870595</v>
+        <v>88.55297193870594</v>
       </c>
       <c r="R23" t="n">
         <v>194.2075003718244</v>
       </c>
       <c r="S23" t="n">
+        <v>227.2724750164867</v>
+      </c>
+      <c r="T23" t="n">
+        <v>222.4189089677869</v>
+      </c>
+      <c r="U23" t="n">
         <v>320.8797836091521</v>
-      </c>
-      <c r="T23" t="n">
-        <v>320.8797836091521</v>
-      </c>
-      <c r="U23" t="n">
-        <v>294.5207511900747</v>
       </c>
       <c r="V23" t="n">
         <v>320.8797836091521</v>
@@ -29117,16 +29117,16 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
-        <v>86.15371572624093</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
-        <v>37.12301680297423</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
-        <v>49.77827356619537</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
-        <v>36.77414084632403</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
         <v>148.7388631915159</v>
@@ -29162,16 +29162,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>134.3633376148752</v>
+        <v>12.31403934127103</v>
       </c>
       <c r="S24" t="n">
-        <v>191.4841495043256</v>
+        <v>69.43485123072146</v>
       </c>
       <c r="T24" t="n">
         <v>214.9477822055827</v>
       </c>
       <c r="U24" t="n">
-        <v>237.2276917808945</v>
+        <v>115.1783935072903</v>
       </c>
       <c r="V24" t="n">
         <v>240.6489209154022</v>
@@ -29180,7 +29180,7 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
-        <v>217.3129144394706</v>
+        <v>115.9484786413457</v>
       </c>
       <c r="Y24" t="n">
         <v>223.3842861340256</v>
@@ -29223,7 +29223,7 @@
         <v>66.47076232176846</v>
       </c>
       <c r="L25" t="n">
-        <v>31.43620997383527</v>
+        <v>31.43620997383526</v>
       </c>
       <c r="M25" t="n">
         <v>24.4623589180015</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481404</v>
       </c>
       <c r="C26" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481404</v>
       </c>
       <c r="D26" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481404</v>
       </c>
       <c r="E26" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481404</v>
       </c>
       <c r="F26" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481404</v>
       </c>
       <c r="G26" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481404</v>
       </c>
       <c r="H26" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481404</v>
       </c>
       <c r="I26" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481404</v>
       </c>
       <c r="J26" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481404</v>
       </c>
       <c r="K26" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481404</v>
       </c>
       <c r="L26" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481404</v>
       </c>
       <c r="M26" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481404</v>
       </c>
       <c r="N26" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481404</v>
       </c>
       <c r="O26" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481404</v>
       </c>
       <c r="P26" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481394</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481404</v>
       </c>
       <c r="R26" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481404</v>
       </c>
       <c r="S26" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481404</v>
       </c>
       <c r="T26" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481404</v>
       </c>
       <c r="U26" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481404</v>
       </c>
       <c r="V26" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481404</v>
       </c>
       <c r="W26" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481404</v>
       </c>
       <c r="X26" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481404</v>
       </c>
       <c r="Y26" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481404</v>
       </c>
     </row>
     <row r="27">
@@ -29351,13 +29351,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
         <v>171.8275718397997</v>
@@ -29396,31 +29396,31 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.136586121265616</v>
+        <v>6.136586121265609</v>
       </c>
       <c r="R27" t="n">
-        <v>134.3633376148752</v>
+        <v>117.3401427995602</v>
       </c>
       <c r="S27" t="n">
-        <v>191.4841495043256</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>102.0164594308298</v>
+        <v>212.9171572481404</v>
       </c>
       <c r="U27" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481404</v>
       </c>
       <c r="V27" t="n">
-        <v>212.9171572481403</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481404</v>
       </c>
       <c r="X27" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481404</v>
       </c>
       <c r="Y27" t="n">
-        <v>212.9171572481403</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -29436,13 +29436,13 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D28" t="n">
-        <v>212.9171572481403</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E28" t="n">
-        <v>212.9171572481403</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F28" t="n">
-        <v>212.9171572481403</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
         <v>168.6959616282545</v>
@@ -29451,7 +29451,7 @@
         <v>165.7816030517371</v>
       </c>
       <c r="I28" t="n">
-        <v>188.2609378808345</v>
+        <v>164.7082190429235</v>
       </c>
       <c r="J28" t="n">
         <v>119.8993073508208</v>
@@ -29460,7 +29460,7 @@
         <v>66.47076232176846</v>
       </c>
       <c r="L28" t="n">
-        <v>31.43620997383527</v>
+        <v>212.9171572481404</v>
       </c>
       <c r="M28" t="n">
         <v>24.4623589180015</v>
@@ -29475,31 +29475,31 @@
         <v>57.89645227716782</v>
       </c>
       <c r="Q28" t="n">
-        <v>126.8139378168763</v>
+        <v>181.8515074435199</v>
       </c>
       <c r="R28" t="n">
         <v>203.2135377342752</v>
       </c>
       <c r="S28" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481404</v>
       </c>
       <c r="T28" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481404</v>
       </c>
       <c r="U28" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481404</v>
       </c>
       <c r="V28" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481404</v>
       </c>
       <c r="W28" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481404</v>
       </c>
       <c r="X28" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481404</v>
       </c>
       <c r="Y28" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481404</v>
       </c>
     </row>
     <row r="29">
@@ -29588,7 +29588,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>176.7504943976657</v>
+        <v>102.6064876929006</v>
       </c>
       <c r="C30" t="n">
         <v>187.5181515243659</v>
@@ -29633,31 +29633,31 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.136586121265616</v>
+        <v>6.136586121265609</v>
       </c>
       <c r="R30" t="n">
-        <v>134.3633376148752</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>191.4841495043256</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="U30" t="n">
-        <v>4.409812928500088</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="V30" t="n">
         <v>212.9171572481403</v>
       </c>
       <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
         <v>212.9171572481403</v>
       </c>
-      <c r="X30" t="n">
-        <v>0</v>
-      </c>
       <c r="Y30" t="n">
-        <v>212.9171572481403</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -29697,19 +29697,19 @@
         <v>66.47076232176846</v>
       </c>
       <c r="L31" t="n">
-        <v>31.43620997383527</v>
+        <v>31.43620997383526</v>
       </c>
       <c r="M31" t="n">
         <v>24.4623589180015</v>
       </c>
       <c r="N31" t="n">
+        <v>15.7835913661001</v>
+      </c>
+      <c r="O31" t="n">
+        <v>118.2963580071535</v>
+      </c>
+      <c r="P31" t="n">
         <v>212.9171572481403</v>
-      </c>
-      <c r="O31" t="n">
-        <v>36.79854607717667</v>
-      </c>
-      <c r="P31" t="n">
-        <v>97.2814032960772</v>
       </c>
       <c r="Q31" t="n">
         <v>126.8139378168763</v>
@@ -29834,7 +29834,7 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
-        <v>171.8275718397997</v>
+        <v>103.8201512563004</v>
       </c>
       <c r="F33" t="n">
         <v>158.8234391199283</v>
@@ -29870,28 +29870,28 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.136586121265616</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>117.3401427995606</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>191.4841495043256</v>
       </c>
       <c r="T33" t="n">
-        <v>212.9171572481403</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>212.9171572481403</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>212.9171572481403</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="Y33" t="n">
         <v>212.9171572481403</v>
@@ -29907,7 +29907,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C34" t="n">
-        <v>166.4571809719723</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="D34" t="n">
         <v>145.1826502507107</v>
@@ -29931,10 +29931,10 @@
         <v>119.8993073508208</v>
       </c>
       <c r="K34" t="n">
+        <v>66.47076232176846</v>
+      </c>
+      <c r="L34" t="n">
         <v>212.9171572481403</v>
-      </c>
-      <c r="L34" t="n">
-        <v>121.5083319484132</v>
       </c>
       <c r="M34" t="n">
         <v>24.4623589180015</v>
@@ -29943,7 +29943,7 @@
         <v>15.7835913661001</v>
       </c>
       <c r="O34" t="n">
-        <v>36.79854607717667</v>
+        <v>45.37613942765358</v>
       </c>
       <c r="P34" t="n">
         <v>57.89645227716782</v>
@@ -29983,40 +29983,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>248.0932339118651</v>
+        <v>248.093233911865</v>
       </c>
       <c r="C35" t="n">
-        <v>248.0932339118651</v>
+        <v>248.093233911865</v>
       </c>
       <c r="D35" t="n">
-        <v>248.0932339118651</v>
+        <v>248.093233911865</v>
       </c>
       <c r="E35" t="n">
-        <v>248.0932339118651</v>
+        <v>248.093233911865</v>
       </c>
       <c r="F35" t="n">
-        <v>248.0932339118651</v>
+        <v>248.093233911865</v>
       </c>
       <c r="G35" t="n">
-        <v>248.0932339118651</v>
+        <v>248.093233911865</v>
       </c>
       <c r="H35" t="n">
-        <v>248.0932339118651</v>
+        <v>248.093233911865</v>
       </c>
       <c r="I35" t="n">
         <v>240.5960845356529</v>
       </c>
       <c r="J35" t="n">
-        <v>248.0932339118651</v>
+        <v>75.87088762177223</v>
       </c>
       <c r="K35" t="n">
-        <v>248.0932339118651</v>
+        <v>72.92217076719896</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>248.093233911865</v>
       </c>
       <c r="M35" t="n">
-        <v>146.0272535187943</v>
+        <v>245.3274290416896</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -30025,34 +30025,34 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>248.0932339118651</v>
+        <v>248.093233911865</v>
       </c>
       <c r="Q35" t="n">
-        <v>248.0932339118651</v>
+        <v>248.093233911865</v>
       </c>
       <c r="R35" t="n">
-        <v>248.0932339118651</v>
+        <v>248.093233911865</v>
       </c>
       <c r="S35" t="n">
-        <v>248.0932339118651</v>
+        <v>248.093233911865</v>
       </c>
       <c r="T35" t="n">
-        <v>248.0932339118651</v>
+        <v>248.093233911865</v>
       </c>
       <c r="U35" t="n">
-        <v>248.0932339118651</v>
+        <v>248.093233911865</v>
       </c>
       <c r="V35" t="n">
-        <v>248.0932339118651</v>
+        <v>248.093233911865</v>
       </c>
       <c r="W35" t="n">
-        <v>248.0932339118651</v>
+        <v>248.093233911865</v>
       </c>
       <c r="X35" t="n">
-        <v>248.0932339118651</v>
+        <v>248.093233911865</v>
       </c>
       <c r="Y35" t="n">
-        <v>248.0932339118651</v>
+        <v>248.093233911865</v>
       </c>
     </row>
     <row r="36">
@@ -30062,16 +30062,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>9.945757515126814</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
         <v>158.8234391199283</v>
@@ -30086,7 +30086,7 @@
         <v>107.1657389737211</v>
       </c>
       <c r="J36" t="n">
-        <v>51.93274503525224</v>
+        <v>51.93274503525222</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -30107,25 +30107,25 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.136586121265633</v>
+        <v>6.136586121265609</v>
       </c>
       <c r="R36" t="n">
-        <v>134.3633376148752</v>
+        <v>65.27055510117779</v>
       </c>
       <c r="S36" t="n">
-        <v>191.4841495043256</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>214.9477822055827</v>
       </c>
       <c r="U36" t="n">
-        <v>237.2276917808945</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>248.0932339118651</v>
+        <v>248.093233911865</v>
       </c>
       <c r="X36" t="n">
         <v>217.3129144394706</v>
@@ -30156,34 +30156,34 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G37" t="n">
-        <v>170.8456446040559</v>
+        <v>168.6959616282545</v>
       </c>
       <c r="H37" t="n">
-        <v>248.0932339118651</v>
+        <v>165.7816030517371</v>
       </c>
       <c r="I37" t="n">
         <v>164.7082190429235</v>
       </c>
       <c r="J37" t="n">
-        <v>119.8993073508208</v>
+        <v>204.3606211867504</v>
       </c>
       <c r="K37" t="n">
-        <v>66.47076232176849</v>
+        <v>66.47076232176846</v>
       </c>
       <c r="L37" t="n">
-        <v>31.43620997383529</v>
+        <v>31.43620997383526</v>
       </c>
       <c r="M37" t="n">
-        <v>24.46235891800152</v>
+        <v>24.4623589180015</v>
       </c>
       <c r="N37" t="n">
-        <v>15.78359136610012</v>
+        <v>15.7835913661001</v>
       </c>
       <c r="O37" t="n">
-        <v>36.79854607717668</v>
+        <v>36.79854607717667</v>
       </c>
       <c r="P37" t="n">
-        <v>57.89645227716784</v>
+        <v>57.89645227716782</v>
       </c>
       <c r="Q37" t="n">
         <v>126.8139378168763</v>
@@ -30198,13 +30198,13 @@
         <v>223.7409925368498</v>
       </c>
       <c r="U37" t="n">
-        <v>248.0932339118651</v>
+        <v>248.093233911865</v>
       </c>
       <c r="V37" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W37" t="n">
-        <v>248.0932339118651</v>
+        <v>248.093233911865</v>
       </c>
       <c r="X37" t="n">
         <v>221.9194554082425</v>
@@ -30220,76 +30220,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>248.0932339118651</v>
+        <v>248.093233911865</v>
       </c>
       <c r="C38" t="n">
-        <v>248.0932339118651</v>
+        <v>248.093233911865</v>
       </c>
       <c r="D38" t="n">
-        <v>248.0932339118651</v>
+        <v>248.093233911865</v>
       </c>
       <c r="E38" t="n">
-        <v>248.0932339118651</v>
+        <v>248.093233911865</v>
       </c>
       <c r="F38" t="n">
-        <v>248.0932339118651</v>
+        <v>248.093233911865</v>
       </c>
       <c r="G38" t="n">
-        <v>248.0932339118651</v>
+        <v>248.093233911865</v>
       </c>
       <c r="H38" t="n">
-        <v>248.0932339118651</v>
+        <v>248.093233911865</v>
       </c>
       <c r="I38" t="n">
-        <v>240.5960845356529</v>
+        <v>248.093233911865</v>
       </c>
       <c r="J38" t="n">
-        <v>75.87088762177225</v>
+        <v>248.093233911865</v>
       </c>
       <c r="K38" t="n">
-        <v>5.36224194615702</v>
+        <v>5.362241946156978</v>
       </c>
       <c r="L38" t="n">
-        <v>248.0932339118651</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>158.8421871405047</v>
       </c>
       <c r="N38" t="n">
-        <v>64.7941239508651</v>
+        <v>248.093233911865</v>
       </c>
       <c r="O38" t="n">
-        <v>248.0932339118651</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>248.0932339118651</v>
+        <v>248.093233911865</v>
       </c>
       <c r="Q38" t="n">
-        <v>248.0932339118651</v>
+        <v>248.093233911865</v>
       </c>
       <c r="R38" t="n">
-        <v>248.0932339118651</v>
+        <v>248.093233911865</v>
       </c>
       <c r="S38" t="n">
-        <v>248.0932339118651</v>
+        <v>248.093233911865</v>
       </c>
       <c r="T38" t="n">
-        <v>248.0932339118651</v>
+        <v>222.4189089677869</v>
       </c>
       <c r="U38" t="n">
-        <v>248.0932339118651</v>
+        <v>248.093233911865</v>
       </c>
       <c r="V38" t="n">
-        <v>248.0932339118651</v>
+        <v>248.093233911865</v>
       </c>
       <c r="W38" t="n">
-        <v>248.0932339118651</v>
+        <v>248.093233911865</v>
       </c>
       <c r="X38" t="n">
-        <v>248.0932339118651</v>
+        <v>248.093233911865</v>
       </c>
       <c r="Y38" t="n">
-        <v>248.0932339118651</v>
+        <v>248.093233911865</v>
       </c>
     </row>
     <row r="39">
@@ -30308,22 +30308,22 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>25.71488932373234</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>148.7388631915159</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>125.6800758778345</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>107.1657389737211</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>51.93274503525222</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -30344,7 +30344,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.136586121265633</v>
+        <v>6.136586121265609</v>
       </c>
       <c r="R39" t="n">
         <v>134.3633376148752</v>
@@ -30353,16 +30353,16 @@
         <v>191.4841495043256</v>
       </c>
       <c r="T39" t="n">
-        <v>214.9477822055827</v>
+        <v>202.4640840994247</v>
       </c>
       <c r="U39" t="n">
-        <v>237.2276917808945</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>248.0932339118651</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>217.3129144394706</v>
@@ -30405,22 +30405,22 @@
         <v>119.8993073508208</v>
       </c>
       <c r="K40" t="n">
-        <v>66.47076232176849</v>
+        <v>150.9320761576981</v>
       </c>
       <c r="L40" t="n">
-        <v>31.43620997383529</v>
+        <v>31.43620997383526</v>
       </c>
       <c r="M40" t="n">
-        <v>108.9236727539309</v>
+        <v>24.4623589180015</v>
       </c>
       <c r="N40" t="n">
-        <v>15.78359136610012</v>
+        <v>15.7835913661001</v>
       </c>
       <c r="O40" t="n">
-        <v>36.79854607717668</v>
+        <v>36.79854607717667</v>
       </c>
       <c r="P40" t="n">
-        <v>57.89645227716784</v>
+        <v>57.89645227716782</v>
       </c>
       <c r="Q40" t="n">
         <v>126.8139378168763</v>
@@ -30435,13 +30435,13 @@
         <v>223.7409925368498</v>
       </c>
       <c r="U40" t="n">
-        <v>248.0932339118651</v>
+        <v>248.093233911865</v>
       </c>
       <c r="V40" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W40" t="n">
-        <v>248.0932339118651</v>
+        <v>248.093233911865</v>
       </c>
       <c r="X40" t="n">
         <v>221.9194554082425</v>
@@ -30484,19 +30484,19 @@
         <v>240.5960845356529</v>
       </c>
       <c r="K41" t="n">
-        <v>49.70367713529483</v>
+        <v>5.362241946156978</v>
       </c>
       <c r="L41" t="n">
-        <v>240.5960845356529</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>44.34143518913753</v>
       </c>
       <c r="N41" t="n">
         <v>240.5960845356529</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="P41" t="n">
         <v>240.5960845356529</v>
@@ -30548,19 +30548,19 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>148.7388631915159</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>125.6800758778345</v>
       </c>
       <c r="I42" t="n">
         <v>107.1657389737211</v>
       </c>
       <c r="J42" t="n">
-        <v>51.93274503525224</v>
+        <v>51.93274503525222</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -30581,31 +30581,31 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.136586121265633</v>
+        <v>6.136586121265609</v>
       </c>
       <c r="R42" t="n">
         <v>134.3633376148752</v>
       </c>
       <c r="S42" t="n">
-        <v>191.4841495043256</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>214.9477822055827</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>237.2276917808945</v>
+        <v>153.3521490680973</v>
       </c>
       <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="n">
         <v>240.5960845356529</v>
-      </c>
-      <c r="W42" t="n">
-        <v>166.3191899005992</v>
       </c>
       <c r="X42" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="43">
@@ -30627,43 +30627,43 @@
         <v>141.676141212225</v>
       </c>
       <c r="F43" t="n">
-        <v>138.9268822184467</v>
+        <v>205.9089544271861</v>
       </c>
       <c r="G43" t="n">
         <v>168.6959616282545</v>
       </c>
       <c r="H43" t="n">
-        <v>240.5960845356529</v>
+        <v>165.7816030517371</v>
       </c>
       <c r="I43" t="n">
-        <v>194.2583565691249</v>
+        <v>164.7082190429235</v>
       </c>
       <c r="J43" t="n">
         <v>119.8993073508208</v>
       </c>
       <c r="K43" t="n">
-        <v>66.47076232176849</v>
+        <v>66.47076232176846</v>
       </c>
       <c r="L43" t="n">
-        <v>31.43620997383529</v>
+        <v>31.43620997383526</v>
       </c>
       <c r="M43" t="n">
-        <v>24.46235891800152</v>
+        <v>24.4623589180015</v>
       </c>
       <c r="N43" t="n">
-        <v>15.78359136610012</v>
+        <v>15.7835913661001</v>
       </c>
       <c r="O43" t="n">
-        <v>36.79854607717668</v>
+        <v>36.79854607717667</v>
       </c>
       <c r="P43" t="n">
-        <v>57.89645227716784</v>
+        <v>57.89645227716782</v>
       </c>
       <c r="Q43" t="n">
         <v>126.8139378168763</v>
       </c>
       <c r="R43" t="n">
-        <v>203.2135377342752</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="S43" t="n">
         <v>235.3541616935673</v>
@@ -30718,28 +30718,28 @@
         <v>240.5960845356529</v>
       </c>
       <c r="J44" t="n">
-        <v>240.5960845356529</v>
+        <v>75.87088762177223</v>
       </c>
       <c r="K44" t="n">
         <v>240.5960845356529</v>
       </c>
       <c r="L44" t="n">
-        <v>49.7036771352948</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="N44" t="n">
+        <v>144.0530776783353</v>
+      </c>
+      <c r="O44" t="n">
         <v>240.5960845356529</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>240.5960845356529</v>
       </c>
       <c r="Q44" t="n">
-        <v>240.5960845356529</v>
+        <v>88.55297193870594</v>
       </c>
       <c r="R44" t="n">
         <v>240.5960845356529</v>
@@ -30748,7 +30748,7 @@
         <v>240.5960845356529</v>
       </c>
       <c r="T44" t="n">
-        <v>240.5960845356529</v>
+        <v>222.4189089677869</v>
       </c>
       <c r="U44" t="n">
         <v>240.5960845356529</v>
@@ -30779,13 +30779,13 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
         <v>148.7388631915159</v>
@@ -30797,7 +30797,7 @@
         <v>107.1657389737211</v>
       </c>
       <c r="J45" t="n">
-        <v>51.93274503525224</v>
+        <v>51.93274503525222</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30818,13 +30818,13 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.136586121265626</v>
+        <v>6.136586121265609</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>134.3633376148752</v>
       </c>
       <c r="S45" t="n">
-        <v>127.8874645629324</v>
+        <v>191.4841495043256</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -30833,16 +30833,16 @@
         <v>237.2276917808945</v>
       </c>
       <c r="V45" t="n">
-        <v>240.5960845356529</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>240.5960845356529</v>
+        <v>188.6206784525557</v>
       </c>
       <c r="X45" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -30879,34 +30879,34 @@
         <v>119.8993073508208</v>
       </c>
       <c r="K46" t="n">
-        <v>66.47076232176848</v>
+        <v>66.47076232176846</v>
       </c>
       <c r="L46" t="n">
-        <v>31.43620997383528</v>
+        <v>31.43620997383526</v>
       </c>
       <c r="M46" t="n">
-        <v>24.46235891800151</v>
+        <v>24.4623589180015</v>
       </c>
       <c r="N46" t="n">
-        <v>15.78359136610011</v>
+        <v>15.7835913661001</v>
       </c>
       <c r="O46" t="n">
-        <v>36.79854607717668</v>
+        <v>36.79854607717667</v>
       </c>
       <c r="P46" t="n">
-        <v>143.5844421598746</v>
+        <v>57.89645227716782</v>
       </c>
       <c r="Q46" t="n">
-        <v>126.8139378168763</v>
+        <v>176.9409180268125</v>
       </c>
       <c r="R46" t="n">
-        <v>203.2135377342752</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="S46" t="n">
         <v>235.3541616935673</v>
       </c>
       <c r="T46" t="n">
-        <v>223.7409925368498</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="U46" t="n">
         <v>240.5960845356529</v>
@@ -30918,7 +30918,7 @@
         <v>240.5960845356529</v>
       </c>
       <c r="X46" t="n">
-        <v>240.5960845356529</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y46" t="n">
         <v>217.1412728141684</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4174495561852893</v>
+        <v>0.4174495561852894</v>
       </c>
       <c r="H11" t="n">
         <v>4.275205267282596</v>
@@ -31759,40 +31759,40 @@
         <v>16.09372401483338</v>
       </c>
       <c r="J11" t="n">
-        <v>35.43050926928123</v>
+        <v>35.43050926928124</v>
       </c>
       <c r="K11" t="n">
-        <v>53.10114898260454</v>
+        <v>53.10114898260455</v>
       </c>
       <c r="L11" t="n">
         <v>65.87667083771011</v>
       </c>
       <c r="M11" t="n">
-        <v>73.30048938252024</v>
+        <v>73.30048938252025</v>
       </c>
       <c r="N11" t="n">
-        <v>74.4865679340317</v>
+        <v>74.48656793403171</v>
       </c>
       <c r="O11" t="n">
-        <v>70.33555390971422</v>
+        <v>70.33555390971424</v>
       </c>
       <c r="P11" t="n">
-        <v>60.02976799138988</v>
+        <v>60.02976799138989</v>
       </c>
       <c r="Q11" t="n">
-        <v>45.07985576050419</v>
+        <v>45.0798557605042</v>
       </c>
       <c r="R11" t="n">
-        <v>26.2226156837242</v>
+        <v>26.22261568372421</v>
       </c>
       <c r="S11" t="n">
-        <v>9.51263176157229</v>
+        <v>9.512631761572292</v>
       </c>
       <c r="T11" t="n">
         <v>1.827385432201105</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03339596449482314</v>
+        <v>0.03339596449482315</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,43 +31835,43 @@
         <v>2.157141045062283</v>
       </c>
       <c r="I12" t="n">
-        <v>7.690080473995876</v>
+        <v>7.690080473995877</v>
       </c>
       <c r="J12" t="n">
         <v>21.1021685974962</v>
       </c>
       <c r="K12" t="n">
-        <v>36.06696723708359</v>
+        <v>36.0669672370836</v>
       </c>
       <c r="L12" t="n">
         <v>48.49648839046699</v>
       </c>
       <c r="M12" t="n">
-        <v>56.59311452009448</v>
+        <v>56.59311452009449</v>
       </c>
       <c r="N12" t="n">
-        <v>58.09096586337343</v>
+        <v>58.09096586337344</v>
       </c>
       <c r="O12" t="n">
         <v>53.14188477361201</v>
       </c>
       <c r="P12" t="n">
-        <v>42.65104760214426</v>
+        <v>42.65104760214427</v>
       </c>
       <c r="Q12" t="n">
-        <v>28.51109581085044</v>
+        <v>28.51109581085045</v>
       </c>
       <c r="R12" t="n">
-        <v>13.86761518342492</v>
+        <v>13.86761518342493</v>
       </c>
       <c r="S12" t="n">
         <v>4.148724943614333</v>
       </c>
       <c r="T12" t="n">
-        <v>0.9002782109047397</v>
+        <v>0.9002782109047399</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01469442128789021</v>
+        <v>0.01469442128789022</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31914,19 +31914,19 @@
         <v>1.664853842702736</v>
       </c>
       <c r="I13" t="n">
-        <v>5.631223427055876</v>
+        <v>5.631223427055877</v>
       </c>
       <c r="J13" t="n">
         <v>13.23882242811776</v>
       </c>
       <c r="K13" t="n">
-        <v>21.75545205494983</v>
+        <v>21.75545205494984</v>
       </c>
       <c r="L13" t="n">
         <v>27.83948849034818</v>
       </c>
       <c r="M13" t="n">
-        <v>29.35283722875587</v>
+        <v>29.35283722875588</v>
       </c>
       <c r="N13" t="n">
         <v>28.65489236627316</v>
@@ -31941,13 +31941,13 @@
         <v>15.67992714226471</v>
       </c>
       <c r="R13" t="n">
-        <v>8.419598267901556</v>
+        <v>8.419598267901558</v>
       </c>
       <c r="S13" t="n">
         <v>3.263317808242475</v>
       </c>
       <c r="T13" t="n">
-        <v>0.8000831350411911</v>
+        <v>0.8000831350411912</v>
       </c>
       <c r="U13" t="n">
         <v>0.01021382725584501</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4174495561852893</v>
+        <v>0.4174495561852894</v>
       </c>
       <c r="H14" t="n">
         <v>4.275205267282596</v>
@@ -31996,40 +31996,40 @@
         <v>16.09372401483338</v>
       </c>
       <c r="J14" t="n">
-        <v>35.43050926928123</v>
+        <v>35.43050926928124</v>
       </c>
       <c r="K14" t="n">
-        <v>53.10114898260454</v>
+        <v>53.10114898260455</v>
       </c>
       <c r="L14" t="n">
         <v>65.87667083771011</v>
       </c>
       <c r="M14" t="n">
-        <v>73.30048938252024</v>
+        <v>73.30048938252025</v>
       </c>
       <c r="N14" t="n">
-        <v>74.4865679340317</v>
+        <v>74.48656793403171</v>
       </c>
       <c r="O14" t="n">
-        <v>70.33555390971422</v>
+        <v>70.33555390971424</v>
       </c>
       <c r="P14" t="n">
-        <v>60.02976799138988</v>
+        <v>60.02976799138989</v>
       </c>
       <c r="Q14" t="n">
-        <v>45.07985576050419</v>
+        <v>45.0798557605042</v>
       </c>
       <c r="R14" t="n">
-        <v>26.2226156837242</v>
+        <v>26.22261568372421</v>
       </c>
       <c r="S14" t="n">
-        <v>9.51263176157229</v>
+        <v>9.512631761572292</v>
       </c>
       <c r="T14" t="n">
         <v>1.827385432201105</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03339596449482314</v>
+        <v>0.03339596449482315</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,43 +32072,43 @@
         <v>2.157141045062283</v>
       </c>
       <c r="I15" t="n">
-        <v>7.690080473995876</v>
+        <v>7.690080473995877</v>
       </c>
       <c r="J15" t="n">
         <v>21.1021685974962</v>
       </c>
       <c r="K15" t="n">
-        <v>36.06696723708359</v>
+        <v>36.0669672370836</v>
       </c>
       <c r="L15" t="n">
         <v>48.49648839046699</v>
       </c>
       <c r="M15" t="n">
-        <v>56.59311452009448</v>
+        <v>56.59311452009449</v>
       </c>
       <c r="N15" t="n">
-        <v>58.09096586337343</v>
+        <v>58.09096586337344</v>
       </c>
       <c r="O15" t="n">
         <v>53.14188477361201</v>
       </c>
       <c r="P15" t="n">
-        <v>42.65104760214426</v>
+        <v>42.65104760214427</v>
       </c>
       <c r="Q15" t="n">
-        <v>28.51109581085044</v>
+        <v>28.51109581085045</v>
       </c>
       <c r="R15" t="n">
-        <v>13.86761518342492</v>
+        <v>13.86761518342493</v>
       </c>
       <c r="S15" t="n">
         <v>4.148724943614333</v>
       </c>
       <c r="T15" t="n">
-        <v>0.9002782109047397</v>
+        <v>0.9002782109047399</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01469442128789021</v>
+        <v>0.01469442128789022</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32151,19 +32151,19 @@
         <v>1.664853842702736</v>
       </c>
       <c r="I16" t="n">
-        <v>5.631223427055876</v>
+        <v>5.631223427055877</v>
       </c>
       <c r="J16" t="n">
         <v>13.23882242811776</v>
       </c>
       <c r="K16" t="n">
-        <v>21.75545205494983</v>
+        <v>21.75545205494984</v>
       </c>
       <c r="L16" t="n">
         <v>27.83948849034818</v>
       </c>
       <c r="M16" t="n">
-        <v>29.35283722875587</v>
+        <v>29.35283722875588</v>
       </c>
       <c r="N16" t="n">
         <v>28.65489236627316</v>
@@ -32178,13 +32178,13 @@
         <v>15.67992714226471</v>
       </c>
       <c r="R16" t="n">
-        <v>8.419598267901556</v>
+        <v>8.419598267901558</v>
       </c>
       <c r="S16" t="n">
         <v>3.263317808242475</v>
       </c>
       <c r="T16" t="n">
-        <v>0.8000831350411911</v>
+        <v>0.8000831350411912</v>
       </c>
       <c r="U16" t="n">
         <v>0.01021382725584501</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4174495561852893</v>
+        <v>0.4174495561852894</v>
       </c>
       <c r="H17" t="n">
         <v>4.275205267282596</v>
@@ -32233,40 +32233,40 @@
         <v>16.09372401483338</v>
       </c>
       <c r="J17" t="n">
-        <v>35.43050926928123</v>
+        <v>35.43050926928124</v>
       </c>
       <c r="K17" t="n">
-        <v>53.10114898260454</v>
+        <v>53.10114898260455</v>
       </c>
       <c r="L17" t="n">
         <v>65.87667083771011</v>
       </c>
       <c r="M17" t="n">
-        <v>73.30048938252024</v>
+        <v>73.30048938252025</v>
       </c>
       <c r="N17" t="n">
-        <v>74.4865679340317</v>
+        <v>74.48656793403171</v>
       </c>
       <c r="O17" t="n">
-        <v>70.33555390971422</v>
+        <v>70.33555390971424</v>
       </c>
       <c r="P17" t="n">
-        <v>60.02976799138988</v>
+        <v>60.02976799138989</v>
       </c>
       <c r="Q17" t="n">
-        <v>45.07985576050419</v>
+        <v>45.0798557605042</v>
       </c>
       <c r="R17" t="n">
-        <v>26.2226156837242</v>
+        <v>26.22261568372421</v>
       </c>
       <c r="S17" t="n">
-        <v>9.51263176157229</v>
+        <v>9.512631761572292</v>
       </c>
       <c r="T17" t="n">
         <v>1.827385432201105</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03339596449482314</v>
+        <v>0.03339596449482315</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,43 +32309,43 @@
         <v>2.157141045062283</v>
       </c>
       <c r="I18" t="n">
-        <v>7.690080473995876</v>
+        <v>7.690080473995877</v>
       </c>
       <c r="J18" t="n">
         <v>21.1021685974962</v>
       </c>
       <c r="K18" t="n">
-        <v>36.06696723708359</v>
+        <v>36.0669672370836</v>
       </c>
       <c r="L18" t="n">
         <v>48.49648839046699</v>
       </c>
       <c r="M18" t="n">
-        <v>56.59311452009448</v>
+        <v>56.59311452009449</v>
       </c>
       <c r="N18" t="n">
-        <v>58.09096586337343</v>
+        <v>58.09096586337344</v>
       </c>
       <c r="O18" t="n">
         <v>53.14188477361201</v>
       </c>
       <c r="P18" t="n">
-        <v>42.65104760214426</v>
+        <v>42.65104760214427</v>
       </c>
       <c r="Q18" t="n">
-        <v>28.51109581085044</v>
+        <v>28.51109581085045</v>
       </c>
       <c r="R18" t="n">
-        <v>13.86761518342492</v>
+        <v>13.86761518342493</v>
       </c>
       <c r="S18" t="n">
         <v>4.148724943614333</v>
       </c>
       <c r="T18" t="n">
-        <v>0.9002782109047397</v>
+        <v>0.9002782109047399</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01469442128789021</v>
+        <v>0.01469442128789022</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32388,19 +32388,19 @@
         <v>1.664853842702736</v>
       </c>
       <c r="I19" t="n">
-        <v>5.631223427055876</v>
+        <v>5.631223427055877</v>
       </c>
       <c r="J19" t="n">
         <v>13.23882242811776</v>
       </c>
       <c r="K19" t="n">
-        <v>21.75545205494983</v>
+        <v>21.75545205494984</v>
       </c>
       <c r="L19" t="n">
         <v>27.83948849034818</v>
       </c>
       <c r="M19" t="n">
-        <v>29.35283722875587</v>
+        <v>29.35283722875588</v>
       </c>
       <c r="N19" t="n">
         <v>28.65489236627316</v>
@@ -32415,13 +32415,13 @@
         <v>15.67992714226471</v>
       </c>
       <c r="R19" t="n">
-        <v>8.419598267901556</v>
+        <v>8.419598267901558</v>
       </c>
       <c r="S19" t="n">
         <v>3.263317808242475</v>
       </c>
       <c r="T19" t="n">
-        <v>0.8000831350411911</v>
+        <v>0.8000831350411912</v>
       </c>
       <c r="U19" t="n">
         <v>0.01021382725584501</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4174495561852893</v>
+        <v>0.4174495561852894</v>
       </c>
       <c r="H20" t="n">
         <v>4.275205267282596</v>
@@ -32470,40 +32470,40 @@
         <v>16.09372401483338</v>
       </c>
       <c r="J20" t="n">
-        <v>35.43050926928123</v>
+        <v>35.43050926928124</v>
       </c>
       <c r="K20" t="n">
-        <v>53.10114898260454</v>
+        <v>53.10114898260455</v>
       </c>
       <c r="L20" t="n">
         <v>65.87667083771011</v>
       </c>
       <c r="M20" t="n">
-        <v>73.30048938252024</v>
+        <v>73.30048938252025</v>
       </c>
       <c r="N20" t="n">
-        <v>74.4865679340317</v>
+        <v>74.48656793403171</v>
       </c>
       <c r="O20" t="n">
-        <v>70.33555390971422</v>
+        <v>70.33555390971424</v>
       </c>
       <c r="P20" t="n">
-        <v>60.02976799138988</v>
+        <v>60.02976799138989</v>
       </c>
       <c r="Q20" t="n">
-        <v>45.07985576050419</v>
+        <v>45.0798557605042</v>
       </c>
       <c r="R20" t="n">
-        <v>26.2226156837242</v>
+        <v>26.22261568372421</v>
       </c>
       <c r="S20" t="n">
-        <v>9.51263176157229</v>
+        <v>9.512631761572292</v>
       </c>
       <c r="T20" t="n">
         <v>1.827385432201105</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03339596449482314</v>
+        <v>0.03339596449482315</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,43 +32546,43 @@
         <v>2.157141045062283</v>
       </c>
       <c r="I21" t="n">
-        <v>7.690080473995876</v>
+        <v>7.690080473995877</v>
       </c>
       <c r="J21" t="n">
         <v>21.1021685974962</v>
       </c>
       <c r="K21" t="n">
-        <v>36.06696723708359</v>
+        <v>36.0669672370836</v>
       </c>
       <c r="L21" t="n">
         <v>48.49648839046699</v>
       </c>
       <c r="M21" t="n">
-        <v>56.59311452009448</v>
+        <v>56.59311452009449</v>
       </c>
       <c r="N21" t="n">
-        <v>58.09096586337343</v>
+        <v>58.09096586337344</v>
       </c>
       <c r="O21" t="n">
         <v>53.14188477361201</v>
       </c>
       <c r="P21" t="n">
-        <v>42.65104760214426</v>
+        <v>42.65104760214427</v>
       </c>
       <c r="Q21" t="n">
-        <v>28.51109581085044</v>
+        <v>28.51109581085045</v>
       </c>
       <c r="R21" t="n">
-        <v>13.86761518342492</v>
+        <v>13.86761518342493</v>
       </c>
       <c r="S21" t="n">
         <v>4.148724943614333</v>
       </c>
       <c r="T21" t="n">
-        <v>0.9002782109047397</v>
+        <v>0.9002782109047399</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01469442128789021</v>
+        <v>0.01469442128789022</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32625,19 +32625,19 @@
         <v>1.664853842702736</v>
       </c>
       <c r="I22" t="n">
-        <v>5.631223427055876</v>
+        <v>5.631223427055877</v>
       </c>
       <c r="J22" t="n">
         <v>13.23882242811776</v>
       </c>
       <c r="K22" t="n">
-        <v>21.75545205494983</v>
+        <v>21.75545205494984</v>
       </c>
       <c r="L22" t="n">
         <v>27.83948849034818</v>
       </c>
       <c r="M22" t="n">
-        <v>29.35283722875587</v>
+        <v>29.35283722875588</v>
       </c>
       <c r="N22" t="n">
         <v>28.65489236627316</v>
@@ -32652,13 +32652,13 @@
         <v>15.67992714226471</v>
       </c>
       <c r="R22" t="n">
-        <v>8.419598267901556</v>
+        <v>8.419598267901558</v>
       </c>
       <c r="S22" t="n">
         <v>3.263317808242475</v>
       </c>
       <c r="T22" t="n">
-        <v>0.8000831350411911</v>
+        <v>0.8000831350411912</v>
       </c>
       <c r="U22" t="n">
         <v>0.01021382725584501</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4174495561852893</v>
+        <v>0.4174495561852894</v>
       </c>
       <c r="H23" t="n">
         <v>4.275205267282596</v>
@@ -32707,40 +32707,40 @@
         <v>16.09372401483338</v>
       </c>
       <c r="J23" t="n">
-        <v>35.43050926928123</v>
+        <v>35.43050926928124</v>
       </c>
       <c r="K23" t="n">
-        <v>53.10114898260454</v>
+        <v>53.10114898260455</v>
       </c>
       <c r="L23" t="n">
         <v>65.87667083771011</v>
       </c>
       <c r="M23" t="n">
-        <v>73.30048938252024</v>
+        <v>73.30048938252025</v>
       </c>
       <c r="N23" t="n">
-        <v>74.4865679340317</v>
+        <v>74.48656793403171</v>
       </c>
       <c r="O23" t="n">
-        <v>70.33555390971422</v>
+        <v>70.33555390971424</v>
       </c>
       <c r="P23" t="n">
-        <v>60.02976799138988</v>
+        <v>60.02976799138989</v>
       </c>
       <c r="Q23" t="n">
-        <v>45.07985576050419</v>
+        <v>45.0798557605042</v>
       </c>
       <c r="R23" t="n">
-        <v>26.2226156837242</v>
+        <v>26.22261568372421</v>
       </c>
       <c r="S23" t="n">
-        <v>9.51263176157229</v>
+        <v>9.512631761572292</v>
       </c>
       <c r="T23" t="n">
         <v>1.827385432201105</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03339596449482314</v>
+        <v>0.03339596449482315</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,43 +32783,43 @@
         <v>2.157141045062283</v>
       </c>
       <c r="I24" t="n">
-        <v>7.690080473995876</v>
+        <v>7.690080473995877</v>
       </c>
       <c r="J24" t="n">
         <v>21.1021685974962</v>
       </c>
       <c r="K24" t="n">
-        <v>36.06696723708359</v>
+        <v>36.0669672370836</v>
       </c>
       <c r="L24" t="n">
         <v>48.49648839046699</v>
       </c>
       <c r="M24" t="n">
-        <v>56.59311452009448</v>
+        <v>56.59311452009449</v>
       </c>
       <c r="N24" t="n">
-        <v>58.09096586337343</v>
+        <v>58.09096586337344</v>
       </c>
       <c r="O24" t="n">
         <v>53.14188477361201</v>
       </c>
       <c r="P24" t="n">
-        <v>42.65104760214426</v>
+        <v>42.65104760214427</v>
       </c>
       <c r="Q24" t="n">
-        <v>28.51109581085044</v>
+        <v>28.51109581085045</v>
       </c>
       <c r="R24" t="n">
-        <v>13.86761518342492</v>
+        <v>13.86761518342493</v>
       </c>
       <c r="S24" t="n">
         <v>4.148724943614333</v>
       </c>
       <c r="T24" t="n">
-        <v>0.9002782109047397</v>
+        <v>0.9002782109047399</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01469442128789021</v>
+        <v>0.01469442128789022</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32862,19 +32862,19 @@
         <v>1.664853842702736</v>
       </c>
       <c r="I25" t="n">
-        <v>5.631223427055876</v>
+        <v>5.631223427055877</v>
       </c>
       <c r="J25" t="n">
         <v>13.23882242811776</v>
       </c>
       <c r="K25" t="n">
-        <v>21.75545205494983</v>
+        <v>21.75545205494984</v>
       </c>
       <c r="L25" t="n">
         <v>27.83948849034818</v>
       </c>
       <c r="M25" t="n">
-        <v>29.35283722875587</v>
+        <v>29.35283722875588</v>
       </c>
       <c r="N25" t="n">
         <v>28.65489236627316</v>
@@ -32889,13 +32889,13 @@
         <v>15.67992714226471</v>
       </c>
       <c r="R25" t="n">
-        <v>8.419598267901556</v>
+        <v>8.419598267901558</v>
       </c>
       <c r="S25" t="n">
         <v>3.263317808242475</v>
       </c>
       <c r="T25" t="n">
-        <v>0.8000831350411911</v>
+        <v>0.8000831350411912</v>
       </c>
       <c r="U25" t="n">
         <v>0.01021382725584501</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4174495561852893</v>
+        <v>0.4174495561852894</v>
       </c>
       <c r="H26" t="n">
         <v>4.275205267282596</v>
@@ -32944,40 +32944,40 @@
         <v>16.09372401483338</v>
       </c>
       <c r="J26" t="n">
-        <v>35.43050926928123</v>
+        <v>35.43050926928124</v>
       </c>
       <c r="K26" t="n">
-        <v>53.10114898260454</v>
+        <v>53.10114898260455</v>
       </c>
       <c r="L26" t="n">
         <v>65.87667083771011</v>
       </c>
       <c r="M26" t="n">
-        <v>73.30048938252024</v>
+        <v>73.30048938252025</v>
       </c>
       <c r="N26" t="n">
-        <v>74.4865679340317</v>
+        <v>74.48656793403171</v>
       </c>
       <c r="O26" t="n">
-        <v>70.33555390971422</v>
+        <v>70.33555390971424</v>
       </c>
       <c r="P26" t="n">
-        <v>60.02976799138988</v>
+        <v>60.02976799138989</v>
       </c>
       <c r="Q26" t="n">
-        <v>45.07985576050419</v>
+        <v>45.0798557605042</v>
       </c>
       <c r="R26" t="n">
-        <v>26.2226156837242</v>
+        <v>26.22261568372421</v>
       </c>
       <c r="S26" t="n">
-        <v>9.51263176157229</v>
+        <v>9.512631761572292</v>
       </c>
       <c r="T26" t="n">
         <v>1.827385432201105</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03339596449482314</v>
+        <v>0.03339596449482315</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,43 +33020,43 @@
         <v>2.157141045062283</v>
       </c>
       <c r="I27" t="n">
-        <v>7.690080473995876</v>
+        <v>7.690080473995877</v>
       </c>
       <c r="J27" t="n">
         <v>21.1021685974962</v>
       </c>
       <c r="K27" t="n">
-        <v>36.06696723708359</v>
+        <v>36.0669672370836</v>
       </c>
       <c r="L27" t="n">
         <v>48.49648839046699</v>
       </c>
       <c r="M27" t="n">
-        <v>56.59311452009448</v>
+        <v>56.59311452009449</v>
       </c>
       <c r="N27" t="n">
-        <v>58.09096586337343</v>
+        <v>58.09096586337344</v>
       </c>
       <c r="O27" t="n">
         <v>53.14188477361201</v>
       </c>
       <c r="P27" t="n">
-        <v>42.65104760214426</v>
+        <v>42.65104760214427</v>
       </c>
       <c r="Q27" t="n">
-        <v>28.51109581085044</v>
+        <v>28.51109581085045</v>
       </c>
       <c r="R27" t="n">
-        <v>13.86761518342492</v>
+        <v>13.86761518342493</v>
       </c>
       <c r="S27" t="n">
         <v>4.148724943614333</v>
       </c>
       <c r="T27" t="n">
-        <v>0.9002782109047397</v>
+        <v>0.9002782109047399</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01469442128789021</v>
+        <v>0.01469442128789022</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33099,19 +33099,19 @@
         <v>1.664853842702736</v>
       </c>
       <c r="I28" t="n">
-        <v>5.631223427055876</v>
+        <v>5.631223427055877</v>
       </c>
       <c r="J28" t="n">
         <v>13.23882242811776</v>
       </c>
       <c r="K28" t="n">
-        <v>21.75545205494983</v>
+        <v>21.75545205494984</v>
       </c>
       <c r="L28" t="n">
         <v>27.83948849034818</v>
       </c>
       <c r="M28" t="n">
-        <v>29.35283722875587</v>
+        <v>29.35283722875588</v>
       </c>
       <c r="N28" t="n">
         <v>28.65489236627316</v>
@@ -33126,13 +33126,13 @@
         <v>15.67992714226471</v>
       </c>
       <c r="R28" t="n">
-        <v>8.419598267901556</v>
+        <v>8.419598267901558</v>
       </c>
       <c r="S28" t="n">
         <v>3.263317808242475</v>
       </c>
       <c r="T28" t="n">
-        <v>0.8000831350411911</v>
+        <v>0.8000831350411912</v>
       </c>
       <c r="U28" t="n">
         <v>0.01021382725584501</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4174495561852893</v>
+        <v>0.4174495561852894</v>
       </c>
       <c r="H29" t="n">
         <v>4.275205267282596</v>
@@ -33181,40 +33181,40 @@
         <v>16.09372401483338</v>
       </c>
       <c r="J29" t="n">
-        <v>35.43050926928123</v>
+        <v>35.43050926928124</v>
       </c>
       <c r="K29" t="n">
-        <v>53.10114898260454</v>
+        <v>53.10114898260455</v>
       </c>
       <c r="L29" t="n">
         <v>65.87667083771011</v>
       </c>
       <c r="M29" t="n">
-        <v>73.30048938252024</v>
+        <v>73.30048938252025</v>
       </c>
       <c r="N29" t="n">
-        <v>74.4865679340317</v>
+        <v>74.48656793403171</v>
       </c>
       <c r="O29" t="n">
-        <v>70.33555390971422</v>
+        <v>70.33555390971424</v>
       </c>
       <c r="P29" t="n">
-        <v>60.02976799138988</v>
+        <v>60.02976799138989</v>
       </c>
       <c r="Q29" t="n">
-        <v>45.07985576050419</v>
+        <v>45.0798557605042</v>
       </c>
       <c r="R29" t="n">
-        <v>26.2226156837242</v>
+        <v>26.22261568372421</v>
       </c>
       <c r="S29" t="n">
-        <v>9.51263176157229</v>
+        <v>9.512631761572292</v>
       </c>
       <c r="T29" t="n">
         <v>1.827385432201105</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03339596449482314</v>
+        <v>0.03339596449482315</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,43 +33257,43 @@
         <v>2.157141045062283</v>
       </c>
       <c r="I30" t="n">
-        <v>7.690080473995876</v>
+        <v>7.690080473995877</v>
       </c>
       <c r="J30" t="n">
         <v>21.1021685974962</v>
       </c>
       <c r="K30" t="n">
-        <v>36.06696723708359</v>
+        <v>36.0669672370836</v>
       </c>
       <c r="L30" t="n">
         <v>48.49648839046699</v>
       </c>
       <c r="M30" t="n">
-        <v>56.59311452009448</v>
+        <v>56.59311452009449</v>
       </c>
       <c r="N30" t="n">
-        <v>58.09096586337343</v>
+        <v>58.09096586337344</v>
       </c>
       <c r="O30" t="n">
         <v>53.14188477361201</v>
       </c>
       <c r="P30" t="n">
-        <v>42.65104760214426</v>
+        <v>42.65104760214427</v>
       </c>
       <c r="Q30" t="n">
-        <v>28.51109581085044</v>
+        <v>28.51109581085045</v>
       </c>
       <c r="R30" t="n">
-        <v>13.86761518342492</v>
+        <v>13.86761518342493</v>
       </c>
       <c r="S30" t="n">
         <v>4.148724943614333</v>
       </c>
       <c r="T30" t="n">
-        <v>0.9002782109047397</v>
+        <v>0.9002782109047399</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01469442128789021</v>
+        <v>0.01469442128789022</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33336,19 +33336,19 @@
         <v>1.664853842702736</v>
       </c>
       <c r="I31" t="n">
-        <v>5.631223427055876</v>
+        <v>5.631223427055877</v>
       </c>
       <c r="J31" t="n">
         <v>13.23882242811776</v>
       </c>
       <c r="K31" t="n">
-        <v>21.75545205494983</v>
+        <v>21.75545205494984</v>
       </c>
       <c r="L31" t="n">
         <v>27.83948849034818</v>
       </c>
       <c r="M31" t="n">
-        <v>29.35283722875587</v>
+        <v>29.35283722875588</v>
       </c>
       <c r="N31" t="n">
         <v>28.65489236627316</v>
@@ -33363,13 +33363,13 @@
         <v>15.67992714226471</v>
       </c>
       <c r="R31" t="n">
-        <v>8.419598267901556</v>
+        <v>8.419598267901558</v>
       </c>
       <c r="S31" t="n">
         <v>3.263317808242475</v>
       </c>
       <c r="T31" t="n">
-        <v>0.8000831350411911</v>
+        <v>0.8000831350411912</v>
       </c>
       <c r="U31" t="n">
         <v>0.01021382725584501</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4174495561852893</v>
+        <v>0.4174495561852894</v>
       </c>
       <c r="H32" t="n">
         <v>4.275205267282596</v>
@@ -33418,40 +33418,40 @@
         <v>16.09372401483338</v>
       </c>
       <c r="J32" t="n">
-        <v>35.43050926928123</v>
+        <v>35.43050926928124</v>
       </c>
       <c r="K32" t="n">
-        <v>53.10114898260454</v>
+        <v>53.10114898260455</v>
       </c>
       <c r="L32" t="n">
         <v>65.87667083771011</v>
       </c>
       <c r="M32" t="n">
-        <v>73.30048938252024</v>
+        <v>73.30048938252025</v>
       </c>
       <c r="N32" t="n">
-        <v>74.4865679340317</v>
+        <v>74.48656793403171</v>
       </c>
       <c r="O32" t="n">
-        <v>70.33555390971422</v>
+        <v>70.33555390971424</v>
       </c>
       <c r="P32" t="n">
-        <v>60.02976799138988</v>
+        <v>60.02976799138989</v>
       </c>
       <c r="Q32" t="n">
-        <v>45.07985576050419</v>
+        <v>45.0798557605042</v>
       </c>
       <c r="R32" t="n">
-        <v>26.2226156837242</v>
+        <v>26.22261568372421</v>
       </c>
       <c r="S32" t="n">
-        <v>9.51263176157229</v>
+        <v>9.512631761572292</v>
       </c>
       <c r="T32" t="n">
         <v>1.827385432201105</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03339596449482314</v>
+        <v>0.03339596449482315</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33494,43 +33494,43 @@
         <v>2.157141045062283</v>
       </c>
       <c r="I33" t="n">
-        <v>7.690080473995876</v>
+        <v>7.690080473995877</v>
       </c>
       <c r="J33" t="n">
         <v>21.1021685974962</v>
       </c>
       <c r="K33" t="n">
-        <v>36.06696723708359</v>
+        <v>36.0669672370836</v>
       </c>
       <c r="L33" t="n">
         <v>48.49648839046699</v>
       </c>
       <c r="M33" t="n">
-        <v>56.59311452009448</v>
+        <v>56.59311452009449</v>
       </c>
       <c r="N33" t="n">
-        <v>58.09096586337343</v>
+        <v>58.09096586337344</v>
       </c>
       <c r="O33" t="n">
         <v>53.14188477361201</v>
       </c>
       <c r="P33" t="n">
-        <v>42.65104760214426</v>
+        <v>42.65104760214427</v>
       </c>
       <c r="Q33" t="n">
-        <v>28.51109581085044</v>
+        <v>28.51109581085045</v>
       </c>
       <c r="R33" t="n">
-        <v>13.86761518342492</v>
+        <v>13.86761518342493</v>
       </c>
       <c r="S33" t="n">
         <v>4.148724943614333</v>
       </c>
       <c r="T33" t="n">
-        <v>0.9002782109047397</v>
+        <v>0.9002782109047399</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01469442128789021</v>
+        <v>0.01469442128789022</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33573,19 +33573,19 @@
         <v>1.664853842702736</v>
       </c>
       <c r="I34" t="n">
-        <v>5.631223427055876</v>
+        <v>5.631223427055877</v>
       </c>
       <c r="J34" t="n">
         <v>13.23882242811776</v>
       </c>
       <c r="K34" t="n">
-        <v>21.75545205494983</v>
+        <v>21.75545205494984</v>
       </c>
       <c r="L34" t="n">
         <v>27.83948849034818</v>
       </c>
       <c r="M34" t="n">
-        <v>29.35283722875587</v>
+        <v>29.35283722875588</v>
       </c>
       <c r="N34" t="n">
         <v>28.65489236627316</v>
@@ -33600,13 +33600,13 @@
         <v>15.67992714226471</v>
       </c>
       <c r="R34" t="n">
-        <v>8.419598267901556</v>
+        <v>8.419598267901558</v>
       </c>
       <c r="S34" t="n">
         <v>3.263317808242475</v>
       </c>
       <c r="T34" t="n">
-        <v>0.8000831350411911</v>
+        <v>0.8000831350411912</v>
       </c>
       <c r="U34" t="n">
         <v>0.01021382725584501</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4174495561852891</v>
+        <v>0.4174495561852894</v>
       </c>
       <c r="H35" t="n">
-        <v>4.275205267282592</v>
+        <v>4.275205267282596</v>
       </c>
       <c r="I35" t="n">
-        <v>16.09372401483337</v>
+        <v>16.09372401483338</v>
       </c>
       <c r="J35" t="n">
-        <v>35.43050926928121</v>
+        <v>35.43050926928124</v>
       </c>
       <c r="K35" t="n">
-        <v>53.10114898260451</v>
+        <v>53.10114898260455</v>
       </c>
       <c r="L35" t="n">
-        <v>65.87667083771005</v>
+        <v>65.87667083771011</v>
       </c>
       <c r="M35" t="n">
-        <v>73.30048938252018</v>
+        <v>73.30048938252025</v>
       </c>
       <c r="N35" t="n">
-        <v>74.48656793403165</v>
+        <v>74.48656793403171</v>
       </c>
       <c r="O35" t="n">
-        <v>70.33555390971418</v>
+        <v>70.33555390971424</v>
       </c>
       <c r="P35" t="n">
-        <v>60.02976799138985</v>
+        <v>60.02976799138989</v>
       </c>
       <c r="Q35" t="n">
-        <v>45.07985576050417</v>
+        <v>45.0798557605042</v>
       </c>
       <c r="R35" t="n">
-        <v>26.22261568372419</v>
+        <v>26.22261568372421</v>
       </c>
       <c r="S35" t="n">
-        <v>9.512631761572283</v>
+        <v>9.512631761572292</v>
       </c>
       <c r="T35" t="n">
-        <v>1.827385432201104</v>
+        <v>1.827385432201105</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03339596449482312</v>
+        <v>0.03339596449482315</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.223355203575931</v>
+        <v>0.2233552035759312</v>
       </c>
       <c r="H36" t="n">
-        <v>2.157141045062281</v>
+        <v>2.157141045062283</v>
       </c>
       <c r="I36" t="n">
-        <v>7.690080473995871</v>
+        <v>7.690080473995877</v>
       </c>
       <c r="J36" t="n">
-        <v>21.10216859749619</v>
+        <v>21.1021685974962</v>
       </c>
       <c r="K36" t="n">
-        <v>36.06696723708356</v>
+        <v>36.0669672370836</v>
       </c>
       <c r="L36" t="n">
-        <v>48.49648839046696</v>
+        <v>48.49648839046699</v>
       </c>
       <c r="M36" t="n">
-        <v>56.59311452009444</v>
+        <v>56.59311452009449</v>
       </c>
       <c r="N36" t="n">
-        <v>58.09096586337339</v>
+        <v>58.09096586337344</v>
       </c>
       <c r="O36" t="n">
-        <v>53.14188477361197</v>
+        <v>53.14188477361201</v>
       </c>
       <c r="P36" t="n">
-        <v>42.65104760214423</v>
+        <v>42.65104760214427</v>
       </c>
       <c r="Q36" t="n">
-        <v>28.51109581085042</v>
+        <v>28.51109581085045</v>
       </c>
       <c r="R36" t="n">
-        <v>13.86761518342492</v>
+        <v>13.86761518342493</v>
       </c>
       <c r="S36" t="n">
-        <v>4.148724943614329</v>
+        <v>4.148724943614333</v>
       </c>
       <c r="T36" t="n">
-        <v>0.9002782109047391</v>
+        <v>0.9002782109047399</v>
       </c>
       <c r="U36" t="n">
-        <v>0.0146944212878902</v>
+        <v>0.01469442128789022</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1872534996904915</v>
+        <v>0.1872534996904916</v>
       </c>
       <c r="H37" t="n">
-        <v>1.664853842702734</v>
+        <v>1.664853842702736</v>
       </c>
       <c r="I37" t="n">
-        <v>5.631223427055872</v>
+        <v>5.631223427055877</v>
       </c>
       <c r="J37" t="n">
-        <v>13.23882242811774</v>
+        <v>13.23882242811776</v>
       </c>
       <c r="K37" t="n">
-        <v>21.75545205494982</v>
+        <v>21.75545205494984</v>
       </c>
       <c r="L37" t="n">
-        <v>27.83948849034816</v>
+        <v>27.83948849034818</v>
       </c>
       <c r="M37" t="n">
-        <v>29.35283722875585</v>
+        <v>29.35283722875588</v>
       </c>
       <c r="N37" t="n">
-        <v>28.65489236627313</v>
+        <v>28.65489236627316</v>
       </c>
       <c r="O37" t="n">
-        <v>26.46743102897966</v>
+        <v>26.46743102897968</v>
       </c>
       <c r="P37" t="n">
-        <v>22.64745963529361</v>
+        <v>22.64745963529363</v>
       </c>
       <c r="Q37" t="n">
-        <v>15.6799271422647</v>
+        <v>15.67992714226471</v>
       </c>
       <c r="R37" t="n">
-        <v>8.41959826790155</v>
+        <v>8.419598267901558</v>
       </c>
       <c r="S37" t="n">
-        <v>3.263317808242473</v>
+        <v>3.263317808242475</v>
       </c>
       <c r="T37" t="n">
-        <v>0.8000831350411906</v>
+        <v>0.8000831350411912</v>
       </c>
       <c r="U37" t="n">
-        <v>0.010213827255845</v>
+        <v>0.01021382725584501</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4174495561852891</v>
+        <v>0.4174495561852894</v>
       </c>
       <c r="H38" t="n">
-        <v>4.275205267282592</v>
+        <v>4.275205267282596</v>
       </c>
       <c r="I38" t="n">
-        <v>16.09372401483337</v>
+        <v>16.09372401483338</v>
       </c>
       <c r="J38" t="n">
-        <v>35.43050926928121</v>
+        <v>35.43050926928124</v>
       </c>
       <c r="K38" t="n">
-        <v>53.10114898260451</v>
+        <v>53.10114898260455</v>
       </c>
       <c r="L38" t="n">
-        <v>65.87667083771005</v>
+        <v>65.87667083771011</v>
       </c>
       <c r="M38" t="n">
-        <v>73.30048938252018</v>
+        <v>73.30048938252025</v>
       </c>
       <c r="N38" t="n">
-        <v>74.48656793403165</v>
+        <v>74.48656793403171</v>
       </c>
       <c r="O38" t="n">
-        <v>70.33555390971418</v>
+        <v>70.33555390971424</v>
       </c>
       <c r="P38" t="n">
-        <v>60.02976799138985</v>
+        <v>60.02976799138989</v>
       </c>
       <c r="Q38" t="n">
-        <v>45.07985576050417</v>
+        <v>45.0798557605042</v>
       </c>
       <c r="R38" t="n">
-        <v>26.22261568372419</v>
+        <v>26.22261568372421</v>
       </c>
       <c r="S38" t="n">
-        <v>9.512631761572283</v>
+        <v>9.512631761572292</v>
       </c>
       <c r="T38" t="n">
-        <v>1.827385432201104</v>
+        <v>1.827385432201105</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03339596449482312</v>
+        <v>0.03339596449482315</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.223355203575931</v>
+        <v>0.2233552035759312</v>
       </c>
       <c r="H39" t="n">
-        <v>2.157141045062281</v>
+        <v>2.157141045062283</v>
       </c>
       <c r="I39" t="n">
-        <v>7.690080473995871</v>
+        <v>7.690080473995877</v>
       </c>
       <c r="J39" t="n">
-        <v>21.10216859749619</v>
+        <v>21.1021685974962</v>
       </c>
       <c r="K39" t="n">
-        <v>36.06696723708356</v>
+        <v>36.0669672370836</v>
       </c>
       <c r="L39" t="n">
-        <v>48.49648839046696</v>
+        <v>48.49648839046699</v>
       </c>
       <c r="M39" t="n">
-        <v>56.59311452009444</v>
+        <v>56.59311452009449</v>
       </c>
       <c r="N39" t="n">
-        <v>58.09096586337339</v>
+        <v>58.09096586337344</v>
       </c>
       <c r="O39" t="n">
-        <v>53.14188477361197</v>
+        <v>53.14188477361201</v>
       </c>
       <c r="P39" t="n">
-        <v>42.65104760214423</v>
+        <v>42.65104760214427</v>
       </c>
       <c r="Q39" t="n">
-        <v>28.51109581085042</v>
+        <v>28.51109581085045</v>
       </c>
       <c r="R39" t="n">
-        <v>13.86761518342492</v>
+        <v>13.86761518342493</v>
       </c>
       <c r="S39" t="n">
-        <v>4.148724943614329</v>
+        <v>4.148724943614333</v>
       </c>
       <c r="T39" t="n">
-        <v>0.9002782109047391</v>
+        <v>0.9002782109047399</v>
       </c>
       <c r="U39" t="n">
-        <v>0.0146944212878902</v>
+        <v>0.01469442128789022</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1872534996904915</v>
+        <v>0.1872534996904916</v>
       </c>
       <c r="H40" t="n">
-        <v>1.664853842702734</v>
+        <v>1.664853842702736</v>
       </c>
       <c r="I40" t="n">
-        <v>5.631223427055872</v>
+        <v>5.631223427055877</v>
       </c>
       <c r="J40" t="n">
-        <v>13.23882242811774</v>
+        <v>13.23882242811776</v>
       </c>
       <c r="K40" t="n">
-        <v>21.75545205494982</v>
+        <v>21.75545205494984</v>
       </c>
       <c r="L40" t="n">
-        <v>27.83948849034816</v>
+        <v>27.83948849034818</v>
       </c>
       <c r="M40" t="n">
-        <v>29.35283722875585</v>
+        <v>29.35283722875588</v>
       </c>
       <c r="N40" t="n">
-        <v>28.65489236627313</v>
+        <v>28.65489236627316</v>
       </c>
       <c r="O40" t="n">
-        <v>26.46743102897966</v>
+        <v>26.46743102897968</v>
       </c>
       <c r="P40" t="n">
-        <v>22.64745963529361</v>
+        <v>22.64745963529363</v>
       </c>
       <c r="Q40" t="n">
-        <v>15.6799271422647</v>
+        <v>15.67992714226471</v>
       </c>
       <c r="R40" t="n">
-        <v>8.41959826790155</v>
+        <v>8.419598267901558</v>
       </c>
       <c r="S40" t="n">
-        <v>3.263317808242473</v>
+        <v>3.263317808242475</v>
       </c>
       <c r="T40" t="n">
-        <v>0.8000831350411906</v>
+        <v>0.8000831350411912</v>
       </c>
       <c r="U40" t="n">
-        <v>0.010213827255845</v>
+        <v>0.01021382725584501</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4174495561852891</v>
+        <v>0.4174495561852894</v>
       </c>
       <c r="H41" t="n">
-        <v>4.275205267282592</v>
+        <v>4.275205267282596</v>
       </c>
       <c r="I41" t="n">
-        <v>16.09372401483337</v>
+        <v>16.09372401483338</v>
       </c>
       <c r="J41" t="n">
-        <v>35.43050926928121</v>
+        <v>35.43050926928124</v>
       </c>
       <c r="K41" t="n">
-        <v>53.10114898260451</v>
+        <v>53.10114898260455</v>
       </c>
       <c r="L41" t="n">
-        <v>65.87667083771005</v>
+        <v>65.87667083771011</v>
       </c>
       <c r="M41" t="n">
-        <v>73.30048938252018</v>
+        <v>73.30048938252025</v>
       </c>
       <c r="N41" t="n">
-        <v>74.48656793403165</v>
+        <v>74.48656793403171</v>
       </c>
       <c r="O41" t="n">
-        <v>70.33555390971418</v>
+        <v>70.33555390971424</v>
       </c>
       <c r="P41" t="n">
-        <v>60.02976799138985</v>
+        <v>60.02976799138989</v>
       </c>
       <c r="Q41" t="n">
-        <v>45.07985576050417</v>
+        <v>45.0798557605042</v>
       </c>
       <c r="R41" t="n">
-        <v>26.22261568372419</v>
+        <v>26.22261568372421</v>
       </c>
       <c r="S41" t="n">
-        <v>9.512631761572283</v>
+        <v>9.512631761572292</v>
       </c>
       <c r="T41" t="n">
-        <v>1.827385432201104</v>
+        <v>1.827385432201105</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03339596449482312</v>
+        <v>0.03339596449482315</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.223355203575931</v>
+        <v>0.2233552035759312</v>
       </c>
       <c r="H42" t="n">
-        <v>2.157141045062281</v>
+        <v>2.157141045062283</v>
       </c>
       <c r="I42" t="n">
-        <v>7.690080473995871</v>
+        <v>7.690080473995877</v>
       </c>
       <c r="J42" t="n">
-        <v>21.10216859749619</v>
+        <v>21.1021685974962</v>
       </c>
       <c r="K42" t="n">
-        <v>36.06696723708356</v>
+        <v>36.0669672370836</v>
       </c>
       <c r="L42" t="n">
-        <v>48.49648839046696</v>
+        <v>48.49648839046699</v>
       </c>
       <c r="M42" t="n">
-        <v>56.59311452009444</v>
+        <v>56.59311452009449</v>
       </c>
       <c r="N42" t="n">
-        <v>58.09096586337339</v>
+        <v>58.09096586337344</v>
       </c>
       <c r="O42" t="n">
-        <v>53.14188477361197</v>
+        <v>53.14188477361201</v>
       </c>
       <c r="P42" t="n">
-        <v>42.65104760214423</v>
+        <v>42.65104760214427</v>
       </c>
       <c r="Q42" t="n">
-        <v>28.51109581085042</v>
+        <v>28.51109581085045</v>
       </c>
       <c r="R42" t="n">
-        <v>13.86761518342492</v>
+        <v>13.86761518342493</v>
       </c>
       <c r="S42" t="n">
-        <v>4.148724943614329</v>
+        <v>4.148724943614333</v>
       </c>
       <c r="T42" t="n">
-        <v>0.9002782109047391</v>
+        <v>0.9002782109047399</v>
       </c>
       <c r="U42" t="n">
-        <v>0.0146944212878902</v>
+        <v>0.01469442128789022</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1872534996904915</v>
+        <v>0.1872534996904916</v>
       </c>
       <c r="H43" t="n">
-        <v>1.664853842702734</v>
+        <v>1.664853842702736</v>
       </c>
       <c r="I43" t="n">
-        <v>5.631223427055872</v>
+        <v>5.631223427055877</v>
       </c>
       <c r="J43" t="n">
-        <v>13.23882242811774</v>
+        <v>13.23882242811776</v>
       </c>
       <c r="K43" t="n">
-        <v>21.75545205494982</v>
+        <v>21.75545205494984</v>
       </c>
       <c r="L43" t="n">
-        <v>27.83948849034816</v>
+        <v>27.83948849034818</v>
       </c>
       <c r="M43" t="n">
-        <v>29.35283722875585</v>
+        <v>29.35283722875588</v>
       </c>
       <c r="N43" t="n">
-        <v>28.65489236627313</v>
+        <v>28.65489236627316</v>
       </c>
       <c r="O43" t="n">
-        <v>26.46743102897966</v>
+        <v>26.46743102897968</v>
       </c>
       <c r="P43" t="n">
-        <v>22.64745963529361</v>
+        <v>22.64745963529363</v>
       </c>
       <c r="Q43" t="n">
-        <v>15.6799271422647</v>
+        <v>15.67992714226471</v>
       </c>
       <c r="R43" t="n">
-        <v>8.41959826790155</v>
+        <v>8.419598267901558</v>
       </c>
       <c r="S43" t="n">
-        <v>3.263317808242473</v>
+        <v>3.263317808242475</v>
       </c>
       <c r="T43" t="n">
-        <v>0.8000831350411906</v>
+        <v>0.8000831350411912</v>
       </c>
       <c r="U43" t="n">
-        <v>0.010213827255845</v>
+        <v>0.01021382725584501</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4174495561852892</v>
+        <v>0.4174495561852894</v>
       </c>
       <c r="H44" t="n">
-        <v>4.275205267282594</v>
+        <v>4.275205267282596</v>
       </c>
       <c r="I44" t="n">
         <v>16.09372401483338</v>
       </c>
       <c r="J44" t="n">
-        <v>35.43050926928122</v>
+        <v>35.43050926928124</v>
       </c>
       <c r="K44" t="n">
-        <v>53.10114898260452</v>
+        <v>53.10114898260455</v>
       </c>
       <c r="L44" t="n">
-        <v>65.87667083771008</v>
+        <v>65.87667083771011</v>
       </c>
       <c r="M44" t="n">
-        <v>73.30048938252021</v>
+        <v>73.30048938252025</v>
       </c>
       <c r="N44" t="n">
-        <v>74.48656793403167</v>
+        <v>74.48656793403171</v>
       </c>
       <c r="O44" t="n">
-        <v>70.33555390971419</v>
+        <v>70.33555390971424</v>
       </c>
       <c r="P44" t="n">
-        <v>60.02976799138986</v>
+        <v>60.02976799138989</v>
       </c>
       <c r="Q44" t="n">
-        <v>45.07985576050417</v>
+        <v>45.0798557605042</v>
       </c>
       <c r="R44" t="n">
-        <v>26.22261568372419</v>
+        <v>26.22261568372421</v>
       </c>
       <c r="S44" t="n">
-        <v>9.512631761572287</v>
+        <v>9.512631761572292</v>
       </c>
       <c r="T44" t="n">
-        <v>1.827385432201104</v>
+        <v>1.827385432201105</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03339596449482313</v>
+        <v>0.03339596449482315</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2233552035759311</v>
+        <v>0.2233552035759312</v>
       </c>
       <c r="H45" t="n">
-        <v>2.157141045062282</v>
+        <v>2.157141045062283</v>
       </c>
       <c r="I45" t="n">
-        <v>7.690080473995874</v>
+        <v>7.690080473995877</v>
       </c>
       <c r="J45" t="n">
-        <v>21.10216859749619</v>
+        <v>21.1021685974962</v>
       </c>
       <c r="K45" t="n">
-        <v>36.06696723708357</v>
+        <v>36.0669672370836</v>
       </c>
       <c r="L45" t="n">
-        <v>48.49648839046696</v>
+        <v>48.49648839046699</v>
       </c>
       <c r="M45" t="n">
-        <v>56.59311452009445</v>
+        <v>56.59311452009449</v>
       </c>
       <c r="N45" t="n">
-        <v>58.09096586337341</v>
+        <v>58.09096586337344</v>
       </c>
       <c r="O45" t="n">
-        <v>53.14188477361198</v>
+        <v>53.14188477361201</v>
       </c>
       <c r="P45" t="n">
-        <v>42.65104760214425</v>
+        <v>42.65104760214427</v>
       </c>
       <c r="Q45" t="n">
-        <v>28.51109581085043</v>
+        <v>28.51109581085045</v>
       </c>
       <c r="R45" t="n">
-        <v>13.86761518342492</v>
+        <v>13.86761518342493</v>
       </c>
       <c r="S45" t="n">
-        <v>4.148724943614331</v>
+        <v>4.148724943614333</v>
       </c>
       <c r="T45" t="n">
-        <v>0.9002782109047394</v>
+        <v>0.9002782109047399</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01469442128789021</v>
+        <v>0.01469442128789022</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1872534996904915</v>
+        <v>0.1872534996904916</v>
       </c>
       <c r="H46" t="n">
-        <v>1.664853842702735</v>
+        <v>1.664853842702736</v>
       </c>
       <c r="I46" t="n">
-        <v>5.631223427055874</v>
+        <v>5.631223427055877</v>
       </c>
       <c r="J46" t="n">
-        <v>13.23882242811775</v>
+        <v>13.23882242811776</v>
       </c>
       <c r="K46" t="n">
-        <v>21.75545205494983</v>
+        <v>21.75545205494984</v>
       </c>
       <c r="L46" t="n">
-        <v>27.83948849034817</v>
+        <v>27.83948849034818</v>
       </c>
       <c r="M46" t="n">
-        <v>29.35283722875586</v>
+        <v>29.35283722875588</v>
       </c>
       <c r="N46" t="n">
-        <v>28.65489236627315</v>
+        <v>28.65489236627316</v>
       </c>
       <c r="O46" t="n">
-        <v>26.46743102897966</v>
+        <v>26.46743102897968</v>
       </c>
       <c r="P46" t="n">
-        <v>22.64745963529362</v>
+        <v>22.64745963529363</v>
       </c>
       <c r="Q46" t="n">
-        <v>15.6799271422647</v>
+        <v>15.67992714226471</v>
       </c>
       <c r="R46" t="n">
-        <v>8.419598267901552</v>
+        <v>8.419598267901558</v>
       </c>
       <c r="S46" t="n">
-        <v>3.263317808242474</v>
+        <v>3.263317808242475</v>
       </c>
       <c r="T46" t="n">
-        <v>0.8000831350411908</v>
+        <v>0.8000831350411912</v>
       </c>
       <c r="U46" t="n">
-        <v>0.010213827255845</v>
+        <v>0.01021382725584501</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>8.560449355640291</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>122.0492982736043</v>
+        <v>70.34409218334078</v>
       </c>
       <c r="L11" t="n">
         <v>48.88611160301754</v>
       </c>
       <c r="M11" t="n">
-        <v>83.562854548603</v>
+        <v>83.56285454860301</v>
       </c>
       <c r="N11" t="n">
-        <v>78.0034373651565</v>
+        <v>122.0492982736041</v>
       </c>
       <c r="O11" t="n">
-        <v>36.37425343351539</v>
+        <v>36.37425343351541</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>122.0492982736041</v>
       </c>
       <c r="Q11" t="n">
-        <v>105.8295037361488</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>39.2738852725166</v>
       </c>
       <c r="L12" t="n">
-        <v>31.55186885953221</v>
+        <v>119.764688815662</v>
       </c>
       <c r="M12" t="n">
-        <v>122.0492982736043</v>
+        <v>122.0492982736041</v>
       </c>
       <c r="N12" t="n">
-        <v>122.0492982736043</v>
+        <v>116.6118913185615</v>
       </c>
       <c r="O12" t="n">
-        <v>122.0492982736043</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>85.56614463534065</v>
+        <v>85.56614463534066</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35544,37 +35544,37 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>22.99099941074083</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>52.70633446262974</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>55.45559345640808</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>25.68651404660026</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>5.643027718233905</v>
+        <v>29.67425663193119</v>
       </c>
       <c r="J13" t="n">
-        <v>74.48316832403397</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>122.0492982736041</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>122.0492982736041</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -35583,10 +35583,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>122.0492982736043</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>67.56853785797847</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,22 +35644,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>28.53993294866975</v>
+        <v>118.5115880530826</v>
       </c>
       <c r="K14" t="n">
-        <v>122.0492982736043</v>
+        <v>117.9276633123099</v>
       </c>
       <c r="L14" t="n">
         <v>48.88611160301754</v>
       </c>
       <c r="M14" t="n">
-        <v>83.562854548603</v>
+        <v>83.56285454860301</v>
       </c>
       <c r="N14" t="n">
-        <v>78.0034373651565</v>
+        <v>78.00343736515651</v>
       </c>
       <c r="O14" t="n">
-        <v>122.0492982736043</v>
+        <v>36.37425343351541</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35668,7 +35668,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0.1749753030303829</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,19 +35726,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>39.27388527251659</v>
+        <v>39.2738852725166</v>
       </c>
       <c r="L15" t="n">
         <v>119.764688815662</v>
       </c>
       <c r="M15" t="n">
-        <v>122.0492982736043</v>
+        <v>122.0492982736041</v>
       </c>
       <c r="N15" t="n">
-        <v>80.12873768029858</v>
+        <v>122.0492982736041</v>
       </c>
       <c r="O15" t="n">
-        <v>122.0492982736043</v>
+        <v>80.12873768029806</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35778,13 +35778,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>16.76555500988673</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>49.19982542414411</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>66.23882568770136</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>122.0492982736041</v>
       </c>
       <c r="M16" t="n">
-        <v>122.0492982736043</v>
+        <v>122.0492982736041</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>67.84198311164872</v>
       </c>
       <c r="P16" t="n">
-        <v>122.0492982736043</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>67.56853785797847</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,7 +35878,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>20.7826444991238</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -35887,28 +35887,28 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>48.88611160301754</v>
+        <v>122.0492982736041</v>
       </c>
       <c r="M17" t="n">
-        <v>83.562854548603</v>
+        <v>83.56285454860301</v>
       </c>
       <c r="N17" t="n">
-        <v>78.0034373651565</v>
+        <v>78.00343736515651</v>
       </c>
       <c r="O17" t="n">
-        <v>36.37425343351539</v>
+        <v>36.37425343351541</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>41.22676642120181</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>122.0492982736043</v>
+        <v>122.0492982736041</v>
       </c>
       <c r="S17" t="n">
-        <v>93.60730859266531</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>39.27388527251659</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>119.764688815662</v>
       </c>
       <c r="M18" t="n">
-        <v>122.0492982736043</v>
+        <v>119.4026229528147</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>122.0492982736041</v>
       </c>
       <c r="O18" t="n">
-        <v>116.6118913185622</v>
+        <v>122.0492982736041</v>
       </c>
       <c r="P18" t="n">
-        <v>85.56614463534065</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36124,31 +36124,31 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>48.88611160301754</v>
+        <v>122.0492982736041</v>
       </c>
       <c r="M20" t="n">
-        <v>83.562854548603</v>
+        <v>83.56285454860301</v>
       </c>
       <c r="N20" t="n">
-        <v>78.0034373651565</v>
+        <v>122.0492982736041</v>
       </c>
       <c r="O20" t="n">
-        <v>36.37425343351539</v>
+        <v>36.37425343351541</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>15.92907845042393</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>122.0492982736043</v>
+        <v>25.62289519369297</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>93.60730859266536</v>
       </c>
       <c r="T20" t="n">
-        <v>98.46087464136514</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>33.83647831747452</v>
+        <v>39.2738852725166</v>
       </c>
       <c r="L21" t="n">
-        <v>119.764688815662</v>
+        <v>114.3272818606195</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>122.0492982736041</v>
       </c>
       <c r="N21" t="n">
-        <v>122.0492982736043</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>122.0492982736043</v>
+        <v>122.0492982736041</v>
       </c>
       <c r="P21" t="n">
-        <v>85.56614463534065</v>
+        <v>85.56614463534066</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36352,7 +36352,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>48.50010323591834</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -36361,16 +36361,16 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>48.88611160301754</v>
+        <v>122.0492982736042</v>
       </c>
       <c r="M23" t="n">
-        <v>83.562854548603</v>
+        <v>83.56285454860301</v>
       </c>
       <c r="N23" t="n">
-        <v>78.0034373651565</v>
+        <v>122.0492982736042</v>
       </c>
       <c r="O23" t="n">
-        <v>36.37425343351539</v>
+        <v>36.37425343351541</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36382,13 +36382,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>93.60730859266536</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>98.46087464136514</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>44.37106813136278</v>
+        <v>70.7301005504401</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>39.2738852725166</v>
       </c>
       <c r="L24" t="n">
-        <v>31.55186885953213</v>
+        <v>119.764688815662</v>
       </c>
       <c r="M24" t="n">
-        <v>122.0492982736043</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>122.0492982736043</v>
+        <v>122.0492982736042</v>
       </c>
       <c r="O24" t="n">
-        <v>122.0492982736043</v>
+        <v>122.0492982736042</v>
       </c>
       <c r="P24" t="n">
-        <v>85.56614463534065</v>
+        <v>80.12873768029824</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>137.046269626368</v>
+        <v>137.0462696263682</v>
       </c>
       <c r="K26" t="n">
-        <v>207.5549153019833</v>
+        <v>207.5549153019834</v>
       </c>
       <c r="L26" t="n">
-        <v>261.8032688511578</v>
+        <v>261.803268851158</v>
       </c>
       <c r="M26" t="n">
-        <v>296.4800117967433</v>
+        <v>296.4800117967434</v>
       </c>
       <c r="N26" t="n">
-        <v>290.9205946132968</v>
+        <v>290.9205946132969</v>
       </c>
       <c r="O26" t="n">
-        <v>249.2914106816557</v>
+        <v>249.2914106816558</v>
       </c>
       <c r="P26" t="n">
-        <v>199.3682333132221</v>
+        <v>199.3682333132212</v>
       </c>
       <c r="Q26" t="n">
-        <v>124.3641853094343</v>
+        <v>124.3641853094345</v>
       </c>
       <c r="R26" t="n">
-        <v>18.70965687631594</v>
+        <v>18.70965687631605</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>39.27388527251659</v>
+        <v>39.2738852725166</v>
       </c>
       <c r="L27" t="n">
         <v>119.764688815662</v>
@@ -36689,7 +36689,7 @@
         <v>134.3972494427106</v>
       </c>
       <c r="P27" t="n">
-        <v>85.56614463534065</v>
+        <v>85.56614463534066</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36732,13 +36732,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>67.73450699742958</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>71.24101603591529</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>73.99027502969363</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -36747,7 +36747,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>23.55271883791099</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -36756,7 +36756,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>181.4809472743051</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -36771,7 +36771,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>55.03756962664361</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>137.046269626368</v>
+        <v>137.0462696263681</v>
       </c>
       <c r="K29" t="n">
         <v>207.5549153019833</v>
@@ -36850,10 +36850,10 @@
         <v>199.3682333132221</v>
       </c>
       <c r="Q29" t="n">
-        <v>124.3641853094343</v>
+        <v>124.3641853094344</v>
       </c>
       <c r="R29" t="n">
-        <v>18.70965687631594</v>
+        <v>18.70965687631596</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>39.27388527251659</v>
+        <v>39.2738852725166</v>
       </c>
       <c r="L30" t="n">
         <v>119.764688815662</v>
@@ -36926,7 +36926,7 @@
         <v>134.3972494427106</v>
       </c>
       <c r="P30" t="n">
-        <v>85.56614463534065</v>
+        <v>85.56614463534066</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36999,13 +36999,13 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>197.1335658820402</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>81.49781192997683</v>
       </c>
       <c r="P31" t="n">
-        <v>39.38495101890937</v>
+        <v>155.0207049709725</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37081,7 +37081,7 @@
         <v>290.9205946132968</v>
       </c>
       <c r="O32" t="n">
-        <v>249.2914106816556</v>
+        <v>249.2914106816557</v>
       </c>
       <c r="P32" t="n">
         <v>199.368233313222</v>
@@ -37090,7 +37090,7 @@
         <v>124.3641853094343</v>
       </c>
       <c r="R32" t="n">
-        <v>18.7096568763159</v>
+        <v>18.70965687631591</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>39.27388527251659</v>
+        <v>39.2738852725166</v>
       </c>
       <c r="L33" t="n">
         <v>119.764688815662</v>
@@ -37163,7 +37163,7 @@
         <v>134.3972494427106</v>
       </c>
       <c r="P33" t="n">
-        <v>85.56614463534065</v>
+        <v>85.56614463534066</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37203,7 +37203,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>46.45997627616791</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -37227,10 +37227,10 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>146.4463949263718</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>90.07212197457795</v>
+        <v>181.480947274305</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -37239,7 +37239,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>8.577593350476908</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -37303,37 +37303,37 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>172.2223462900929</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>242.7309919657081</v>
+        <v>67.55992882104199</v>
       </c>
       <c r="L35" t="n">
-        <v>48.88611160301748</v>
+        <v>296.9793455148825</v>
       </c>
       <c r="M35" t="n">
-        <v>229.5901080673972</v>
+        <v>328.8902835902927</v>
       </c>
       <c r="N35" t="n">
-        <v>78.00343736515646</v>
+        <v>78.00343736515651</v>
       </c>
       <c r="O35" t="n">
-        <v>36.37425343351535</v>
+        <v>36.37425343351541</v>
       </c>
       <c r="P35" t="n">
-        <v>234.5443099769469</v>
+        <v>234.5443099769468</v>
       </c>
       <c r="Q35" t="n">
         <v>159.5402619731591</v>
       </c>
       <c r="R35" t="n">
-        <v>53.88573354004076</v>
+        <v>53.88573354004067</v>
       </c>
       <c r="S35" t="n">
-        <v>20.82075889537841</v>
+        <v>20.8207588953783</v>
       </c>
       <c r="T35" t="n">
-        <v>25.67432494407819</v>
+        <v>25.67432494407807</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>39.27388527251657</v>
+        <v>39.2738852725166</v>
       </c>
       <c r="L36" t="n">
         <v>119.764688815662</v>
@@ -37397,10 +37397,10 @@
         <v>208.4679356963294</v>
       </c>
       <c r="O36" t="n">
-        <v>134.3972494427105</v>
+        <v>134.3972494427106</v>
       </c>
       <c r="P36" t="n">
-        <v>85.56614463534062</v>
+        <v>85.56614463534066</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37452,16 +37452,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.149682975801426</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>82.31163086012799</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>84.46131383592963</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -37537,40 +37537,40 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>7.497149376212093</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>172.2223462900928</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>296.9793455148826</v>
+        <v>48.88611160301754</v>
       </c>
       <c r="M38" t="n">
-        <v>83.56285454860294</v>
+        <v>242.4050416891077</v>
       </c>
       <c r="N38" t="n">
-        <v>142.7975613160216</v>
+        <v>326.0966712770215</v>
       </c>
       <c r="O38" t="n">
-        <v>284.4674873453805</v>
+        <v>36.37425343351541</v>
       </c>
       <c r="P38" t="n">
-        <v>234.5443099769469</v>
+        <v>234.5443099769468</v>
       </c>
       <c r="Q38" t="n">
         <v>159.5402619731591</v>
       </c>
       <c r="R38" t="n">
-        <v>53.88573354004076</v>
+        <v>53.88573354004067</v>
       </c>
       <c r="S38" t="n">
-        <v>20.82075889537841</v>
+        <v>20.8207588953783</v>
       </c>
       <c r="T38" t="n">
-        <v>25.67432494407819</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>39.27388527251657</v>
+        <v>39.2738852725166</v>
       </c>
       <c r="L39" t="n">
         <v>119.764688815662</v>
@@ -37634,10 +37634,10 @@
         <v>208.4679356963294</v>
       </c>
       <c r="O39" t="n">
-        <v>134.3972494427105</v>
+        <v>134.3972494427106</v>
       </c>
       <c r="P39" t="n">
-        <v>85.56614463534062</v>
+        <v>85.56614463534066</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37701,13 +37701,13 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>84.46131383592963</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>84.4613138359294</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -37777,34 +37777,34 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>164.7251969138806</v>
+        <v>164.7251969138807</v>
       </c>
       <c r="K41" t="n">
-        <v>44.34143518913781</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>289.4821961386704</v>
+        <v>48.88611160301754</v>
       </c>
       <c r="M41" t="n">
-        <v>83.56285454860294</v>
+        <v>127.9042897377405</v>
       </c>
       <c r="N41" t="n">
-        <v>318.5995219008093</v>
+        <v>318.5995219008095</v>
       </c>
       <c r="O41" t="n">
-        <v>36.37425343351535</v>
+        <v>276.9703379691683</v>
       </c>
       <c r="P41" t="n">
         <v>227.0471606007347</v>
       </c>
       <c r="Q41" t="n">
-        <v>152.0431125969469</v>
+        <v>152.043112596947</v>
       </c>
       <c r="R41" t="n">
-        <v>46.38858416382855</v>
+        <v>46.38858416382858</v>
       </c>
       <c r="S41" t="n">
-        <v>13.3236095191662</v>
+        <v>13.32360951916621</v>
       </c>
       <c r="T41" t="n">
         <v>18.17717556786598</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>39.27388527251657</v>
+        <v>39.2738852725166</v>
       </c>
       <c r="L42" t="n">
         <v>119.764688815662</v>
@@ -37871,10 +37871,10 @@
         <v>208.4679356963294</v>
       </c>
       <c r="O42" t="n">
-        <v>134.3972494427105</v>
+        <v>134.3972494427106</v>
       </c>
       <c r="P42" t="n">
-        <v>85.56614463534062</v>
+        <v>85.56614463534066</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37923,16 +37923,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>66.98207220873945</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>74.81448148391578</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>29.55013752620139</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -37959,7 +37959,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>37.38254680137771</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38014,37 +38014,37 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>164.7251969138807</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>235.2338425894959</v>
       </c>
       <c r="L44" t="n">
-        <v>98.58978873831231</v>
+        <v>48.88611160301754</v>
       </c>
       <c r="M44" t="n">
-        <v>83.56285454860297</v>
+        <v>324.158939084256</v>
       </c>
       <c r="N44" t="n">
-        <v>318.5995219008094</v>
+        <v>222.0565150434918</v>
       </c>
       <c r="O44" t="n">
-        <v>36.37425343351536</v>
+        <v>276.9703379691683</v>
       </c>
       <c r="P44" t="n">
         <v>227.0471606007347</v>
       </c>
       <c r="Q44" t="n">
-        <v>152.043112596947</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>46.38858416382856</v>
+        <v>46.38858416382858</v>
       </c>
       <c r="S44" t="n">
-        <v>13.3236095191662</v>
+        <v>13.32360951916621</v>
       </c>
       <c r="T44" t="n">
-        <v>18.17717556786598</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>39.27388527251658</v>
+        <v>39.2738852725166</v>
       </c>
       <c r="L45" t="n">
         <v>119.764688815662</v>
@@ -38108,10 +38108,10 @@
         <v>208.4679356963294</v>
       </c>
       <c r="O45" t="n">
-        <v>134.3972494427105</v>
+        <v>134.3972494427106</v>
       </c>
       <c r="P45" t="n">
-        <v>85.56614463534063</v>
+        <v>85.56614463534066</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38190,19 +38190,19 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>85.68798988270677</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>50.12698020993629</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>37.38254680137771</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>16.85509199880316</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -38214,7 +38214,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>18.67662912741039</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
